--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
     <sheet name="cons" sheetId="2" r:id="rId2"/>
+    <sheet name="newPa2" sheetId="3" r:id="rId3"/>
+    <sheet name="position" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="354">
   <si>
     <t>instrument</t>
   </si>
@@ -627,17 +629,473 @@
     <t>'denominator'</t>
   </si>
   <si>
-    <t xml:space="preserve">New </t>
-  </si>
-  <si>
     <t>Tier</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Intermonth</t>
+  </si>
+  <si>
+    <t>'AMF',</t>
+  </si>
+  <si>
+    <t>0.064833872,</t>
+  </si>
+  <si>
+    <t>'tierprice'</t>
+  </si>
+  <si>
+    <t>0.066706577,</t>
+  </si>
+  <si>
+    <t>0.095829636,</t>
+  </si>
+  <si>
+    <t>0.071646717,</t>
+  </si>
+  <si>
+    <t>0.087584783,</t>
+  </si>
+  <si>
+    <t>0.07838697,</t>
+  </si>
+  <si>
+    <t>'BTR',</t>
+  </si>
+  <si>
+    <t>0.064521507,</t>
+  </si>
+  <si>
+    <t>0.064384109,</t>
+  </si>
+  <si>
+    <t>0.095744681,</t>
+  </si>
+  <si>
+    <t>0.067450536,</t>
+  </si>
+  <si>
+    <t>0.083519505,</t>
+  </si>
+  <si>
+    <t>0.075702956,</t>
+  </si>
+  <si>
+    <t>74160.0}</t>
+  </si>
+  <si>
+    <t>0.059461481,</t>
+  </si>
+  <si>
+    <t>37080.0}</t>
+  </si>
+  <si>
+    <t>0.072196621,</t>
+  </si>
+  <si>
+    <t>0.066034082,</t>
+  </si>
+  <si>
+    <t>'SMP',</t>
+  </si>
+  <si>
+    <t>0.060050042,</t>
+  </si>
+  <si>
+    <t>0.057803468,</t>
+  </si>
+  <si>
+    <t>0.081395349,</t>
+  </si>
+  <si>
+    <t>0.058905342,</t>
+  </si>
+  <si>
+    <t>0.072457627,</t>
+  </si>
+  <si>
+    <t>0.063575168,</t>
+  </si>
+  <si>
+    <t>0.06084507,</t>
+  </si>
+  <si>
+    <t>5230.0}</t>
+  </si>
+  <si>
+    <t>0.062230335,</t>
+  </si>
+  <si>
+    <t>5680.0}</t>
+  </si>
+  <si>
+    <t>0.084615385,</t>
+  </si>
+  <si>
+    <t>0.060288043,</t>
+  </si>
+  <si>
+    <t>5455.0}</t>
+  </si>
+  <si>
+    <t>0.073937677,</t>
+  </si>
+  <si>
+    <t>2615.0}</t>
+  </si>
+  <si>
+    <t>0.068204783,</t>
+  </si>
+  <si>
+    <t>2840.0}</t>
+  </si>
+  <si>
+    <t>'rc_intermonth_spread'</t>
+  </si>
+  <si>
+    <t>0.0}</t>
+  </si>
+  <si>
+    <t>1490,</t>
+  </si>
+  <si>
+    <t>2204.8317154799997}</t>
+  </si>
+  <si>
+    <t>1900,</t>
+  </si>
+  <si>
+    <t>2677.05070668}</t>
+  </si>
+  <si>
+    <t>1710,</t>
+  </si>
+  <si>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>318.2197161}</t>
+  </si>
+  <si>
+    <t>353.4683028}</t>
+  </si>
+  <si>
+    <t>160,</t>
+  </si>
+  <si>
+    <t>328.871274565}</t>
+  </si>
+  <si>
+    <t>135,</t>
+  </si>
+  <si>
+    <t>193.34702535499997}</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>193.70158372}</t>
+  </si>
+  <si>
+    <t>2.2.1 retrieve data from pa2 file and store to list</t>
+  </si>
+  <si>
+    <t>2.2.2 price list + price list parameter</t>
+  </si>
+  <si>
+    <t>2.2.2 instrument list + price parameter</t>
+  </si>
+  <si>
+    <t>4.1.1 new scan range rate % = revised price list + rc scan range csv</t>
+  </si>
+  <si>
+    <t>4.1.2 new price scan range rate $ = revised instrument list + rc scan range csv</t>
+  </si>
+  <si>
+    <t>4.2.1. create tier list</t>
+  </si>
+  <si>
+    <t>4.2. calculate intermonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.2. update which tier the instrument belongs to </t>
+  </si>
+  <si>
+    <t>4.2.3 add to tier list price sum, scan sum, denominator</t>
+  </si>
+  <si>
+    <t>4.2.4. calculate tier price per intermonth tier</t>
+  </si>
+  <si>
+    <t>4.2.5 add new column rc intermonth spread</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>'rc_intercomm_deltaa'</t>
+  </si>
+  <si>
+    <t>'rc_intercomm_deltab'</t>
+  </si>
+  <si>
+    <t>'rc_intercomm_rate'</t>
+  </si>
+  <si>
+    <t>4.3. calculate new intercomm. Update rc intercomm data</t>
+  </si>
+  <si>
+    <t>original from pa2 file</t>
+  </si>
+  <si>
+    <t>RC intermonth</t>
+  </si>
+  <si>
+    <t>C MKP   1001020000000010101A020101B</t>
+  </si>
+  <si>
+    <t>C MKP   1002020000000010201A020201B</t>
+  </si>
+  <si>
+    <t>C MKP   1003020000000010301A020301B</t>
+  </si>
+  <si>
+    <t>C MKP   1004020002204010101A020201B</t>
+  </si>
+  <si>
+    <t>C MKP   1005020002677010101A020301B</t>
+  </si>
+  <si>
+    <t>C MKP   1006020000000010201A020301B</t>
+  </si>
+  <si>
+    <t>C WMP   1001020000318010101A020101B</t>
+  </si>
+  <si>
+    <t>C WMP   1002020000353010201A020201B</t>
+  </si>
+  <si>
+    <t>C WMP   1003020000000010301A020301B</t>
+  </si>
+  <si>
+    <t>C WMP   1004020000328010101A020201B</t>
+  </si>
+  <si>
+    <t>C WMP   1005020000193010101A020301B</t>
+  </si>
+  <si>
+    <t>C WMP   1006020000193010201A020301B</t>
+  </si>
+  <si>
+    <t>RC intercomm</t>
+  </si>
+  <si>
+    <t>6 CDA00010200000NZXNWMP   0100000ANZXNMKP   0010000B</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>{'bpins'</t>
+  </si>
+  <si>
+    <t>'FCSNZX</t>
+  </si>
+  <si>
+    <t>WMP</t>
+  </si>
+  <si>
+    <t>FUT</t>
+  </si>
+  <si>
+    <t>+00000000000000'</t>
+  </si>
+  <si>
+    <t>'position'</t>
+  </si>
+  <si>
+    <t>-23}</t>
+  </si>
+  <si>
+    <t>OOFP201812</t>
+  </si>
+  <si>
+    <t>+00028500000000'</t>
+  </si>
+  <si>
+    <t>-3}</t>
+  </si>
+  <si>
+    <t>'OMFNZX</t>
+  </si>
+  <si>
+    <t>OOFC201812</t>
+  </si>
+  <si>
+    <t>+00029500000000'</t>
+  </si>
+  <si>
+    <t>10}</t>
+  </si>
+  <si>
+    <t>MKP</t>
+  </si>
+  <si>
+    <t>-50}</t>
+  </si>
+  <si>
+    <t>-20}</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>+00000000000000'}</t>
+  </si>
+  <si>
+    <t>+00028500000000'}</t>
+  </si>
+  <si>
+    <t>+00029500000000'}</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>{'bpacc'</t>
+  </si>
+  <si>
+    <t>'FCSMargin2'}</t>
+  </si>
+  <si>
+    <t>'FCSSum'}</t>
+  </si>
+  <si>
+    <t>'FCSMargin4'}</t>
+  </si>
+  <si>
+    <t>'OMFMargin2'}</t>
+  </si>
+  <si>
+    <t>'OMFSum'}</t>
+  </si>
+  <si>
+    <t>'OMFMargin3'}</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>{'bp'</t>
+  </si>
+  <si>
+    <t>'FCS'</t>
+  </si>
+  <si>
+    <t>'acc'</t>
+  </si>
+  <si>
+    <t>'Margin4'</t>
+  </si>
+  <si>
+    <t>'comm'</t>
+  </si>
+  <si>
+    <t>'OOF'</t>
+  </si>
+  <si>
+    <t>'P'</t>
+  </si>
+  <si>
+    <t>'strikeconv'</t>
+  </si>
+  <si>
+    <t>'OMF'</t>
+  </si>
+  <si>
+    <t>'Margin2'</t>
+  </si>
+  <si>
+    <t>'C'</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>'OMFMargin2'</t>
+  </si>
+  <si>
+    <t>'FCSSum'</t>
+  </si>
+  <si>
+    <t>'FCSMargin2'</t>
+  </si>
+  <si>
+    <t>'FCSMargin4'</t>
+  </si>
+  <si>
+    <t>'OMFMargin3'</t>
+  </si>
+  <si>
+    <t>'OMFSum'</t>
+  </si>
+  <si>
+    <t>w currency</t>
+  </si>
+  <si>
+    <t>sum bp instrument with position</t>
+  </si>
+  <si>
+    <t>{'bpins': 'FCSNZX  WMP   WMP       OOFP201812              201812  +00028500000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'position': -3}</t>
+  </si>
+  <si>
+    <t>{'bpins': 'OMFNZX  MKP   MKP       FUT 201909                      +00000000000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'position': -70}</t>
+  </si>
+  <si>
+    <t>{'bpins': 'FCSNZX  WMP   WMP       FUT 201909                      +00000000000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'position': -23}</t>
+  </si>
+  <si>
+    <t>{'bpins': 'OMFNZX  WMP   WMP       OOFC201812              201812  +00029500000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'position': 10}</t>
+  </si>
+  <si>
+    <t>'Sum'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +1108,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,11 +1146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,13 +1175,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -756,13 +1222,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -803,13 +1269,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -850,13 +1316,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -897,13 +1363,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -944,13 +1410,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -991,13 +1457,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1038,13 +1504,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1085,13 +1551,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1132,13 +1598,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1183,9 +1649,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1196,7 +1662,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="16125825" y="3048000"/>
-          <a:ext cx="6562725" cy="2286000"/>
+          <a:ext cx="9753600" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1226,13 +1692,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1242,8 +1708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="26489025" y="4000500"/>
-          <a:ext cx="609600" cy="2095500"/>
+          <a:off x="26489025" y="4191000"/>
+          <a:ext cx="3657600" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1271,15 +1737,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1291,6 +1757,580 @@
         <a:xfrm>
           <a:off x="25269825" y="3238500"/>
           <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="9906000"/>
+          <a:ext cx="27432000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14906625" y="9906000"/>
+          <a:ext cx="609600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="5905500"/>
+          <a:ext cx="33528000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="2857500"/>
+          <a:ext cx="6705600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="1524000"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1333500"/>
+          <a:ext cx="4876800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="2476500"/>
+          <a:ext cx="8210550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="3619500"/>
+          <a:ext cx="609600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13411200" y="571500"/>
+          <a:ext cx="3048000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="190500"/>
+          <a:ext cx="10363200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10363200" y="6477000"/>
+          <a:ext cx="6096000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16935450" y="1333500"/>
+          <a:ext cx="942975" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1582,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:CC86"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BG24" sqref="BG24"/>
+    <sheetView topLeftCell="AH7" workbookViewId="0">
+      <selection activeCell="BJ26" sqref="BJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,142 +2633,49 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1746,13 +2693,13 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
@@ -1770,13 +2717,13 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W3" t="s">
         <v>21</v>
       </c>
       <c r="X3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
         <v>23</v>
@@ -1788,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="s">
         <v>6</v>
@@ -1806,13 +2753,13 @@
         <v>10</v>
       </c>
       <c r="AI3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AJ3" t="s">
         <v>21</v>
       </c>
       <c r="AK3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="s">
         <v>23</v>
@@ -1827,7 +2774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1838,19 +2785,19 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -1862,19 +2809,19 @@
         <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S4" t="s">
         <v>8</v>
       </c>
       <c r="T4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U4" t="s">
         <v>10</v>
       </c>
       <c r="V4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
         <v>21</v>
@@ -1898,19 +2845,19 @@
         <v>6</v>
       </c>
       <c r="AE4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="s">
         <v>8</v>
       </c>
       <c r="AG4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="s">
         <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ4" t="s">
         <v>21</v>
@@ -1931,7 +2878,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1948,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -1972,13 +2919,13 @@
         <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U5" t="s">
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W5" t="s">
         <v>21</v>
@@ -2008,13 +2955,13 @@
         <v>8</v>
       </c>
       <c r="AG5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="s">
         <v>10</v>
       </c>
       <c r="AI5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="s">
         <v>21</v>
@@ -2035,12 +2982,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2058,13 +3005,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="s">
         <v>6</v>
@@ -2082,25 +3029,25 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" t="s">
         <v>21</v>
       </c>
       <c r="X6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="s">
         <v>23</v>
       </c>
       <c r="Z6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
         <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="s">
         <v>6</v>
@@ -2118,74 +3065,140 @@
         <v>10</v>
       </c>
       <c r="AI6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ6" t="s">
         <v>21</v>
       </c>
       <c r="AK6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="s">
         <v>23</v>
       </c>
       <c r="AM6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="s">
         <v>178</v>
       </c>
       <c r="AO6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2208,13 +3221,13 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -2223,7 +3236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -2261,45 +3274,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2310,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2337,7 +3350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -2375,692 +3388,358 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AQ22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS15" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" t="s">
-        <v>58</v>
-      </c>
-      <c r="T28" t="s">
-        <v>59</v>
-      </c>
-      <c r="U28" t="s">
-        <v>60</v>
-      </c>
-      <c r="V28" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" t="s">
-        <v>61</v>
-      </c>
-      <c r="X28" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -3072,13 +3751,13 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
         <v>50</v>
@@ -3090,13 +3769,13 @@
         <v>51</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
         <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O29" t="s">
         <v>55</v>
@@ -3108,13 +3787,13 @@
         <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
         <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
         <v>60</v>
@@ -3135,303 +3814,307 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" t="s">
+        <v>66</v>
+      </c>
+      <c r="U30" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="BN31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>71</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>72</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>30</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>35</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="BN32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>79</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>80</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>81</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>80</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>82</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>80</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M34" t="s">
         <v>83</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N34" t="s">
         <v>80</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O34" t="s">
         <v>84</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q34" t="s">
         <v>85</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R34" t="s">
         <v>80</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S34" t="s">
         <v>86</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T34" t="s">
         <v>80</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U34" t="s">
         <v>87</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="BN34" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="R35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC34" s="3" t="s">
+      <c r="AC35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AQ34" s="3" t="s">
+      <c r="AF35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AR34" s="3" t="s">
+      <c r="AR35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AS34" s="3" t="s">
+      <c r="AS35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="AU35" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BN35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP35" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ35" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O35" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" t="s">
-        <v>14</v>
-      </c>
-      <c r="S35" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" t="s">
-        <v>22</v>
-      </c>
-      <c r="W35" t="s">
-        <v>23</v>
-      </c>
-      <c r="X35" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>182</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -3443,13 +4126,13 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O36" t="s">
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="s">
         <v>6</v>
@@ -3461,25 +4144,25 @@
         <v>8</v>
       </c>
       <c r="T36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U36" t="s">
         <v>21</v>
       </c>
       <c r="V36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W36" t="s">
         <v>23</v>
       </c>
       <c r="X36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AB36" t="s">
         <v>4</v>
       </c>
       <c r="AC36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD36" t="s">
         <v>6</v>
@@ -3491,37 +4174,37 @@
         <v>8</v>
       </c>
       <c r="AG36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="s">
         <v>21</v>
       </c>
       <c r="AI36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AJ36" t="s">
         <v>23</v>
       </c>
       <c r="AK36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="s">
         <v>180</v>
       </c>
       <c r="AM36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AN36" t="s">
         <v>182</v>
       </c>
       <c r="AO36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AQ36" t="s">
         <v>4</v>
       </c>
       <c r="AR36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AS36" t="s">
         <v>6</v>
@@ -3533,31 +4216,31 @@
         <v>8</v>
       </c>
       <c r="AV36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW36" t="s">
         <v>21</v>
       </c>
       <c r="AX36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AY36" t="s">
         <v>23</v>
       </c>
       <c r="AZ36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BA36" t="s">
         <v>180</v>
       </c>
       <c r="BB36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BC36" t="s">
         <v>182</v>
       </c>
       <c r="BD36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="BE36" t="s">
         <v>190</v>
@@ -3565,8 +4248,56 @@
       <c r="BF36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BN36" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>272</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>274</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3583,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O37" t="s">
         <v>4</v>
@@ -3601,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="T37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U37" t="s">
         <v>21</v>
@@ -3631,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="AG37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="s">
         <v>21</v>
@@ -3649,13 +4380,13 @@
         <v>180</v>
       </c>
       <c r="AM37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN37" t="s">
         <v>182</v>
       </c>
       <c r="AO37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AQ37" t="s">
         <v>4</v>
@@ -3673,7 +4404,7 @@
         <v>8</v>
       </c>
       <c r="AV37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW37" t="s">
         <v>21</v>
@@ -3691,22 +4422,22 @@
         <v>180</v>
       </c>
       <c r="BB37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BC37" t="s">
         <v>182</v>
       </c>
       <c r="BD37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BE37" t="s">
         <v>190</v>
       </c>
       <c r="BF37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3717,13 +4448,13 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O38" t="s">
         <v>4</v>
@@ -3735,13 +4466,13 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S38" t="s">
         <v>8</v>
       </c>
       <c r="T38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U38" t="s">
         <v>21</v>
@@ -3765,13 +4496,13 @@
         <v>6</v>
       </c>
       <c r="AE38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AF38" t="s">
         <v>8</v>
       </c>
       <c r="AG38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="s">
         <v>21</v>
@@ -3789,13 +4520,13 @@
         <v>180</v>
       </c>
       <c r="AM38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AN38" t="s">
         <v>182</v>
       </c>
       <c r="AO38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AQ38" t="s">
         <v>4</v>
@@ -3807,13 +4538,13 @@
         <v>6</v>
       </c>
       <c r="AT38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AU38" t="s">
         <v>8</v>
       </c>
       <c r="AV38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW38" t="s">
         <v>21</v>
@@ -3831,62 +4562,176 @@
         <v>180</v>
       </c>
       <c r="BB38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BC38" t="s">
         <v>182</v>
       </c>
       <c r="BD38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BE38" t="s">
         <v>190</v>
       </c>
       <c r="BF38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" t="s">
+        <v>15</v>
+      </c>
+      <c r="U39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" t="s">
+        <v>30</v>
+      </c>
+      <c r="W39" t="s">
+        <v>23</v>
+      </c>
+      <c r="X39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF39" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -3898,7 +4743,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>93</v>
@@ -3907,7 +4752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3924,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
         <v>93</v>
@@ -3933,7 +4778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3944,13 +4789,13 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>93</v>
@@ -3959,60 +4804,42 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" t="s">
-        <v>98</v>
-      </c>
-      <c r="K45" t="s">
-        <v>99</v>
-      </c>
-      <c r="L45" t="s">
-        <v>100</v>
-      </c>
-      <c r="M45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -4029,7 +4856,7 @@
         <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -4047,16 +4874,16 @@
         <v>99</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M46" t="s">
         <v>10</v>
       </c>
       <c r="N46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4073,7 +4900,7 @@
         <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
         <v>8</v>
@@ -4085,22 +4912,22 @@
         <v>97</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s">
         <v>99</v>
       </c>
       <c r="L47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M47" t="s">
         <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -4117,7 +4944,7 @@
         <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -4135,42 +4962,1759 @@
         <v>99</v>
       </c>
       <c r="L48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s">
         <v>10</v>
       </c>
       <c r="N48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>113</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF53" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>248</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>256</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AQ80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX82" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX85" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="43:52" x14ac:dyDescent="0.25">
+      <c r="AQ86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ86" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4182,10 +6726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4193,7 +6737,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
@@ -4201,7 +6745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -4221,7 +6765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -4241,7 +6785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -4261,15 +6805,36 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -4294,8 +6859,68 @@
       <c r="H6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" t="s">
+        <v>191</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>204</v>
+      </c>
+      <c r="X6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -4320,8 +6945,68 @@
       <c r="H7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" t="s">
+        <v>193</v>
+      </c>
+      <c r="S7" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" t="s">
+        <v>191</v>
+      </c>
+      <c r="V7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>204</v>
+      </c>
+      <c r="X7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -4346,8 +7031,68 @@
       <c r="H8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>199</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>204</v>
+      </c>
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -4372,8 +7117,68 @@
       <c r="H9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>198</v>
+      </c>
+      <c r="R9" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T9" t="s">
+        <v>191</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>204</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -4398,8 +7203,68 @@
       <c r="H10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
+        <v>199</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>204</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -4424,8 +7289,68 @@
       <c r="H11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>199</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>204</v>
+      </c>
+      <c r="X11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -4450,8 +7375,38 @@
       <c r="H12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>212</v>
+      </c>
+      <c r="X12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4476,8 +7431,38 @@
       <c r="H13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>212</v>
+      </c>
+      <c r="X13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4502,8 +7487,38 @@
       <c r="H14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>212</v>
+      </c>
+      <c r="X14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -4528,8 +7543,38 @@
       <c r="H15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>212</v>
+      </c>
+      <c r="X15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -4554,8 +7599,38 @@
       <c r="H16" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>212</v>
+      </c>
+      <c r="X16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4580,8 +7655,38 @@
       <c r="H17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -4606,8 +7711,38 @@
       <c r="H18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -4632,8 +7767,38 @@
       <c r="H19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4658,8 +7823,38 @@
       <c r="H20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -4684,8 +7879,38 @@
       <c r="H21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -4710,8 +7935,38 @@
       <c r="H22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -4736,8 +7991,38 @@
       <c r="H23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -4762,8 +8047,38 @@
       <c r="H24" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -4788,8 +8103,38 @@
       <c r="H25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4814,8 +8159,38 @@
       <c r="H26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -4840,8 +8215,38 @@
       <c r="H27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -4866,8 +8271,38 @@
       <c r="H28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" t="s">
+        <v>224</v>
+      </c>
+      <c r="X28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -4892,8 +8327,38 @@
       <c r="H29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" t="s">
+        <v>224</v>
+      </c>
+      <c r="X29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4918,8 +8383,38 @@
       <c r="H30" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -4944,8 +8439,38 @@
       <c r="H31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -4970,8 +8495,38 @@
       <c r="H32" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -4996,8 +8551,38 @@
       <c r="H33" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -5022,8 +8607,38 @@
       <c r="H34" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -5048,8 +8663,38 @@
       <c r="H35" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -5074,8 +8719,38 @@
       <c r="H36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" t="s">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>125</v>
       </c>
@@ -5083,7 +8758,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -5115,7 +8790,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -5147,7 +8822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -5179,7 +8854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -5211,7 +8886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5243,7 +8918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -5275,7 +8950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -5307,7 +8982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5339,7 +9014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -5371,7 +9046,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -5403,7 +9078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -5630,5 +9305,1106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2">
+        <v>201909</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3">
+        <v>201812</v>
+      </c>
+      <c r="G3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4">
+        <v>201812</v>
+      </c>
+      <c r="G4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5">
+        <v>201909</v>
+      </c>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6">
+        <v>201909</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8">
+        <v>201909</v>
+      </c>
+      <c r="G8" t="s">
+        <v>312</v>
+      </c>
+      <c r="R8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9">
+        <v>201812</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10">
+        <v>201812</v>
+      </c>
+      <c r="G10" t="s">
+        <v>314</v>
+      </c>
+      <c r="R10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11">
+        <v>201909</v>
+      </c>
+      <c r="G11" t="s">
+        <v>312</v>
+      </c>
+      <c r="R11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12">
+        <v>201909</v>
+      </c>
+      <c r="G12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="R14" t="s">
+        <v>316</v>
+      </c>
+      <c r="S14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="R15" t="s">
+        <v>316</v>
+      </c>
+      <c r="S15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="R16" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>318</v>
+      </c>
+      <c r="R17" t="s">
+        <v>316</v>
+      </c>
+      <c r="S17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="R18" t="s">
+        <v>316</v>
+      </c>
+      <c r="S18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+      <c r="R19" t="s">
+        <v>316</v>
+      </c>
+      <c r="S19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="U22" t="s">
+        <v>316</v>
+      </c>
+      <c r="V22" t="s">
+        <v>337</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" t="s">
+        <v>316</v>
+      </c>
+      <c r="V23" t="s">
+        <v>337</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>316</v>
+      </c>
+      <c r="V24" t="s">
+        <v>338</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>316</v>
+      </c>
+      <c r="V25" t="s">
+        <v>338</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>316</v>
+      </c>
+      <c r="V26" t="s">
+        <v>339</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>316</v>
+      </c>
+      <c r="V27" t="s">
+        <v>339</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>316</v>
+      </c>
+      <c r="V28" t="s">
+        <v>340</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>316</v>
+      </c>
+      <c r="V29" t="s">
+        <v>340</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>316</v>
+      </c>
+      <c r="V30" t="s">
+        <v>341</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>316</v>
+      </c>
+      <c r="V31" t="s">
+        <v>341</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>316</v>
+      </c>
+      <c r="V32" t="s">
+        <v>342</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>316</v>
+      </c>
+      <c r="V33" t="s">
+        <v>342</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA35" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL35">
+        <v>201812</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN35">
+        <v>2850</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL36">
+        <v>201812</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN36">
+        <v>2950</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA37" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL37">
+        <v>201812</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN37">
+        <v>2850</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL38">
+        <v>201812</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN38">
+        <v>2950</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" t="s">
+        <v>328</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>201812</v>
+      </c>
+      <c r="M39" t="s">
+        <v>331</v>
+      </c>
+      <c r="N39">
+        <v>2850</v>
+      </c>
+      <c r="O39" t="s">
+        <v>299</v>
+      </c>
+      <c r="P39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>329</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>201812</v>
+      </c>
+      <c r="M40" t="s">
+        <v>331</v>
+      </c>
+      <c r="N40">
+        <v>2950</v>
+      </c>
+      <c r="O40" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
     <sheet name="cons" sheetId="2" r:id="rId2"/>
     <sheet name="newPa2" sheetId="3" r:id="rId3"/>
     <sheet name="position" sheetId="4" r:id="rId4"/>
+    <sheet name="pbreq" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="402">
   <si>
     <t>instrument</t>
   </si>
@@ -1089,13 +1090,157 @@
   </si>
   <si>
     <t>'Sum'</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>dsp</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>locator</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>converted</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>{'comm': 'WMP', 'instype': 'OOF', 'callput': 'C', 'maturity': 201812, 'strike': 2850, 'delta': 1425, 'dsp': 110, 'deltasf': 10000, 'dspdl': 1, 'strikedl': 0, 'strikconv': 2850.0, 'cvf': 1.0, 'curr': 'USD'}</t>
+  </si>
+  <si>
+    <t>{'comm': 'WMP', 'instype': 'OOF', 'callput': 'P', 'maturity': 201812, 'strike': 2850, 'delta': -8548, 'dsp': 2455, 'deltasf': 10000, 'dspdl': 1, 'strikedl': 0, 'strikconv': 2850.0, 'cvf': 1.0, 'curr': 'USD'}</t>
+  </si>
+  <si>
+    <t>{'comm': 'WMP', 'instype': 'OOF', 'callput': 'C', 'maturity': 201812, 'strike': 2950, 'delta': 745, 'dsp': 40, 'deltasf': 10000, 'dspdl': 1, 'strikedl': 0, 'strikconv': 2950.0, 'cvf': 1.0, 'curr': 'USD'}</t>
+  </si>
+  <si>
+    <t>{'comm': 'WMP', 'instype': 'OOF', 'callput': 'P', 'maturity': 201812, 'strike': 2950, 'delta': -9228, 'dsp': 3380, 'deltasf': 10000, 'dspdl': 1, 'strikedl': 0, 'strikconv': 2950.0, 'cvf': 1.0, 'curr': 'USD'}</t>
+  </si>
+  <si>
+    <t>underlying</t>
+  </si>
+  <si>
+    <t>'USD'</t>
+  </si>
+  <si>
+    <t>'underlyingdspconv'</t>
+  </si>
+  <si>
+    <t>strikeconv'</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>adjusted</t>
+  </si>
+  <si>
+    <t>'deltanetadj'</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>'deltalovsov'</t>
+  </si>
+  <si>
+    <t>1948.175}</t>
+  </si>
+  <si>
+    <t>'NZD'</t>
+  </si>
+  <si>
+    <t>6705.906}</t>
+  </si>
+  <si>
+    <t>curreq</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>{'identifier'</t>
+  </si>
+  <si>
+    <t>'margin'</t>
+  </si>
+  <si>
+    <t>'bp'</t>
+  </si>
+  <si>
+    <t>'span'</t>
+  </si>
+  <si>
+    <t>16330.0}</t>
+  </si>
+  <si>
+    <t>2662.5}</t>
+  </si>
+  <si>
+    <t>407597.0}</t>
+  </si>
+  <si>
+    <t>'Margin3'</t>
+  </si>
+  <si>
+    <t>1305280.0}</t>
+  </si>
+  <si>
+    <t>curval</t>
+  </si>
+  <si>
+    <t>'lfvsfv'</t>
+  </si>
+  <si>
+    <t>-65320.0}</t>
+  </si>
+  <si>
+    <t>-1854000.0}</t>
+  </si>
+  <si>
+    <t>-741600.0}</t>
+  </si>
+  <si>
+    <t>17077.5}</t>
+  </si>
+  <si>
+    <t>'rc'</t>
+  </si>
+  <si>
+    <t>pbreq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1264,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1134,7 +1286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1142,18 +1294,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1923,6 +2088,147 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="14287500"/>
+          <a:ext cx="3048000" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="2667000"/>
+          <a:ext cx="4876800" cy="12763500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="13144500"/>
+          <a:ext cx="2438400" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2356,6 +2662,194 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24584025" y="7239000"/>
+          <a:ext cx="2438400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24584025" y="8001000"/>
+          <a:ext cx="2438400" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="34947225" y="5524500"/>
+          <a:ext cx="6705600" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="4000500"/>
+          <a:ext cx="25193625" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2624,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC86"/>
   <sheetViews>
-    <sheetView topLeftCell="AH7" workbookViewId="0">
-      <selection activeCell="BJ26" sqref="BJ26"/>
+    <sheetView topLeftCell="R10" workbookViewId="0">
+      <selection activeCell="AK73" sqref="AK73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,11 +3919,17 @@
       <c r="L14" t="s">
         <v>31</v>
       </c>
+      <c r="AG14" t="s">
+        <v>363</v>
+      </c>
       <c r="AQ14" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AG15" t="s">
+        <v>364</v>
+      </c>
       <c r="AQ15" s="4" t="s">
         <v>263</v>
       </c>
@@ -3441,6 +3941,9 @@
       <c r="AB16" t="s">
         <v>188</v>
       </c>
+      <c r="AG16" t="s">
+        <v>365</v>
+      </c>
       <c r="AQ16" s="3" t="s">
         <v>196</v>
       </c>
@@ -3461,6 +3964,9 @@
       </c>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AG17" t="s">
+        <v>366</v>
+      </c>
       <c r="AQ17" t="s">
         <v>4</v>
       </c>
@@ -4717,304 +5223,6 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>97</v>
-      </c>
-      <c r="J46" t="s">
-        <v>98</v>
-      </c>
-      <c r="K46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L46" t="s">
-        <v>100</v>
-      </c>
-      <c r="M46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47" t="s">
-        <v>99</v>
-      </c>
-      <c r="L47" t="s">
-        <v>103</v>
-      </c>
-      <c r="M47" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48" t="s">
-        <v>99</v>
-      </c>
-      <c r="L48" t="s">
-        <v>106</v>
-      </c>
-      <c r="M48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" t="s">
-        <v>105</v>
-      </c>
-      <c r="K49" t="s">
-        <v>99</v>
-      </c>
-      <c r="L49" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>124</v>
@@ -6078,6 +6286,15 @@
       </c>
     </row>
     <row r="67" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="AQ67" t="s">
         <v>4</v>
       </c>
@@ -6110,6 +6327,48 @@
       </c>
     </row>
     <row r="68" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K68" t="s">
+        <v>99</v>
+      </c>
+      <c r="L68" t="s">
+        <v>100</v>
+      </c>
+      <c r="M68" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" t="s">
+        <v>101</v>
+      </c>
       <c r="AQ68" t="s">
         <v>4</v>
       </c>
@@ -6142,6 +6401,48 @@
       </c>
     </row>
     <row r="69" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" t="s">
+        <v>99</v>
+      </c>
+      <c r="L69" t="s">
+        <v>103</v>
+      </c>
+      <c r="M69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ69" t="s">
         <v>4</v>
       </c>
@@ -6174,6 +6475,48 @@
       </c>
     </row>
     <row r="70" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+      <c r="K70" t="s">
+        <v>99</v>
+      </c>
+      <c r="L70" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" t="s">
+        <v>107</v>
+      </c>
       <c r="AQ70" t="s">
         <v>4</v>
       </c>
@@ -6206,6 +6549,48 @@
       </c>
     </row>
     <row r="71" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+      <c r="K71" t="s">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" t="s">
+        <v>109</v>
+      </c>
       <c r="AQ71" t="s">
         <v>4</v>
       </c>
@@ -6238,6 +6623,15 @@
       </c>
     </row>
     <row r="72" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="AQ72" t="s">
         <v>4</v>
       </c>
@@ -6270,6 +6664,30 @@
       </c>
     </row>
     <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s">
+        <v>94</v>
+      </c>
       <c r="AQ73" t="s">
         <v>4</v>
       </c>
@@ -6302,6 +6720,30 @@
       </c>
     </row>
     <row r="74" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
       <c r="AQ74" t="s">
         <v>4</v>
       </c>
@@ -6334,6 +6776,30 @@
       </c>
     </row>
     <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
       <c r="AQ75" t="s">
         <v>4</v>
       </c>
@@ -6366,6 +6832,30 @@
       </c>
     </row>
     <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
       <c r="AQ76" t="s">
         <v>4</v>
       </c>
@@ -6525,7 +7015,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:52" x14ac:dyDescent="0.25">
       <c r="AQ81" t="s">
         <v>4</v>
       </c>
@@ -6557,7 +7047,67 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:52" x14ac:dyDescent="0.25">
+      <c r="N82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC82" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD82" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE82" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG82" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="AQ82" t="s">
         <v>4</v>
       </c>
@@ -6589,7 +7139,91 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:52" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>160</v>
+      </c>
+      <c r="P83" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>329</v>
+      </c>
+      <c r="R83" t="s">
+        <v>95</v>
+      </c>
+      <c r="S83" t="s">
+        <v>334</v>
+      </c>
+      <c r="T83" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83">
+        <v>201812</v>
+      </c>
+      <c r="V83" t="s">
+        <v>97</v>
+      </c>
+      <c r="W83">
+        <v>2850</v>
+      </c>
+      <c r="X83" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y83">
+        <v>1425</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA83">
+        <v>110</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC83">
+        <v>10000</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI83">
+        <v>2850</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ83" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +7255,91 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:52" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>160</v>
+      </c>
+      <c r="P84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>329</v>
+      </c>
+      <c r="R84" t="s">
+        <v>95</v>
+      </c>
+      <c r="S84" t="s">
+        <v>330</v>
+      </c>
+      <c r="T84" t="s">
+        <v>8</v>
+      </c>
+      <c r="U84">
+        <v>201812</v>
+      </c>
+      <c r="V84" t="s">
+        <v>97</v>
+      </c>
+      <c r="W84">
+        <v>2850</v>
+      </c>
+      <c r="X84" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y84">
+        <v>-8548</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA84">
+        <v>2455</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC84">
+        <v>10000</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI84">
+        <v>2850</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ84" t="s">
         <v>4</v>
       </c>
@@ -6653,7 +7371,91 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:52" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>160</v>
+      </c>
+      <c r="P85" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>329</v>
+      </c>
+      <c r="R85" t="s">
+        <v>95</v>
+      </c>
+      <c r="S85" t="s">
+        <v>334</v>
+      </c>
+      <c r="T85" t="s">
+        <v>8</v>
+      </c>
+      <c r="U85">
+        <v>201812</v>
+      </c>
+      <c r="V85" t="s">
+        <v>97</v>
+      </c>
+      <c r="W85">
+        <v>2950</v>
+      </c>
+      <c r="X85" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y85">
+        <v>745</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA85">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC85">
+        <v>10000</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI85">
+        <v>2950</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ85" t="s">
         <v>4</v>
       </c>
@@ -6685,7 +7487,91 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="43:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:52" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>160</v>
+      </c>
+      <c r="P86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>329</v>
+      </c>
+      <c r="R86" t="s">
+        <v>95</v>
+      </c>
+      <c r="S86" t="s">
+        <v>330</v>
+      </c>
+      <c r="T86" t="s">
+        <v>8</v>
+      </c>
+      <c r="U86">
+        <v>201812</v>
+      </c>
+      <c r="V86" t="s">
+        <v>97</v>
+      </c>
+      <c r="W86">
+        <v>2950</v>
+      </c>
+      <c r="X86" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y86">
+        <v>-9228</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA86">
+        <v>3380</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC86">
+        <v>10000</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI86">
+        <v>2950</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ86" t="s">
         <v>4</v>
       </c>
@@ -6728,7 +7614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -9401,10 +10287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP40"/>
+  <dimension ref="A1:CA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9421,7 +10307,7 @@
     <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>293</v>
       </c>
@@ -9429,7 +10315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -9458,7 +10344,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -9492,7 +10378,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -9523,11 +10409,11 @@
       <c r="AA4" t="s">
         <v>345</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AI4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -9558,11 +10444,11 @@
       <c r="AA5" t="s">
         <v>347</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AI5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -9593,11 +10479,11 @@
       <c r="AA6" t="s">
         <v>349</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AI6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>311</v>
       </c>
@@ -9622,11 +10508,11 @@
       <c r="AA7" t="s">
         <v>351</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AI7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -9652,7 +10538,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -9678,7 +10564,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -9704,7 +10590,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -9730,7 +10616,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -9753,7 +10639,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>311</v>
       </c>
@@ -9782,7 +10668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>316</v>
       </c>
@@ -9796,7 +10682,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -9810,7 +10696,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -9824,7 +10710,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -9838,7 +10724,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -9852,7 +10738,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -9866,7 +10752,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>316</v>
       </c>
@@ -9874,7 +10760,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9897,7 +10783,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -9917,7 +10803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -9937,7 +10823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
         <v>316</v>
       </c>
@@ -9950,8 +10836,44 @@
       <c r="X24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BQ24" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="BR24" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BS24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="BW24" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX24" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BY24" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BZ24" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CA24" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
         <v>316</v>
       </c>
@@ -9964,8 +10886,26 @@
       <c r="X25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP25" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>337</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U26" t="s">
         <v>316</v>
       </c>
@@ -9978,8 +10918,26 @@
       <c r="X26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP26" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>337</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U27" t="s">
         <v>316</v>
       </c>
@@ -9992,8 +10950,26 @@
       <c r="X27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP27" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U28" t="s">
         <v>316</v>
       </c>
@@ -10006,8 +10982,26 @@
       <c r="X28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP28" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>316</v>
       </c>
@@ -10020,8 +11014,26 @@
       <c r="X29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP29" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>339</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
         <v>316</v>
       </c>
@@ -10034,8 +11046,26 @@
       <c r="X30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP30" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>339</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>316</v>
       </c>
@@ -10048,8 +11078,26 @@
       <c r="X31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="BP31" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>340</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>316</v>
       </c>
@@ -10062,8 +11110,26 @@
       <c r="X32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BP32" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>340</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>316</v>
       </c>
@@ -10076,8 +11142,26 @@
       <c r="X33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BP33" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>338</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AA34" s="3" t="s">
         <v>1</v>
       </c>
@@ -10093,8 +11177,26 @@
       <c r="AE34" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BP34" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>338</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>324</v>
       </c>
@@ -10143,8 +11245,26 @@
       <c r="AP35" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BP35" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>324</v>
       </c>
@@ -10193,8 +11313,26 @@
       <c r="AP36" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BP36" t="s">
+        <v>316</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>324</v>
       </c>
@@ -10244,7 +11382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -10303,7 +11441,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>324</v>
       </c>
@@ -10353,7 +11491,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -10401,10 +11539,2661 @@
       </c>
       <c r="P40" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="AR42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT42" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV42" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW42" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX42" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="AR43" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC43">
+        <v>201812</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE43">
+        <v>2850</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG43">
+        <v>-3</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI43">
+        <v>-0.8548</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK43">
+        <v>2615</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM43">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O44" s="5" t="str">
+        <f>'pa2'!N82</f>
+        <v>option</v>
+      </c>
+      <c r="P44" s="5" t="str">
+        <f>'pa2'!O82</f>
+        <v>list</v>
+      </c>
+      <c r="Q44" s="5" t="str">
+        <f>'pa2'!P82</f>
+        <v>with</v>
+      </c>
+      <c r="R44" s="5" t="str">
+        <f>'pa2'!Q82</f>
+        <v>delta</v>
+      </c>
+      <c r="S44" s="5" t="str">
+        <f>'pa2'!R82</f>
+        <v>scaling</v>
+      </c>
+      <c r="T44" s="5" t="str">
+        <f>'pa2'!S82</f>
+        <v>factor</v>
+      </c>
+      <c r="U44" s="5" t="str">
+        <f>'pa2'!T82</f>
+        <v>dsp</v>
+      </c>
+      <c r="V44" s="5" t="str">
+        <f>'pa2'!U82</f>
+        <v>decimal</v>
+      </c>
+      <c r="W44" s="5" t="str">
+        <f>'pa2'!V82</f>
+        <v>locator</v>
+      </c>
+      <c r="X44" s="5" t="str">
+        <f>'pa2'!W82</f>
+        <v>strike</v>
+      </c>
+      <c r="Y44" s="5" t="str">
+        <f>'pa2'!X82</f>
+        <v>decimal</v>
+      </c>
+      <c r="Z44" s="5" t="str">
+        <f>'pa2'!Y82</f>
+        <v>locator</v>
+      </c>
+      <c r="AA44" s="5" t="str">
+        <f>'pa2'!Z82</f>
+        <v>strike</v>
+      </c>
+      <c r="AB44" s="5" t="str">
+        <f>'pa2'!AA82</f>
+        <v>converted</v>
+      </c>
+      <c r="AC44" s="5" t="str">
+        <f>'pa2'!AB82</f>
+        <v>contract</v>
+      </c>
+      <c r="AD44" s="5" t="str">
+        <f>'pa2'!AC82</f>
+        <v>size</v>
+      </c>
+      <c r="AE44" s="5" t="str">
+        <f>'pa2'!AD82</f>
+        <v>currency</v>
+      </c>
+      <c r="AF44" s="5" t="str">
+        <f>'pa2'!AE82</f>
+        <v>underlying</v>
+      </c>
+      <c r="AG44" s="5" t="str">
+        <f>'pa2'!AF82</f>
+        <v>dsp</v>
+      </c>
+      <c r="AH44" s="5" t="str">
+        <f>'pa2'!AG82</f>
+        <v>converted</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>334</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC44">
+        <v>201812</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE44">
+        <v>2950</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG44">
+        <v>10</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI44">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK44">
+        <v>2615</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM44">
+        <v>1948.175</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O45" t="str">
+        <f>'pa2'!N83</f>
+        <v>{'comm'</v>
+      </c>
+      <c r="P45" t="str">
+        <f>'pa2'!O83</f>
+        <v>'WMP'</v>
+      </c>
+      <c r="Q45" t="str">
+        <f>'pa2'!P83</f>
+        <v>'instype'</v>
+      </c>
+      <c r="R45" t="str">
+        <f>'pa2'!Q83</f>
+        <v>'OOF'</v>
+      </c>
+      <c r="S45" t="str">
+        <f>'pa2'!R83</f>
+        <v>'callput'</v>
+      </c>
+      <c r="T45" t="str">
+        <f>'pa2'!S83</f>
+        <v>'C'</v>
+      </c>
+      <c r="U45" t="str">
+        <f>'pa2'!T83</f>
+        <v>'maturity'</v>
+      </c>
+      <c r="V45">
+        <f>'pa2'!U83</f>
+        <v>201812</v>
+      </c>
+      <c r="W45" t="str">
+        <f>'pa2'!V83</f>
+        <v>'strike'</v>
+      </c>
+      <c r="X45">
+        <f>'pa2'!W83</f>
+        <v>2850</v>
+      </c>
+      <c r="Y45" t="str">
+        <f>'pa2'!X83</f>
+        <v>'delta'</v>
+      </c>
+      <c r="Z45">
+        <f>'pa2'!Y83</f>
+        <v>1425</v>
+      </c>
+      <c r="AA45" t="str">
+        <f>'pa2'!Z83</f>
+        <v>'dsp'</v>
+      </c>
+      <c r="AB45">
+        <f>'pa2'!AA83</f>
+        <v>110</v>
+      </c>
+      <c r="AC45" t="str">
+        <f>'pa2'!AB83</f>
+        <v>'deltasf'</v>
+      </c>
+      <c r="AD45">
+        <f>'pa2'!AC83</f>
+        <v>10000</v>
+      </c>
+      <c r="AE45" t="str">
+        <f>'pa2'!AD83</f>
+        <v>'dspdl'</v>
+      </c>
+      <c r="AF45">
+        <f>'pa2'!AE83</f>
+        <v>1</v>
+      </c>
+      <c r="AG45" t="str">
+        <f>'pa2'!AF83</f>
+        <v>'strikedl'</v>
+      </c>
+      <c r="AH45">
+        <f>'pa2'!AG83</f>
+        <v>0</v>
+      </c>
+      <c r="AI45" t="str">
+        <f>'pa2'!AH83</f>
+        <v>strikeconv'</v>
+      </c>
+      <c r="AJ45">
+        <f>'pa2'!AI83</f>
+        <v>2850</v>
+      </c>
+      <c r="AK45" t="str">
+        <f>'pa2'!AJ83</f>
+        <v>'cvf'</v>
+      </c>
+      <c r="AL45">
+        <f>'pa2'!AK83</f>
+        <v>1</v>
+      </c>
+      <c r="AM45" t="str">
+        <f>'pa2'!AL83</f>
+        <v>'curr'</v>
+      </c>
+      <c r="AN45" t="str">
+        <f>'pa2'!AM83</f>
+        <v>'USD'</v>
+      </c>
+      <c r="AO45" t="str">
+        <f>'pa2'!AN83</f>
+        <v>'underlyingdspconv'</v>
+      </c>
+      <c r="AP45" t="str">
+        <f>'pa2'!AO83</f>
+        <v>2615.0}</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>334</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC45">
+        <v>201812</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE45">
+        <v>2950</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG45">
+        <v>10</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI45">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK45">
+        <v>2615</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM45">
+        <v>1948.175</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="O46" t="str">
+        <f>'pa2'!N84</f>
+        <v>{'comm'</v>
+      </c>
+      <c r="P46" t="str">
+        <f>'pa2'!O84</f>
+        <v>'WMP'</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>'pa2'!P84</f>
+        <v>'instype'</v>
+      </c>
+      <c r="R46" t="str">
+        <f>'pa2'!Q84</f>
+        <v>'OOF'</v>
+      </c>
+      <c r="S46" t="str">
+        <f>'pa2'!R84</f>
+        <v>'callput'</v>
+      </c>
+      <c r="T46" t="str">
+        <f>'pa2'!S84</f>
+        <v>'P'</v>
+      </c>
+      <c r="U46" t="str">
+        <f>'pa2'!T84</f>
+        <v>'maturity'</v>
+      </c>
+      <c r="V46">
+        <f>'pa2'!U84</f>
+        <v>201812</v>
+      </c>
+      <c r="W46" t="str">
+        <f>'pa2'!V84</f>
+        <v>'strike'</v>
+      </c>
+      <c r="X46">
+        <f>'pa2'!W84</f>
+        <v>2850</v>
+      </c>
+      <c r="Y46" t="str">
+        <f>'pa2'!X84</f>
+        <v>'delta'</v>
+      </c>
+      <c r="Z46">
+        <f>'pa2'!Y84</f>
+        <v>-8548</v>
+      </c>
+      <c r="AA46" t="str">
+        <f>'pa2'!Z84</f>
+        <v>'dsp'</v>
+      </c>
+      <c r="AB46">
+        <f>'pa2'!AA84</f>
+        <v>2455</v>
+      </c>
+      <c r="AC46" t="str">
+        <f>'pa2'!AB84</f>
+        <v>'deltasf'</v>
+      </c>
+      <c r="AD46">
+        <f>'pa2'!AC84</f>
+        <v>10000</v>
+      </c>
+      <c r="AE46" t="str">
+        <f>'pa2'!AD84</f>
+        <v>'dspdl'</v>
+      </c>
+      <c r="AF46">
+        <f>'pa2'!AE84</f>
+        <v>1</v>
+      </c>
+      <c r="AG46" t="str">
+        <f>'pa2'!AF84</f>
+        <v>'strikedl'</v>
+      </c>
+      <c r="AH46">
+        <f>'pa2'!AG84</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" t="str">
+        <f>'pa2'!AH84</f>
+        <v>strikeconv'</v>
+      </c>
+      <c r="AJ46">
+        <f>'pa2'!AI84</f>
+        <v>2850</v>
+      </c>
+      <c r="AK46" t="str">
+        <f>'pa2'!AJ84</f>
+        <v>'cvf'</v>
+      </c>
+      <c r="AL46">
+        <f>'pa2'!AK84</f>
+        <v>1</v>
+      </c>
+      <c r="AM46" t="str">
+        <f>'pa2'!AL84</f>
+        <v>'curr'</v>
+      </c>
+      <c r="AN46" t="str">
+        <f>'pa2'!AM84</f>
+        <v>'USD'</v>
+      </c>
+      <c r="AO46" t="str">
+        <f>'pa2'!AN84</f>
+        <v>'underlyingdspconv'</v>
+      </c>
+      <c r="AP46" t="str">
+        <f>'pa2'!AO84</f>
+        <v>2615.0}</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC46">
+        <v>201812</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE46">
+        <v>2850</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG46">
+        <v>-3</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI46">
+        <v>-0.8548</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK46">
+        <v>2615</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM46">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="O47" t="str">
+        <f>'pa2'!N85</f>
+        <v>{'comm'</v>
+      </c>
+      <c r="P47" t="str">
+        <f>'pa2'!O85</f>
+        <v>'WMP'</v>
+      </c>
+      <c r="Q47" t="str">
+        <f>'pa2'!P85</f>
+        <v>'instype'</v>
+      </c>
+      <c r="R47" t="str">
+        <f>'pa2'!Q85</f>
+        <v>'OOF'</v>
+      </c>
+      <c r="S47" t="str">
+        <f>'pa2'!R85</f>
+        <v>'callput'</v>
+      </c>
+      <c r="T47" t="str">
+        <f>'pa2'!S85</f>
+        <v>'C'</v>
+      </c>
+      <c r="U47" t="str">
+        <f>'pa2'!T85</f>
+        <v>'maturity'</v>
+      </c>
+      <c r="V47">
+        <f>'pa2'!U85</f>
+        <v>201812</v>
+      </c>
+      <c r="W47" t="str">
+        <f>'pa2'!V85</f>
+        <v>'strike'</v>
+      </c>
+      <c r="X47">
+        <f>'pa2'!W85</f>
+        <v>2950</v>
+      </c>
+      <c r="Y47" t="str">
+        <f>'pa2'!X85</f>
+        <v>'delta'</v>
+      </c>
+      <c r="Z47">
+        <f>'pa2'!Y85</f>
+        <v>745</v>
+      </c>
+      <c r="AA47" t="str">
+        <f>'pa2'!Z85</f>
+        <v>'dsp'</v>
+      </c>
+      <c r="AB47">
+        <f>'pa2'!AA85</f>
+        <v>40</v>
+      </c>
+      <c r="AC47" t="str">
+        <f>'pa2'!AB85</f>
+        <v>'deltasf'</v>
+      </c>
+      <c r="AD47">
+        <f>'pa2'!AC85</f>
+        <v>10000</v>
+      </c>
+      <c r="AE47" t="str">
+        <f>'pa2'!AD85</f>
+        <v>'dspdl'</v>
+      </c>
+      <c r="AF47">
+        <f>'pa2'!AE85</f>
+        <v>1</v>
+      </c>
+      <c r="AG47" t="str">
+        <f>'pa2'!AF85</f>
+        <v>'strikedl'</v>
+      </c>
+      <c r="AH47">
+        <f>'pa2'!AG85</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" t="str">
+        <f>'pa2'!AH85</f>
+        <v>strikeconv'</v>
+      </c>
+      <c r="AJ47">
+        <f>'pa2'!AI85</f>
+        <v>2950</v>
+      </c>
+      <c r="AK47" t="str">
+        <f>'pa2'!AJ85</f>
+        <v>'cvf'</v>
+      </c>
+      <c r="AL47">
+        <f>'pa2'!AK85</f>
+        <v>1</v>
+      </c>
+      <c r="AM47" t="str">
+        <f>'pa2'!AL85</f>
+        <v>'curr'</v>
+      </c>
+      <c r="AN47" t="str">
+        <f>'pa2'!AM85</f>
+        <v>'USD'</v>
+      </c>
+      <c r="AO47" t="str">
+        <f>'pa2'!AN85</f>
+        <v>'underlyingdspconv'</v>
+      </c>
+      <c r="AP47" t="str">
+        <f>'pa2'!AO85</f>
+        <v>2615.0}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="O48" t="str">
+        <f>'pa2'!N86</f>
+        <v>{'comm'</v>
+      </c>
+      <c r="P48" t="str">
+        <f>'pa2'!O86</f>
+        <v>'WMP'</v>
+      </c>
+      <c r="Q48" t="str">
+        <f>'pa2'!P86</f>
+        <v>'instype'</v>
+      </c>
+      <c r="R48" t="str">
+        <f>'pa2'!Q86</f>
+        <v>'OOF'</v>
+      </c>
+      <c r="S48" t="str">
+        <f>'pa2'!R86</f>
+        <v>'callput'</v>
+      </c>
+      <c r="T48" t="str">
+        <f>'pa2'!S86</f>
+        <v>'P'</v>
+      </c>
+      <c r="U48" t="str">
+        <f>'pa2'!T86</f>
+        <v>'maturity'</v>
+      </c>
+      <c r="V48">
+        <f>'pa2'!U86</f>
+        <v>201812</v>
+      </c>
+      <c r="W48" t="str">
+        <f>'pa2'!V86</f>
+        <v>'strike'</v>
+      </c>
+      <c r="X48">
+        <f>'pa2'!W86</f>
+        <v>2950</v>
+      </c>
+      <c r="Y48" t="str">
+        <f>'pa2'!X86</f>
+        <v>'delta'</v>
+      </c>
+      <c r="Z48">
+        <f>'pa2'!Y86</f>
+        <v>-9228</v>
+      </c>
+      <c r="AA48" t="str">
+        <f>'pa2'!Z86</f>
+        <v>'dsp'</v>
+      </c>
+      <c r="AB48">
+        <f>'pa2'!AA86</f>
+        <v>3380</v>
+      </c>
+      <c r="AC48" t="str">
+        <f>'pa2'!AB86</f>
+        <v>'deltasf'</v>
+      </c>
+      <c r="AD48">
+        <f>'pa2'!AC86</f>
+        <v>10000</v>
+      </c>
+      <c r="AE48" t="str">
+        <f>'pa2'!AD86</f>
+        <v>'dspdl'</v>
+      </c>
+      <c r="AF48">
+        <f>'pa2'!AE86</f>
+        <v>1</v>
+      </c>
+      <c r="AG48" t="str">
+        <f>'pa2'!AF86</f>
+        <v>'strikedl'</v>
+      </c>
+      <c r="AH48">
+        <f>'pa2'!AG86</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" t="str">
+        <f>'pa2'!AH86</f>
+        <v>strikeconv'</v>
+      </c>
+      <c r="AJ48">
+        <f>'pa2'!AI86</f>
+        <v>2950</v>
+      </c>
+      <c r="AK48" t="str">
+        <f>'pa2'!AJ86</f>
+        <v>'cvf'</v>
+      </c>
+      <c r="AL48">
+        <f>'pa2'!AK86</f>
+        <v>1</v>
+      </c>
+      <c r="AM48" t="str">
+        <f>'pa2'!AL86</f>
+        <v>'curr'</v>
+      </c>
+      <c r="AN48" t="str">
+        <f>'pa2'!AM86</f>
+        <v>'USD'</v>
+      </c>
+      <c r="AO48" t="str">
+        <f>'pa2'!AN86</f>
+        <v>'underlyingdspconv'</v>
+      </c>
+      <c r="AP48" t="str">
+        <f>'pa2'!AO86</f>
+        <v>2615.0}</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" t="s">
+        <v>395</v>
+      </c>
+      <c r="J10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" t="s">
+        <v>395</v>
+      </c>
+      <c r="J16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>368</v>
+      </c>
+      <c r="I19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" t="s">
+        <v>389</v>
+      </c>
+      <c r="L19" t="s">
+        <v>385</v>
+      </c>
+      <c r="M19" t="s">
+        <v>386</v>
+      </c>
+      <c r="N19" t="s">
+        <v>387</v>
+      </c>
+      <c r="O19" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>333</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>368</v>
+      </c>
+      <c r="T19" t="s">
+        <v>388</v>
+      </c>
+      <c r="U19">
+        <v>16330</v>
+      </c>
+      <c r="V19" t="s">
+        <v>395</v>
+      </c>
+      <c r="W19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>368</v>
+      </c>
+      <c r="I20" t="s">
+        <v>388</v>
+      </c>
+      <c r="J20" t="s">
+        <v>390</v>
+      </c>
+      <c r="L20" t="s">
+        <v>385</v>
+      </c>
+      <c r="M20" t="s">
+        <v>386</v>
+      </c>
+      <c r="N20" t="s">
+        <v>387</v>
+      </c>
+      <c r="O20" t="s">
+        <v>325</v>
+      </c>
+      <c r="P20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>327</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>368</v>
+      </c>
+      <c r="T20" t="s">
+        <v>388</v>
+      </c>
+      <c r="U20">
+        <v>2662.5</v>
+      </c>
+      <c r="V20" t="s">
+        <v>395</v>
+      </c>
+      <c r="W20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>368</v>
+      </c>
+      <c r="I21" t="s">
+        <v>388</v>
+      </c>
+      <c r="J21" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M21" t="s">
+        <v>386</v>
+      </c>
+      <c r="N21" t="s">
+        <v>387</v>
+      </c>
+      <c r="O21" t="s">
+        <v>325</v>
+      </c>
+      <c r="P21" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>353</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>368</v>
+      </c>
+      <c r="T21" t="s">
+        <v>388</v>
+      </c>
+      <c r="U21">
+        <v>2662.5</v>
+      </c>
+      <c r="V21" t="s">
+        <v>395</v>
+      </c>
+      <c r="W21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" t="s">
+        <v>388</v>
+      </c>
+      <c r="J22" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" t="s">
+        <v>385</v>
+      </c>
+      <c r="M22" t="s">
+        <v>386</v>
+      </c>
+      <c r="N22" t="s">
+        <v>387</v>
+      </c>
+      <c r="O22" t="s">
+        <v>332</v>
+      </c>
+      <c r="P22" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>333</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>381</v>
+      </c>
+      <c r="T22" t="s">
+        <v>388</v>
+      </c>
+      <c r="U22">
+        <v>407597</v>
+      </c>
+      <c r="V22" t="s">
+        <v>395</v>
+      </c>
+      <c r="W22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>368</v>
+      </c>
+      <c r="I23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>385</v>
+      </c>
+      <c r="M23" t="s">
+        <v>386</v>
+      </c>
+      <c r="N23" t="s">
+        <v>387</v>
+      </c>
+      <c r="O23" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>333</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
+        <v>368</v>
+      </c>
+      <c r="T23" t="s">
+        <v>388</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>395</v>
+      </c>
+      <c r="W23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J24" t="s">
+        <v>393</v>
+      </c>
+      <c r="L24" t="s">
+        <v>385</v>
+      </c>
+      <c r="M24" t="s">
+        <v>386</v>
+      </c>
+      <c r="N24" t="s">
+        <v>387</v>
+      </c>
+      <c r="O24" t="s">
+        <v>332</v>
+      </c>
+      <c r="P24" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>392</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>381</v>
+      </c>
+      <c r="T24" t="s">
+        <v>388</v>
+      </c>
+      <c r="U24">
+        <v>1305280</v>
+      </c>
+      <c r="V24" t="s">
+        <v>395</v>
+      </c>
+      <c r="W24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" t="s">
+        <v>388</v>
+      </c>
+      <c r="J25" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M25" t="s">
+        <v>400</v>
+      </c>
+      <c r="N25" t="s">
+        <v>387</v>
+      </c>
+      <c r="O25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>333</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>368</v>
+      </c>
+      <c r="T25" t="s">
+        <v>388</v>
+      </c>
+      <c r="U25">
+        <v>16330</v>
+      </c>
+      <c r="V25" t="s">
+        <v>395</v>
+      </c>
+      <c r="W25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" t="s">
+        <v>390</v>
+      </c>
+      <c r="L26" t="s">
+        <v>385</v>
+      </c>
+      <c r="M26" t="s">
+        <v>400</v>
+      </c>
+      <c r="N26" t="s">
+        <v>387</v>
+      </c>
+      <c r="O26" t="s">
+        <v>325</v>
+      </c>
+      <c r="P26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>327</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>368</v>
+      </c>
+      <c r="T26" t="s">
+        <v>388</v>
+      </c>
+      <c r="U26">
+        <v>2662.5</v>
+      </c>
+      <c r="V26" t="s">
+        <v>395</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
+        <v>353</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>368</v>
+      </c>
+      <c r="I27" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" t="s">
+        <v>389</v>
+      </c>
+      <c r="L27" t="s">
+        <v>385</v>
+      </c>
+      <c r="M27" t="s">
+        <v>400</v>
+      </c>
+      <c r="N27" t="s">
+        <v>387</v>
+      </c>
+      <c r="O27" t="s">
+        <v>325</v>
+      </c>
+      <c r="P27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>353</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" t="s">
+        <v>368</v>
+      </c>
+      <c r="T27" t="s">
+        <v>388</v>
+      </c>
+      <c r="U27">
+        <v>17077.5</v>
+      </c>
+      <c r="V27" t="s">
+        <v>395</v>
+      </c>
+      <c r="W27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>388</v>
+      </c>
+      <c r="J28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" t="s">
+        <v>385</v>
+      </c>
+      <c r="M28" t="s">
+        <v>400</v>
+      </c>
+      <c r="N28" t="s">
+        <v>387</v>
+      </c>
+      <c r="O28" t="s">
+        <v>332</v>
+      </c>
+      <c r="P28" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>333</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" t="s">
+        <v>381</v>
+      </c>
+      <c r="T28" t="s">
+        <v>388</v>
+      </c>
+      <c r="U28">
+        <v>407597</v>
+      </c>
+      <c r="V28" t="s">
+        <v>395</v>
+      </c>
+      <c r="W28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" t="s">
+        <v>388</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M29" t="s">
+        <v>400</v>
+      </c>
+      <c r="N29" t="s">
+        <v>387</v>
+      </c>
+      <c r="O29" t="s">
+        <v>332</v>
+      </c>
+      <c r="P29" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>333</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" t="s">
+        <v>368</v>
+      </c>
+      <c r="T29" t="s">
+        <v>388</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>395</v>
+      </c>
+      <c r="W29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I30" t="s">
+        <v>388</v>
+      </c>
+      <c r="J30" t="s">
+        <v>393</v>
+      </c>
+      <c r="L30" t="s">
+        <v>385</v>
+      </c>
+      <c r="M30" t="s">
+        <v>400</v>
+      </c>
+      <c r="N30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O30" t="s">
+        <v>332</v>
+      </c>
+      <c r="P30" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>392</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>381</v>
+      </c>
+      <c r="T30" t="s">
+        <v>388</v>
+      </c>
+      <c r="U30">
+        <v>1305280</v>
+      </c>
+      <c r="V30" t="s">
+        <v>395</v>
+      </c>
+      <c r="W30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>368</v>
+      </c>
+      <c r="I32" t="s">
+        <v>395</v>
+      </c>
+      <c r="J32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" t="s">
+        <v>395</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" t="s">
+        <v>353</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" t="s">
+        <v>395</v>
+      </c>
+      <c r="J34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" t="s">
+        <v>326</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>381</v>
+      </c>
+      <c r="I35" t="s">
+        <v>395</v>
+      </c>
+      <c r="J35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>385</v>
+      </c>
+      <c r="B36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" t="s">
+        <v>387</v>
+      </c>
+      <c r="D36" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" t="s">
+        <v>395</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>381</v>
+      </c>
+      <c r="I37" t="s">
+        <v>395</v>
+      </c>
+      <c r="J37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>381</v>
+      </c>
+      <c r="I38" t="s">
+        <v>395</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I39" t="s">
+        <v>395</v>
+      </c>
+      <c r="J39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40" t="s">
+        <v>395</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I41" t="s">
+        <v>395</v>
+      </c>
+      <c r="J41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" t="s">
+        <v>332</v>
+      </c>
+      <c r="E42" t="s">
+        <v>326</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>381</v>
+      </c>
+      <c r="I42" t="s">
+        <v>395</v>
+      </c>
+      <c r="J42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>385</v>
+      </c>
+      <c r="B43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>368</v>
+      </c>
+      <c r="I43" t="s">
+        <v>395</v>
+      </c>
+      <c r="J43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>381</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>381</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C46" t="s">
+        <v>387</v>
+      </c>
+      <c r="D46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>368</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="438">
   <si>
     <t>instrument</t>
   </si>
@@ -1234,6 +1234,114 @@
   </si>
   <si>
     <t>pbreq</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>'ADM'</t>
+  </si>
+  <si>
+    <t>'bpid'</t>
+  </si>
+  <si>
+    <t>'ADMU00000'</t>
+  </si>
+  <si>
+    <t>'Margin1'}</t>
+  </si>
+  <si>
+    <t>'BPS'</t>
+  </si>
+  <si>
+    <t>'BPSS00000'</t>
+  </si>
+  <si>
+    <t>'FCSU00000'</t>
+  </si>
+  <si>
+    <t>'OMFA00000'</t>
+  </si>
+  <si>
+    <t>'SFL'</t>
+  </si>
+  <si>
+    <t>'SFLU00000'</t>
+  </si>
+  <si>
+    <t>'stressl'</t>
+  </si>
+  <si>
+    <t>'acctype'</t>
+  </si>
+  <si>
+    <t>'deltanetexps'</t>
+  </si>
+  <si>
+    <t>'deltanetexpsconv'</t>
+  </si>
+  <si>
+    <t>'rcconv'</t>
+  </si>
+  <si>
+    <t>'marginconv'</t>
+  </si>
+  <si>
+    <t>'slconv'</t>
+  </si>
+  <si>
+    <t>25303.7488275}</t>
+  </si>
+  <si>
+    <t>'Client'</t>
+  </si>
+  <si>
+    <t>3945.0289125}</t>
+  </si>
+  <si>
+    <t>24196.17733}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is </t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>a/c</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>'OMFRule'</t>
+  </si>
+  <si>
+    <t>'Rule'</t>
+  </si>
+  <si>
+    <t>'OMFFinal'</t>
+  </si>
+  <si>
+    <t>'Final'</t>
+  </si>
+  <si>
+    <t>'FCSRule'</t>
+  </si>
+  <si>
+    <t>'FCSFinal'</t>
+  </si>
+  <si>
+    <t>'stresslconv'</t>
+  </si>
+  <si>
+    <t>'OMFA00000'}</t>
+  </si>
+  <si>
+    <t>'FCSU00000'}</t>
   </si>
 </sst>
 </file>
@@ -2850,6 +2958,194 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="48358425" y="5257800"/>
+          <a:ext cx="6096000" cy="2314576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48968025" y="4686300"/>
+          <a:ext cx="5486400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50187225" y="3533775"/>
+          <a:ext cx="4267200" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50272950" y="1476375"/>
+          <a:ext cx="4181475" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3118,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC86"/>
   <sheetViews>
-    <sheetView topLeftCell="R10" workbookViewId="0">
-      <selection activeCell="AK73" sqref="AK73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7612,10 +7908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE54"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10186,6 +10482,114 @@
       </c>
       <c r="J54" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" t="s">
+        <v>403</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
+      <c r="D57" t="s">
+        <v>405</v>
+      </c>
+      <c r="E57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>407</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" t="s">
+        <v>408</v>
+      </c>
+      <c r="E58" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B59" t="s">
+        <v>325</v>
+      </c>
+      <c r="C59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="s">
+        <v>404</v>
+      </c>
+      <c r="D60" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -10287,10 +10691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA48"/>
+  <dimension ref="A1:EM52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="DD4" workbookViewId="0">
+      <selection activeCell="DU22" sqref="DU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10305,9 +10709,10 @@
     <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.140625" customWidth="1"/>
     <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>293</v>
       </c>
@@ -10315,7 +10720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -10344,7 +10749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -10378,7 +10783,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -10413,7 +10818,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -10448,7 +10853,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -10483,7 +10888,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>311</v>
       </c>
@@ -10511,8 +10916,16 @@
       <c r="AI7" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX7" s="3" t="str">
+        <f>cons!A56</f>
+        <v>house</v>
+      </c>
+      <c r="BY7" s="3" t="str">
+        <f>cons!B56</f>
+        <v>list</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -10537,8 +10950,32 @@
       <c r="R8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX8" s="5" t="str">
+        <f>cons!A57</f>
+        <v>{'bp'</v>
+      </c>
+      <c r="BY8" s="5" t="str">
+        <f>cons!B57</f>
+        <v>'ADM'</v>
+      </c>
+      <c r="BZ8" s="5" t="str">
+        <f>cons!C57</f>
+        <v>'bpid'</v>
+      </c>
+      <c r="CA8" s="5" t="str">
+        <f>cons!D57</f>
+        <v>'ADMU00000'</v>
+      </c>
+      <c r="CB8" s="5" t="str">
+        <f>cons!E57</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC8" s="5" t="str">
+        <f>cons!F57</f>
+        <v>'Margin1'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -10563,8 +11000,32 @@
       <c r="R9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX9" s="5" t="str">
+        <f>cons!A58</f>
+        <v>{'bp'</v>
+      </c>
+      <c r="BY9" s="5" t="str">
+        <f>cons!B58</f>
+        <v>'BPS'</v>
+      </c>
+      <c r="BZ9" s="5" t="str">
+        <f>cons!C58</f>
+        <v>'bpid'</v>
+      </c>
+      <c r="CA9" s="5" t="str">
+        <f>cons!D58</f>
+        <v>'BPSS00000'</v>
+      </c>
+      <c r="CB9" s="5" t="str">
+        <f>cons!E58</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC9" s="5" t="str">
+        <f>cons!F58</f>
+        <v>'Margin1'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -10589,8 +11050,32 @@
       <c r="R10" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX10" s="5" t="str">
+        <f>cons!A59</f>
+        <v>{'bp'</v>
+      </c>
+      <c r="BY10" s="5" t="str">
+        <f>cons!B59</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="BZ10" s="5" t="str">
+        <f>cons!C59</f>
+        <v>'bpid'</v>
+      </c>
+      <c r="CA10" s="5" t="str">
+        <f>cons!D59</f>
+        <v>'FCSU00000'</v>
+      </c>
+      <c r="CB10" s="5" t="str">
+        <f>cons!E59</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC10" s="5" t="str">
+        <f>cons!F59</f>
+        <v>'Margin1'}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -10615,8 +11100,32 @@
       <c r="R11" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX11" s="5" t="str">
+        <f>cons!A60</f>
+        <v>{'bp'</v>
+      </c>
+      <c r="BY11" s="5" t="str">
+        <f>cons!B60</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="BZ11" s="5" t="str">
+        <f>cons!C60</f>
+        <v>'bpid'</v>
+      </c>
+      <c r="CA11" s="5" t="str">
+        <f>cons!D60</f>
+        <v>'OMFA00000'</v>
+      </c>
+      <c r="CB11" s="5" t="str">
+        <f>cons!E60</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC11" s="5" t="str">
+        <f>cons!F60</f>
+        <v>'Margin1'}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -10638,8 +11147,32 @@
       <c r="G12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BX12" s="5" t="str">
+        <f>cons!A61</f>
+        <v>{'bp'</v>
+      </c>
+      <c r="BY12" s="5" t="str">
+        <f>cons!B61</f>
+        <v>'SFL'</v>
+      </c>
+      <c r="BZ12" s="5" t="str">
+        <f>cons!C61</f>
+        <v>'bpid'</v>
+      </c>
+      <c r="CA12" s="5" t="str">
+        <f>cons!D61</f>
+        <v>'SFLU00000'</v>
+      </c>
+      <c r="CB12" s="5" t="str">
+        <f>cons!E61</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC12" s="5" t="str">
+        <f>cons!F61</f>
+        <v>'Margin1'}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>311</v>
       </c>
@@ -10668,7 +11201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>316</v>
       </c>
@@ -10682,7 +11215,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -10696,7 +11229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -10710,7 +11243,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -10723,8 +11256,12 @@
       <c r="S17" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BX17" s="3" t="str">
+        <f>'pa2'!A50</f>
+        <v>currency</v>
+      </c>
+    </row>
+    <row r="18" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -10737,8 +11274,32 @@
       <c r="S18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BX18" s="5" t="str">
+        <f>'pa2'!A51</f>
+        <v>{'curra'</v>
+      </c>
+      <c r="BY18" s="5" t="str">
+        <f>'pa2'!B51</f>
+        <v>'USD',</v>
+      </c>
+      <c r="BZ18" s="5" t="str">
+        <f>'pa2'!C51</f>
+        <v>'currb'</v>
+      </c>
+      <c r="CA18" s="5" t="str">
+        <f>'pa2'!D51</f>
+        <v>'NZD',</v>
+      </c>
+      <c r="CB18" s="5" t="str">
+        <f>'pa2'!E51</f>
+        <v>'rate'</v>
+      </c>
+      <c r="CC18" s="5" t="str">
+        <f>'pa2'!F51</f>
+        <v>1.481701}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:143" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -10752,7 +11313,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>316</v>
       </c>
@@ -10760,7 +11321,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -10783,7 +11344,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -10802,8 +11363,14 @@
       <c r="X22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CZ22" t="s">
+        <v>424</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -10822,8 +11389,14 @@
       <c r="X23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CZ23" t="s">
+        <v>425</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
         <v>316</v>
       </c>
@@ -10872,8 +11445,42 @@
       <c r="CA24" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL24" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="CM24" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DL24" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="DM24" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="DN24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="DO24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="DP24" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="DQ24" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="DR24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DS24" s="3"/>
+    </row>
+    <row r="25" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
         <v>316</v>
       </c>
@@ -10904,8 +11511,170 @@
       <c r="BV25" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK25" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>338</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP25">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR25">
+        <v>-65320</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT25">
+        <v>17077.5</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV25">
+        <v>2662.5</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>353</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ25">
+        <v>-58614.093999999997</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB25">
+        <v>14415</v>
+      </c>
+      <c r="DC25" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD25">
+        <v>-86848.561693893993</v>
+      </c>
+      <c r="DE25" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF25">
+        <v>21358.7199149999</v>
+      </c>
+      <c r="DG25" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH25">
+        <v>3945.0289124999999</v>
+      </c>
+      <c r="DI25" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ25" t="s">
+        <v>420</v>
+      </c>
+      <c r="DL25" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM25" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO25" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ25">
+        <v>0</v>
+      </c>
+      <c r="DR25" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS25">
+        <v>0</v>
+      </c>
+      <c r="DT25" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW25">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA25">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC25">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U26" t="s">
         <v>316</v>
       </c>
@@ -10936,8 +11705,170 @@
       <c r="BV26" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK26" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>338</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>353</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ26" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM26" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN26" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ26">
+        <v>0</v>
+      </c>
+      <c r="DR26" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS26">
+        <v>-741600</v>
+      </c>
+      <c r="DT26" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU26">
+        <v>1305280</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW26">
+        <v>1305280</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA26">
+        <v>-741600</v>
+      </c>
+      <c r="EB26" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC26">
+        <v>0</v>
+      </c>
+      <c r="ED26" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE26">
+        <v>-741600</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI26">
+        <v>1305280</v>
+      </c>
+      <c r="EJ26" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK26">
+        <v>1305280</v>
+      </c>
+      <c r="EL26" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U27" t="s">
         <v>316</v>
       </c>
@@ -10968,8 +11899,170 @@
       <c r="BV27" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK27" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP27">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="CQ27" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT27">
+        <v>2662.5</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV27">
+        <v>2662.5</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ27">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD27">
+        <v>9936.1476261059997</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH27">
+        <v>3945.0289124999999</v>
+      </c>
+      <c r="DI27" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ27" t="s">
+        <v>422</v>
+      </c>
+      <c r="DL27" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM27" t="s">
+        <v>338</v>
+      </c>
+      <c r="DN27" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO27" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP27" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ27">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="DR27" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS27">
+        <v>0</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU27">
+        <v>2662.5</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW27">
+        <v>17077.5</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>353</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA27">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="EB27" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC27">
+        <v>0</v>
+      </c>
+      <c r="ED27" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE27">
+        <v>9936.1476261059997</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI27">
+        <v>25303.7488275</v>
+      </c>
+      <c r="EJ27" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK27">
+        <v>3945.0289124999999</v>
+      </c>
+      <c r="EL27" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U28" t="s">
         <v>316</v>
       </c>
@@ -11000,8 +12093,170 @@
       <c r="BV28" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK28" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP28">
+        <v>0</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT28">
+        <v>0</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV28">
+        <v>0</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ28">
+        <v>0</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB28">
+        <v>0</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD28">
+        <v>0</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF28">
+        <v>0</v>
+      </c>
+      <c r="DG28" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH28">
+        <v>0</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ28" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL28" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>338</v>
+      </c>
+      <c r="DN28" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO28" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP28" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ28">
+        <v>0</v>
+      </c>
+      <c r="DR28" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS28">
+        <v>0</v>
+      </c>
+      <c r="DT28" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU28">
+        <v>0</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW28">
+        <v>0</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>353</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA28">
+        <v>0</v>
+      </c>
+      <c r="EB28" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC28">
+        <v>0</v>
+      </c>
+      <c r="ED28" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE28">
+        <v>0</v>
+      </c>
+      <c r="EF28" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG28">
+        <v>0</v>
+      </c>
+      <c r="EH28" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI28">
+        <v>0</v>
+      </c>
+      <c r="EJ28" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK28">
+        <v>0</v>
+      </c>
+      <c r="EL28" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>316</v>
       </c>
@@ -11032,8 +12287,170 @@
       <c r="BV29" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK29" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>337</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP29">
+        <v>1948.175</v>
+      </c>
+      <c r="CQ29" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
+      <c r="CU29" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY29" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ29">
+        <v>1948.175</v>
+      </c>
+      <c r="DA29" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
+      <c r="DC29" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD29">
+        <v>2886.6128456749998</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF29">
+        <v>0</v>
+      </c>
+      <c r="DG29" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH29">
+        <v>0</v>
+      </c>
+      <c r="DI29" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ29" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL29" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM29" t="s">
+        <v>342</v>
+      </c>
+      <c r="DN29" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO29" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP29" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ29">
+        <v>1948.175</v>
+      </c>
+      <c r="DR29" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS29">
+        <v>0</v>
+      </c>
+      <c r="DT29" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU29">
+        <v>0</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW29">
+        <v>0</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>353</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA29">
+        <v>1948.175</v>
+      </c>
+      <c r="EB29" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC29">
+        <v>0</v>
+      </c>
+      <c r="ED29" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE29">
+        <v>2886.6128456749998</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI29">
+        <v>0</v>
+      </c>
+      <c r="EJ29" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK29">
+        <v>0</v>
+      </c>
+      <c r="EL29" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
         <v>316</v>
       </c>
@@ -11064,8 +12481,170 @@
       <c r="BV30" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK30" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>337</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP30">
+        <v>0</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR30">
+        <v>-1854000</v>
+      </c>
+      <c r="CS30" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT30">
+        <v>407597</v>
+      </c>
+      <c r="CU30" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV30">
+        <v>407597</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY30" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ30">
+        <v>-1854000</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB30">
+        <v>0</v>
+      </c>
+      <c r="DC30" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD30">
+        <v>-1854000</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF30">
+        <v>0</v>
+      </c>
+      <c r="DG30" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH30">
+        <v>407597</v>
+      </c>
+      <c r="DI30" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ30" t="s">
+        <v>391</v>
+      </c>
+      <c r="DL30" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM30" t="s">
+        <v>342</v>
+      </c>
+      <c r="DN30" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO30" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP30" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ30">
+        <v>0</v>
+      </c>
+      <c r="DR30" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS30">
+        <v>0</v>
+      </c>
+      <c r="DT30" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU30">
+        <v>0</v>
+      </c>
+      <c r="DV30" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW30">
+        <v>0</v>
+      </c>
+      <c r="DX30" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY30" t="s">
+        <v>353</v>
+      </c>
+      <c r="DZ30" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA30">
+        <v>0</v>
+      </c>
+      <c r="EB30" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC30">
+        <v>0</v>
+      </c>
+      <c r="ED30" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE30">
+        <v>0</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG30">
+        <v>0</v>
+      </c>
+      <c r="EH30" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI30">
+        <v>0</v>
+      </c>
+      <c r="EJ30" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK30">
+        <v>0</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>316</v>
       </c>
@@ -11096,8 +12675,143 @@
       <c r="BV31" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="CK31" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>341</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP31">
+        <v>0</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR31">
+        <v>0</v>
+      </c>
+      <c r="CS31" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT31">
+        <v>0</v>
+      </c>
+      <c r="CU31" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY31" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ31">
+        <v>0</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
+      <c r="DG31" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DI31" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ31" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL31" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM31" t="s">
+        <v>339</v>
+      </c>
+      <c r="DN31" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO31" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP31" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ31">
+        <v>0</v>
+      </c>
+      <c r="DR31" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS31">
+        <v>-65320</v>
+      </c>
+      <c r="DT31" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU31">
+        <v>16330</v>
+      </c>
+      <c r="DV31" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW31">
+        <v>16330</v>
+      </c>
+      <c r="DX31" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ31" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA31">
+        <v>-65320</v>
+      </c>
+      <c r="EB31" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC31">
+        <v>0</v>
+      </c>
+      <c r="ED31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>316</v>
       </c>
@@ -11128,8 +12842,113 @@
       <c r="BV32" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="CK32" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>341</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR32">
+        <v>-741600</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT32">
+        <v>1305280</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV32">
+        <v>1305280</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ32">
+        <v>-741600</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB32">
+        <v>0</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD32">
+        <v>-741600</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF32">
+        <v>0</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH32">
+        <v>1305280</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>393</v>
+      </c>
+      <c r="DL32">
+        <v>-96784.709319999994</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>417</v>
+      </c>
+      <c r="DN32">
+        <v>0</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DP32">
+        <v>24196.177329999999</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>435</v>
+      </c>
+      <c r="DR32">
+        <v>24196.177329999999</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>404</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>316</v>
       </c>
@@ -11160,8 +12979,170 @@
       <c r="BV33" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="CK33" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>342</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP33">
+        <v>1948.175</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR33">
+        <v>0</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT33">
+        <v>0</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV33">
+        <v>0</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ33">
+        <v>1948.175</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB33">
+        <v>0</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD33">
+        <v>2886.6128456749998</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF33">
+        <v>0</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH33">
+        <v>0</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>339</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ33">
+        <v>0</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS33">
+        <v>0</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU33">
+        <v>0</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW33">
+        <v>0</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA33">
+        <v>0</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC33">
+        <v>0</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE33">
+        <v>0</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG33">
+        <v>0</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI33">
+        <v>0</v>
+      </c>
+      <c r="EJ33" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK33">
+        <v>0</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA34" s="3" t="s">
         <v>1</v>
       </c>
@@ -11195,8 +13176,170 @@
       <c r="BV34" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="CK34" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>342</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP34">
+        <v>0</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR34">
+        <v>0</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT34">
+        <v>0</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV34">
+        <v>0</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>353</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ34">
+        <v>0</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB34">
+        <v>0</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF34">
+        <v>0</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ34">
+        <v>1948.175</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS34">
+        <v>0</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU34">
+        <v>0</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW34">
+        <v>0</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA34">
+        <v>1948.175</v>
+      </c>
+      <c r="EB34" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC34">
+        <v>0</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE34">
+        <v>2886.6128456749998</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG34">
+        <v>0</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI34">
+        <v>0</v>
+      </c>
+      <c r="EJ34" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK34">
+        <v>0</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>324</v>
       </c>
@@ -11263,8 +13406,170 @@
       <c r="BV35" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="CK35" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>339</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>368</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP35">
+        <v>0</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR35">
+        <v>-65320</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT35">
+        <v>16330</v>
+      </c>
+      <c r="CU35" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV35">
+        <v>16330</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY35" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ35">
+        <v>-65320</v>
+      </c>
+      <c r="DA35" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB35">
+        <v>0</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD35">
+        <v>-96784.709319999994</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH35">
+        <v>24196.177329999999</v>
+      </c>
+      <c r="DI35" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ35" t="s">
+        <v>423</v>
+      </c>
+      <c r="DL35" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO35" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP35" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ35">
+        <v>0</v>
+      </c>
+      <c r="DR35" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS35">
+        <v>-1854000</v>
+      </c>
+      <c r="DT35" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU35">
+        <v>407597</v>
+      </c>
+      <c r="DV35" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW35">
+        <v>407597</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA35">
+        <v>-1854000</v>
+      </c>
+      <c r="EB35" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC35">
+        <v>0</v>
+      </c>
+      <c r="ED35" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE35">
+        <v>-1854000</v>
+      </c>
+      <c r="EF35" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG35">
+        <v>0</v>
+      </c>
+      <c r="EH35" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI35">
+        <v>407597</v>
+      </c>
+      <c r="EJ35" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK35">
+        <v>407597</v>
+      </c>
+      <c r="EL35" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>324</v>
       </c>
@@ -11331,8 +13636,170 @@
       <c r="BV36" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="CK36" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>339</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP36">
+        <v>0</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR36">
+        <v>0</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT36">
+        <v>0</v>
+      </c>
+      <c r="CU36" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV36">
+        <v>0</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY36" t="s">
+        <v>415</v>
+      </c>
+      <c r="CZ36">
+        <v>0</v>
+      </c>
+      <c r="DA36" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB36">
+        <v>0</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
+      <c r="DI36" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ36" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL36" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM36" t="s">
+        <v>340</v>
+      </c>
+      <c r="DN36" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO36" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP36" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ36">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="DR36" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS36">
+        <v>0</v>
+      </c>
+      <c r="DT36" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU36">
+        <v>2662.5</v>
+      </c>
+      <c r="DV36" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW36">
+        <v>2662.5</v>
+      </c>
+      <c r="DX36" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA36">
+        <v>6705.9059999999999</v>
+      </c>
+      <c r="EB36" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC36">
+        <v>0</v>
+      </c>
+      <c r="ED36" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE36">
+        <v>9936.1476261059997</v>
+      </c>
+      <c r="EF36" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG36">
+        <v>0</v>
+      </c>
+      <c r="EH36" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI36">
+        <v>3945.0289124999999</v>
+      </c>
+      <c r="EJ36" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK36">
+        <v>3945.0289124999999</v>
+      </c>
+      <c r="EL36" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>324</v>
       </c>
@@ -11381,8 +13848,92 @@
       <c r="AP37" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="DL37" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM37" t="s">
+        <v>340</v>
+      </c>
+      <c r="DN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO37" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP37" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ37">
+        <v>0</v>
+      </c>
+      <c r="DR37" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS37">
+        <v>0</v>
+      </c>
+      <c r="DT37" t="s">
+        <v>413</v>
+      </c>
+      <c r="DU37">
+        <v>0</v>
+      </c>
+      <c r="DV37" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW37">
+        <v>0</v>
+      </c>
+      <c r="DX37" t="s">
+        <v>414</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ37" t="s">
+        <v>415</v>
+      </c>
+      <c r="EA37">
+        <v>0</v>
+      </c>
+      <c r="EB37" t="s">
+        <v>400</v>
+      </c>
+      <c r="EC37">
+        <v>0</v>
+      </c>
+      <c r="ED37" t="s">
+        <v>416</v>
+      </c>
+      <c r="EE37">
+        <v>0</v>
+      </c>
+      <c r="EF37" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG37">
+        <v>0</v>
+      </c>
+      <c r="EH37" t="s">
+        <v>418</v>
+      </c>
+      <c r="EI37">
+        <v>0</v>
+      </c>
+      <c r="EJ37" t="s">
+        <v>435</v>
+      </c>
+      <c r="EK37">
+        <v>0</v>
+      </c>
+      <c r="EL37" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -11440,8 +13991,38 @@
       <c r="AP38" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="DL38" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM38" t="s">
+        <v>429</v>
+      </c>
+      <c r="DN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO38" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP38" t="s">
+        <v>414</v>
+      </c>
+      <c r="DQ38" t="s">
+        <v>430</v>
+      </c>
+      <c r="DR38" t="s">
+        <v>417</v>
+      </c>
+      <c r="DS38">
+        <v>0</v>
+      </c>
+      <c r="DT38" t="s">
+        <v>404</v>
+      </c>
+      <c r="DU38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>324</v>
       </c>
@@ -11490,8 +14071,46 @@
       <c r="P39" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX39" s="3" t="str">
+        <f>pbreq!L18</f>
+        <v>pbreq</v>
+      </c>
+      <c r="BY39" s="3" t="str">
+        <f>pbreq!M18</f>
+        <v>list</v>
+      </c>
+      <c r="DL39" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM39" t="s">
+        <v>431</v>
+      </c>
+      <c r="DN39" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO39" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP39" t="s">
+        <v>414</v>
+      </c>
+      <c r="DQ39" t="s">
+        <v>432</v>
+      </c>
+      <c r="DR39" t="s">
+        <v>417</v>
+      </c>
+      <c r="DS39">
+        <v>0</v>
+      </c>
+      <c r="DT39" t="s">
+        <v>404</v>
+      </c>
+      <c r="DU39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -11540,8 +14159,166 @@
       <c r="P40" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX40" s="5" t="str">
+        <f>pbreq!L19</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY40" s="5" t="str">
+        <f>pbreq!M19</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ40" s="5" t="str">
+        <f>pbreq!N19</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA40" s="5" t="str">
+        <f>pbreq!O19</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB40" s="5" t="str">
+        <f>pbreq!P19</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC40" s="5" t="str">
+        <f>pbreq!Q19</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD40" s="5" t="str">
+        <f>pbreq!R19</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE40" s="5" t="str">
+        <f>pbreq!S19</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF40" s="5" t="str">
+        <f>pbreq!T19</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG40" s="5">
+        <f>pbreq!U19</f>
+        <v>16330</v>
+      </c>
+      <c r="CH40" s="5" t="str">
+        <f>pbreq!V19</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI40" s="5" t="str">
+        <f>pbreq!W19</f>
+        <v>-65320.0}</v>
+      </c>
+      <c r="DL40" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM40" t="s">
+        <v>433</v>
+      </c>
+      <c r="DN40" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO40" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP40" t="s">
+        <v>414</v>
+      </c>
+      <c r="DQ40" t="s">
+        <v>430</v>
+      </c>
+      <c r="DR40" t="s">
+        <v>417</v>
+      </c>
+      <c r="DS40">
+        <v>0</v>
+      </c>
+      <c r="DT40" t="s">
+        <v>404</v>
+      </c>
+      <c r="DU40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BX41" s="5" t="str">
+        <f>pbreq!L20</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY41" s="5" t="str">
+        <f>pbreq!M20</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ41" s="5" t="str">
+        <f>pbreq!N20</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA41" s="5" t="str">
+        <f>pbreq!O20</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB41" s="5" t="str">
+        <f>pbreq!P20</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC41" s="5" t="str">
+        <f>pbreq!Q20</f>
+        <v>'Margin4'</v>
+      </c>
+      <c r="CD41" s="5" t="str">
+        <f>pbreq!R20</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE41" s="5" t="str">
+        <f>pbreq!S20</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF41" s="5" t="str">
+        <f>pbreq!T20</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG41" s="5">
+        <f>pbreq!U20</f>
+        <v>2662.5</v>
+      </c>
+      <c r="CH41" s="5" t="str">
+        <f>pbreq!V20</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI41" s="5" t="str">
+        <f>pbreq!W20</f>
+        <v>0.0}</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>434</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO41" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP41" t="s">
+        <v>414</v>
+      </c>
+      <c r="DQ41" t="s">
+        <v>432</v>
+      </c>
+      <c r="DR41" t="s">
+        <v>417</v>
+      </c>
+      <c r="DS41">
+        <v>0</v>
+      </c>
+      <c r="DT41" t="s">
+        <v>404</v>
+      </c>
+      <c r="DU41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR42" s="3" t="s">
         <v>1</v>
       </c>
@@ -11563,8 +14340,56 @@
       <c r="AX42" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX42" s="5" t="str">
+        <f>pbreq!L21</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY42" s="5" t="str">
+        <f>pbreq!M21</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ42" s="5" t="str">
+        <f>pbreq!N21</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA42" s="5" t="str">
+        <f>pbreq!O21</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB42" s="5" t="str">
+        <f>pbreq!P21</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC42" s="5" t="str">
+        <f>pbreq!Q21</f>
+        <v>'Sum'</v>
+      </c>
+      <c r="CD42" s="5" t="str">
+        <f>pbreq!R21</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE42" s="5" t="str">
+        <f>pbreq!S21</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF42" s="5" t="str">
+        <f>pbreq!T21</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG42" s="5">
+        <f>pbreq!U21</f>
+        <v>2662.5</v>
+      </c>
+      <c r="CH42" s="5" t="str">
+        <f>pbreq!V21</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI42" s="5" t="str">
+        <f>pbreq!W21</f>
+        <v>0.0}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR43" t="s">
         <v>324</v>
       </c>
@@ -11637,8 +14462,56 @@
       <c r="BO43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BX43" s="5" t="str">
+        <f>pbreq!L22</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY43" s="5" t="str">
+        <f>pbreq!M22</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ43" s="5" t="str">
+        <f>pbreq!N22</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA43" s="5" t="str">
+        <f>pbreq!O22</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB43" s="5" t="str">
+        <f>pbreq!P22</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC43" s="5" t="str">
+        <f>pbreq!Q22</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD43" s="5" t="str">
+        <f>pbreq!R22</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE43" s="5" t="str">
+        <f>pbreq!S22</f>
+        <v>'NZD'</v>
+      </c>
+      <c r="CF43" s="5" t="str">
+        <f>pbreq!T22</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG43" s="5">
+        <f>pbreq!U22</f>
+        <v>407597</v>
+      </c>
+      <c r="CH43" s="5" t="str">
+        <f>pbreq!V22</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI43" s="5" t="str">
+        <f>pbreq!W22</f>
+        <v>-1854000.0}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O44" s="5" t="str">
         <f>'pa2'!N82</f>
         <v>option</v>
@@ -11791,8 +14664,56 @@
       <c r="BO44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BX44" s="5" t="str">
+        <f>pbreq!L23</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY44" s="5" t="str">
+        <f>pbreq!M23</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ44" s="5" t="str">
+        <f>pbreq!N23</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA44" s="5" t="str">
+        <f>pbreq!O23</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB44" s="5" t="str">
+        <f>pbreq!P23</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC44" s="5" t="str">
+        <f>pbreq!Q23</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD44" s="5" t="str">
+        <f>pbreq!R23</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE44" s="5" t="str">
+        <f>pbreq!S23</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF44" s="5" t="str">
+        <f>pbreq!T23</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG44" s="5">
+        <f>pbreq!U23</f>
+        <v>0</v>
+      </c>
+      <c r="CH44" s="5" t="str">
+        <f>pbreq!V23</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI44" s="5" t="str">
+        <f>pbreq!W23</f>
+        <v>0.0}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O45" t="str">
         <f>'pa2'!N83</f>
         <v>{'comm'</v>
@@ -11977,8 +14898,56 @@
       <c r="BO45" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX45" s="5" t="str">
+        <f>pbreq!L24</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY45" s="5" t="str">
+        <f>pbreq!M24</f>
+        <v>'margin'</v>
+      </c>
+      <c r="BZ45" s="5" t="str">
+        <f>pbreq!N24</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA45" s="5" t="str">
+        <f>pbreq!O24</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB45" s="5" t="str">
+        <f>pbreq!P24</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC45" s="5" t="str">
+        <f>pbreq!Q24</f>
+        <v>'Margin3'</v>
+      </c>
+      <c r="CD45" s="5" t="str">
+        <f>pbreq!R24</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE45" s="5" t="str">
+        <f>pbreq!S24</f>
+        <v>'NZD'</v>
+      </c>
+      <c r="CF45" s="5" t="str">
+        <f>pbreq!T24</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG45" s="5">
+        <f>pbreq!U24</f>
+        <v>1305280</v>
+      </c>
+      <c r="CH45" s="5" t="str">
+        <f>pbreq!V24</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI45" s="5" t="str">
+        <f>pbreq!W24</f>
+        <v>-741600.0}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O46" t="str">
         <f>'pa2'!N84</f>
         <v>{'comm'</v>
@@ -12163,8 +15132,56 @@
       <c r="BO46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX46" s="5" t="str">
+        <f>pbreq!L25</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY46" s="5" t="str">
+        <f>pbreq!M25</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ46" s="5" t="str">
+        <f>pbreq!N25</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA46" s="5" t="str">
+        <f>pbreq!O25</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB46" s="5" t="str">
+        <f>pbreq!P25</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC46" s="5" t="str">
+        <f>pbreq!Q25</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD46" s="5" t="str">
+        <f>pbreq!R25</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE46" s="5" t="str">
+        <f>pbreq!S25</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF46" s="5" t="str">
+        <f>pbreq!T25</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG46" s="5">
+        <f>pbreq!U25</f>
+        <v>16330</v>
+      </c>
+      <c r="CH46" s="5" t="str">
+        <f>pbreq!V25</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI46" s="5" t="str">
+        <f>pbreq!W25</f>
+        <v>-65320.0}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O47" t="str">
         <f>'pa2'!N85</f>
         <v>{'comm'</v>
@@ -12277,8 +15294,56 @@
         <f>'pa2'!AO85</f>
         <v>2615.0}</v>
       </c>
-    </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX47" s="5" t="str">
+        <f>pbreq!L26</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY47" s="5" t="str">
+        <f>pbreq!M26</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ47" s="5" t="str">
+        <f>pbreq!N26</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA47" s="5" t="str">
+        <f>pbreq!O26</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB47" s="5" t="str">
+        <f>pbreq!P26</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC47" s="5" t="str">
+        <f>pbreq!Q26</f>
+        <v>'Margin4'</v>
+      </c>
+      <c r="CD47" s="5" t="str">
+        <f>pbreq!R26</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE47" s="5" t="str">
+        <f>pbreq!S26</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF47" s="5" t="str">
+        <f>pbreq!T26</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG47" s="5">
+        <f>pbreq!U26</f>
+        <v>2662.5</v>
+      </c>
+      <c r="CH47" s="5" t="str">
+        <f>pbreq!V26</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI47" s="5" t="str">
+        <f>pbreq!W26</f>
+        <v>0.0}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O48" t="str">
         <f>'pa2'!N86</f>
         <v>{'comm'</v>
@@ -12391,7 +15456,206 @@
         <f>'pa2'!AO86</f>
         <v>2615.0}</v>
       </c>
-    </row>
+      <c r="BX48" s="5" t="str">
+        <f>pbreq!L27</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY48" s="5" t="str">
+        <f>pbreq!M27</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ48" s="5" t="str">
+        <f>pbreq!N27</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA48" s="5" t="str">
+        <f>pbreq!O27</f>
+        <v>'FCS'</v>
+      </c>
+      <c r="CB48" s="5" t="str">
+        <f>pbreq!P27</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC48" s="5" t="str">
+        <f>pbreq!Q27</f>
+        <v>'Sum'</v>
+      </c>
+      <c r="CD48" s="5" t="str">
+        <f>pbreq!R27</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE48" s="5" t="str">
+        <f>pbreq!S27</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF48" s="5" t="str">
+        <f>pbreq!T27</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG48" s="5">
+        <f>pbreq!U27</f>
+        <v>17077.5</v>
+      </c>
+      <c r="CH48" s="5" t="str">
+        <f>pbreq!V27</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI48" s="5" t="str">
+        <f>pbreq!W27</f>
+        <v>-65320.0}</v>
+      </c>
+    </row>
+    <row r="49" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BX49" s="5" t="str">
+        <f>pbreq!L28</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY49" s="5" t="str">
+        <f>pbreq!M28</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ49" s="5" t="str">
+        <f>pbreq!N28</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA49" s="5" t="str">
+        <f>pbreq!O28</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB49" s="5" t="str">
+        <f>pbreq!P28</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC49" s="5" t="str">
+        <f>pbreq!Q28</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD49" s="5" t="str">
+        <f>pbreq!R28</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE49" s="5" t="str">
+        <f>pbreq!S28</f>
+        <v>'NZD'</v>
+      </c>
+      <c r="CF49" s="5" t="str">
+        <f>pbreq!T28</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG49" s="5">
+        <f>pbreq!U28</f>
+        <v>407597</v>
+      </c>
+      <c r="CH49" s="5" t="str">
+        <f>pbreq!V28</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI49" s="5" t="str">
+        <f>pbreq!W28</f>
+        <v>-1854000.0}</v>
+      </c>
+    </row>
+    <row r="50" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BX50" s="5" t="str">
+        <f>pbreq!L29</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY50" s="5" t="str">
+        <f>pbreq!M29</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ50" s="5" t="str">
+        <f>pbreq!N29</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA50" s="5" t="str">
+        <f>pbreq!O29</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB50" s="5" t="str">
+        <f>pbreq!P29</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC50" s="5" t="str">
+        <f>pbreq!Q29</f>
+        <v>'Margin2'</v>
+      </c>
+      <c r="CD50" s="5" t="str">
+        <f>pbreq!R29</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE50" s="5" t="str">
+        <f>pbreq!S29</f>
+        <v>'USD'</v>
+      </c>
+      <c r="CF50" s="5" t="str">
+        <f>pbreq!T29</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG50" s="5">
+        <f>pbreq!U29</f>
+        <v>0</v>
+      </c>
+      <c r="CH50" s="5" t="str">
+        <f>pbreq!V29</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI50" s="5" t="str">
+        <f>pbreq!W29</f>
+        <v>0.0}</v>
+      </c>
+    </row>
+    <row r="51" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BX51" s="5" t="str">
+        <f>pbreq!L30</f>
+        <v>{'identifier'</v>
+      </c>
+      <c r="BY51" s="5" t="str">
+        <f>pbreq!M30</f>
+        <v>'rc'</v>
+      </c>
+      <c r="BZ51" s="5" t="str">
+        <f>pbreq!N30</f>
+        <v>'bp'</v>
+      </c>
+      <c r="CA51" s="5" t="str">
+        <f>pbreq!O30</f>
+        <v>'OMF'</v>
+      </c>
+      <c r="CB51" s="5" t="str">
+        <f>pbreq!P30</f>
+        <v>'acc'</v>
+      </c>
+      <c r="CC51" s="5" t="str">
+        <f>pbreq!Q30</f>
+        <v>'Margin3'</v>
+      </c>
+      <c r="CD51" s="5" t="str">
+        <f>pbreq!R30</f>
+        <v>'curr'</v>
+      </c>
+      <c r="CE51" s="5" t="str">
+        <f>pbreq!S30</f>
+        <v>'NZD'</v>
+      </c>
+      <c r="CF51" s="5" t="str">
+        <f>pbreq!T30</f>
+        <v>'span'</v>
+      </c>
+      <c r="CG51" s="5">
+        <f>pbreq!U30</f>
+        <v>1305280</v>
+      </c>
+      <c r="CH51" s="5" t="str">
+        <f>pbreq!V30</f>
+        <v>'lfvsfv'</v>
+      </c>
+      <c r="CI51" s="5" t="str">
+        <f>pbreq!W30</f>
+        <v>-741600.0}</v>
+      </c>
+    </row>
+    <row r="52" spans="76:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12402,8 +15666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="439">
   <si>
     <t>instrument</t>
   </si>
@@ -816,9 +816,6 @@
     <t>4.1.1 new scan range rate % = revised price list + rc scan range csv</t>
   </si>
   <si>
-    <t>4.1.2 new price scan range rate $ = revised instrument list + rc scan range csv</t>
-  </si>
-  <si>
     <t>4.2.1. create tier list</t>
   </si>
   <si>
@@ -1342,6 +1339,12 @@
   </si>
   <si>
     <t>'FCSU00000'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMP   WMP       OOFC201812              201812  </t>
+  </si>
+  <si>
+    <t>4.1.2 new price scan range rate $ = revised instrument list + price list + rc scan range csv</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1702,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16830675" y="2981324"/>
+          <a:off x="16830675" y="3171824"/>
           <a:ext cx="1057275" cy="3171826"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2312,6 +2315,100 @@
         <a:xfrm>
           <a:off x="8810625" y="13144500"/>
           <a:ext cx="2438400" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24050625" y="7543800"/>
+          <a:ext cx="1800226" cy="8077200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14658975" y="1371599"/>
+          <a:ext cx="2076450" cy="5105401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3414,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC86"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:F51"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,21 +4313,21 @@
         <v>31</v>
       </c>
       <c r="AG14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AG15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -4238,7 +4335,7 @@
         <v>188</v>
       </c>
       <c r="AG16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AQ16" s="3" t="s">
         <v>196</v>
@@ -4261,7 +4358,7 @@
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="AG17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AQ17" t="s">
         <v>4</v>
@@ -4713,7 +4810,7 @@
       </c>
       <c r="BP31" s="2"/>
       <c r="BQ31" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.25">
@@ -4855,7 +4952,7 @@
         <v>88</v>
       </c>
       <c r="BN34" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.25">
@@ -4884,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="AQ35" s="3" t="s">
         <v>116</v>
@@ -4896,19 +4993,19 @@
         <v>3</v>
       </c>
       <c r="AU35" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BN35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BO35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP35" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BP35" s="3" t="s">
+      <c r="BQ35" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="BQ35" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.25">
@@ -5078,22 +5175,22 @@
         <v>35</v>
       </c>
       <c r="BW36" t="s">
+        <v>271</v>
+      </c>
+      <c r="BX36" t="s">
         <v>272</v>
-      </c>
-      <c r="BX36" t="s">
-        <v>273</v>
       </c>
       <c r="BY36" t="s">
         <v>70</v>
       </c>
       <c r="BZ36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CA36" t="s">
         <v>30</v>
       </c>
       <c r="CB36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CC36" t="s">
         <v>73</v>
@@ -5565,7 +5662,7 @@
         <v>202</v>
       </c>
       <c r="BF53" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.25">
@@ -6144,6 +6241,8 @@
       <c r="H61" t="s">
         <v>41</v>
       </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
       <c r="AQ61" t="s">
         <v>4</v>
       </c>
@@ -7351,58 +7450,58 @@
         <v>3</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="R82" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="S82" s="3" t="s">
+      <c r="T82" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="T82" s="3" t="s">
+      <c r="U82" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="U82" s="3" t="s">
+      <c r="V82" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="V82" s="3" t="s">
+      <c r="W82" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="W82" s="3" t="s">
+      <c r="X82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA82" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="X82" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y82" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z82" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA82" s="3" t="s">
+      <c r="AB82" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AB82" s="3" t="s">
+      <c r="AC82" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="AC82" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="AD82" s="3" t="s">
         <v>124</v>
       </c>
       <c r="AE82" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF82" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG82" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AQ82" t="s">
         <v>4</v>
@@ -7446,13 +7545,13 @@
         <v>6</v>
       </c>
       <c r="Q83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R83" t="s">
         <v>95</v>
       </c>
       <c r="S83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T83" t="s">
         <v>8</v>
@@ -7497,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="AH83" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI83">
         <v>2850</v>
@@ -7512,10 +7611,10 @@
         <v>26</v>
       </c>
       <c r="AM83" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN83" t="s">
         <v>368</v>
-      </c>
-      <c r="AN83" t="s">
-        <v>369</v>
       </c>
       <c r="AO83" t="s">
         <v>239</v>
@@ -7562,13 +7661,13 @@
         <v>6</v>
       </c>
       <c r="Q84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R84" t="s">
         <v>95</v>
       </c>
       <c r="S84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T84" t="s">
         <v>8</v>
@@ -7613,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="AH84" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI84">
         <v>2850</v>
@@ -7628,10 +7727,10 @@
         <v>26</v>
       </c>
       <c r="AM84" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN84" t="s">
         <v>368</v>
-      </c>
-      <c r="AN84" t="s">
-        <v>369</v>
       </c>
       <c r="AO84" t="s">
         <v>239</v>
@@ -7678,13 +7777,13 @@
         <v>6</v>
       </c>
       <c r="Q85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R85" t="s">
         <v>95</v>
       </c>
       <c r="S85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T85" t="s">
         <v>8</v>
@@ -7729,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AH85" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI85">
         <v>2950</v>
@@ -7744,10 +7843,10 @@
         <v>26</v>
       </c>
       <c r="AM85" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN85" t="s">
         <v>368</v>
-      </c>
-      <c r="AN85" t="s">
-        <v>369</v>
       </c>
       <c r="AO85" t="s">
         <v>239</v>
@@ -7794,13 +7893,13 @@
         <v>6</v>
       </c>
       <c r="Q86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R86" t="s">
         <v>95</v>
       </c>
       <c r="S86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T86" t="s">
         <v>8</v>
@@ -7845,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AH86" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI86">
         <v>2950</v>
@@ -7860,10 +7959,10 @@
         <v>26</v>
       </c>
       <c r="AM86" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN86" t="s">
         <v>368</v>
-      </c>
-      <c r="AN86" t="s">
-        <v>369</v>
       </c>
       <c r="AO86" t="s">
         <v>239</v>
@@ -7910,7 +8009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
@@ -8013,7 +8112,7 @@
         <v>202</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -10486,7 +10585,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -10494,102 +10593,102 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
+        <v>402</v>
+      </c>
+      <c r="C57" t="s">
         <v>403</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>404</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F57" t="s">
         <v>405</v>
-      </c>
-      <c r="E57" t="s">
-        <v>326</v>
-      </c>
-      <c r="F57" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
+        <v>406</v>
+      </c>
+      <c r="C58" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" t="s">
         <v>407</v>
       </c>
-      <c r="C58" t="s">
-        <v>404</v>
-      </c>
-      <c r="D58" t="s">
-        <v>408</v>
-      </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
         <v>324</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D59" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" t="s">
         <v>325</v>
       </c>
-      <c r="C59" t="s">
-        <v>404</v>
-      </c>
-      <c r="D59" t="s">
-        <v>409</v>
-      </c>
-      <c r="E59" t="s">
-        <v>326</v>
-      </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61" t="s">
         <v>411</v>
       </c>
-      <c r="C61" t="s">
-        <v>404</v>
-      </c>
-      <c r="D61" t="s">
-        <v>412</v>
-      </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -10611,77 +10710,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -10693,8 +10792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD4" workbookViewId="0">
-      <selection activeCell="DU22" sqref="DU22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO47" sqref="AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10714,7 +10813,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="3">
         <v>5</v>
@@ -10722,175 +10821,175 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
         <v>296</v>
-      </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" t="s">
-        <v>297</v>
       </c>
       <c r="F2">
         <v>201909</v>
       </c>
       <c r="G2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" t="s">
         <v>298</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>299</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>295</v>
       </c>
-      <c r="C3" t="s">
-        <v>296</v>
-      </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3">
         <v>201812</v>
       </c>
       <c r="G3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" t="s">
         <v>302</v>
       </c>
-      <c r="H3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" t="s">
-        <v>303</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
         <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" t="s">
-        <v>305</v>
       </c>
       <c r="F4">
         <v>201812</v>
       </c>
       <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" t="s">
         <v>306</v>
       </c>
-      <c r="H4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" t="s">
-        <v>307</v>
-      </c>
       <c r="AA4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI4" t="s">
         <v>345</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5">
         <v>201909</v>
       </c>
       <c r="G5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" t="s">
         <v>298</v>
       </c>
-      <c r="H5" t="s">
-        <v>299</v>
-      </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI5" t="s">
         <v>347</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6">
         <v>201909</v>
       </c>
       <c r="G6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" t="s">
         <v>298</v>
       </c>
-      <c r="H6" t="s">
-        <v>299</v>
-      </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI6" t="s">
         <v>349</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -10899,10 +10998,10 @@
         <v>3</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>0</v>
@@ -10911,10 +11010,10 @@
         <v>3</v>
       </c>
       <c r="AA7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI7" t="s">
         <v>351</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>352</v>
       </c>
       <c r="BX7" s="3" t="str">
         <f>cons!A56</f>
@@ -10927,28 +11026,28 @@
     </row>
     <row r="8" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
         <v>294</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>295</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" t="s">
         <v>296</v>
-      </c>
-      <c r="D8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8" t="s">
-        <v>297</v>
       </c>
       <c r="F8">
         <v>201909</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BX8" s="5" t="str">
         <f>cons!A57</f>
@@ -10977,28 +11076,28 @@
     </row>
     <row r="9" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
         <v>294</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>295</v>
       </c>
-      <c r="C9" t="s">
-        <v>296</v>
-      </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>201812</v>
       </c>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BX9" s="5" t="str">
         <f>cons!A58</f>
@@ -11027,28 +11126,28 @@
     </row>
     <row r="10" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" t="s">
         <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" t="s">
-        <v>305</v>
       </c>
       <c r="F10">
         <v>201812</v>
       </c>
       <c r="G10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BX10" s="5" t="str">
         <f>cons!A59</f>
@@ -11077,28 +11176,28 @@
     </row>
     <row r="11" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11">
         <v>201909</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BX11" s="5" t="str">
         <f>cons!A60</f>
@@ -11127,25 +11226,25 @@
     </row>
     <row r="12" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12">
         <v>201909</v>
       </c>
       <c r="G12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BX12" s="5" t="str">
         <f>cons!A61</f>
@@ -11174,28 +11273,28 @@
     </row>
     <row r="13" spans="1:81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>124</v>
@@ -11203,58 +11302,58 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" t="s">
         <v>316</v>
       </c>
-      <c r="B14" t="s">
-        <v>317</v>
-      </c>
       <c r="R14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R15" t="s">
+        <v>315</v>
+      </c>
+      <c r="S15" t="s">
         <v>318</v>
-      </c>
-      <c r="R15" t="s">
-        <v>316</v>
-      </c>
-      <c r="S15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BX17" s="3" t="str">
         <f>'pa2'!A50</f>
@@ -11263,16 +11362,16 @@
     </row>
     <row r="18" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="R18" t="s">
+        <v>315</v>
+      </c>
+      <c r="S18" t="s">
         <v>320</v>
-      </c>
-      <c r="R18" t="s">
-        <v>316</v>
-      </c>
-      <c r="S18" t="s">
-        <v>321</v>
       </c>
       <c r="BX18" s="5" t="str">
         <f>'pa2'!A51</f>
@@ -11301,61 +11400,61 @@
     </row>
     <row r="19" spans="1:143" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>320</v>
+      </c>
+      <c r="R19" t="s">
+        <v>315</v>
+      </c>
+      <c r="S19" t="s">
         <v>316</v>
-      </c>
-      <c r="B19" t="s">
-        <v>321</v>
-      </c>
-      <c r="R19" t="s">
-        <v>316</v>
-      </c>
-      <c r="S19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
@@ -11364,24 +11463,24 @@
         <v>31</v>
       </c>
       <c r="CZ22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="DB22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
@@ -11390,18 +11489,18 @@
         <v>27</v>
       </c>
       <c r="CZ23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DB23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
@@ -11410,70 +11509,70 @@
         <v>31</v>
       </c>
       <c r="BP24" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BQ24" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BR24" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BS24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BT24" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BU24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="BV24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BW24" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="BW24" s="3" t="s">
+      <c r="BX24" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="BY24" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="BY24" s="3" t="s">
+      <c r="BZ24" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="BZ24" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="CA24" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CK24" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CL24" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CM24" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="CN24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="DL24" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="DM24" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="DN24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DO24" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="DP24" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="DN24" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="DO24" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="DP24" s="3" t="s">
+      <c r="DQ24" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="DQ24" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="DR24" s="3" t="s">
         <v>125</v>
@@ -11482,10 +11581,10 @@
     </row>
     <row r="25" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W25" t="s">
         <v>26</v>
@@ -11494,192 +11593,192 @@
         <v>27</v>
       </c>
       <c r="BP25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR25" t="s">
         <v>26</v>
       </c>
       <c r="BS25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT25" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV25" t="s">
         <v>379</v>
       </c>
-      <c r="BV25" t="s">
-        <v>380</v>
-      </c>
       <c r="CK25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CM25" t="s">
         <v>26</v>
       </c>
       <c r="CN25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP25">
         <v>6705.9059999999999</v>
       </c>
       <c r="CQ25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR25">
         <v>-65320</v>
       </c>
       <c r="CS25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT25">
         <v>17077.5</v>
       </c>
       <c r="CU25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV25">
         <v>2662.5</v>
       </c>
       <c r="CW25" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>352</v>
+      </c>
+      <c r="CY25" t="s">
         <v>414</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>353</v>
-      </c>
-      <c r="CY25" t="s">
-        <v>415</v>
       </c>
       <c r="CZ25">
         <v>-58614.093999999997</v>
       </c>
       <c r="DA25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB25">
         <v>14415</v>
       </c>
       <c r="DC25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD25">
         <v>-86848.561693893993</v>
       </c>
       <c r="DE25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF25">
         <v>21358.7199149999</v>
       </c>
       <c r="DG25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH25">
         <v>3945.0289124999999</v>
       </c>
       <c r="DI25" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ25" t="s">
         <v>419</v>
       </c>
-      <c r="DJ25" t="s">
-        <v>420</v>
-      </c>
       <c r="DL25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DN25" t="s">
         <v>26</v>
       </c>
       <c r="DO25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ25">
         <v>0</v>
       </c>
       <c r="DR25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS25">
         <v>0</v>
       </c>
       <c r="DT25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU25">
         <v>0</v>
       </c>
       <c r="DV25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW25">
         <v>0</v>
       </c>
       <c r="DX25" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ25" t="s">
         <v>414</v>
-      </c>
-      <c r="DY25" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ25" t="s">
-        <v>415</v>
       </c>
       <c r="EA25">
         <v>0</v>
       </c>
       <c r="EB25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC25">
         <v>0</v>
       </c>
       <c r="ED25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE25">
         <v>0</v>
       </c>
       <c r="EF25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG25">
         <v>0</v>
       </c>
       <c r="EH25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI25">
         <v>0</v>
       </c>
       <c r="EJ25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK25">
         <v>0</v>
       </c>
       <c r="EL25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
@@ -11688,192 +11787,195 @@
         <v>31</v>
       </c>
       <c r="BP26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR26" t="s">
         <v>26</v>
       </c>
       <c r="BS26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV26" t="s">
         <v>243</v>
       </c>
       <c r="CK26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CM26" t="s">
         <v>26</v>
       </c>
       <c r="CN26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP26">
         <v>0</v>
       </c>
       <c r="CQ26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR26">
         <v>0</v>
       </c>
       <c r="CS26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT26">
         <v>0</v>
       </c>
       <c r="CU26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV26">
         <v>0</v>
       </c>
       <c r="CW26" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>352</v>
+      </c>
+      <c r="CY26" t="s">
         <v>414</v>
-      </c>
-      <c r="CX26" t="s">
-        <v>353</v>
-      </c>
-      <c r="CY26" t="s">
-        <v>415</v>
       </c>
       <c r="CZ26">
         <v>0</v>
       </c>
       <c r="DA26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB26">
         <v>0</v>
       </c>
       <c r="DC26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD26">
         <v>0</v>
       </c>
       <c r="DE26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF26">
         <v>0</v>
       </c>
       <c r="DG26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH26">
         <v>0</v>
       </c>
       <c r="DI26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ26" t="s">
         <v>243</v>
       </c>
       <c r="DL26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DN26" t="s">
         <v>26</v>
       </c>
       <c r="DO26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ26">
         <v>0</v>
       </c>
       <c r="DR26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS26">
         <v>-741600</v>
       </c>
       <c r="DT26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU26">
         <v>1305280</v>
       </c>
       <c r="DV26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW26">
         <v>1305280</v>
       </c>
       <c r="DX26" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ26" t="s">
         <v>414</v>
-      </c>
-      <c r="DY26" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ26" t="s">
-        <v>415</v>
       </c>
       <c r="EA26">
         <v>-741600</v>
       </c>
       <c r="EB26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC26">
         <v>0</v>
       </c>
       <c r="ED26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE26">
         <v>-741600</v>
       </c>
       <c r="EF26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG26">
         <v>0</v>
       </c>
       <c r="EH26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI26">
         <v>1305280</v>
       </c>
       <c r="EJ26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK26">
         <v>1305280</v>
       </c>
       <c r="EL26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>437</v>
+      </c>
       <c r="U27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
@@ -11882,192 +11984,196 @@
         <v>27</v>
       </c>
       <c r="BP27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BR27" t="s">
         <v>26</v>
       </c>
       <c r="BS27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV27" t="s">
         <v>243</v>
       </c>
       <c r="CK27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CM27" t="s">
         <v>26</v>
       </c>
       <c r="CN27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP27">
         <v>6705.9059999999999</v>
       </c>
       <c r="CQ27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR27">
         <v>0</v>
       </c>
       <c r="CS27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT27">
         <v>2662.5</v>
       </c>
       <c r="CU27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV27">
         <v>2662.5</v>
       </c>
       <c r="CW27" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY27" t="s">
         <v>414</v>
-      </c>
-      <c r="CX27" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY27" t="s">
-        <v>415</v>
       </c>
       <c r="CZ27">
         <v>6705.9059999999999</v>
       </c>
       <c r="DA27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB27">
         <v>0</v>
       </c>
       <c r="DC27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD27">
         <v>9936.1476261059997</v>
       </c>
       <c r="DE27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF27">
         <v>0</v>
       </c>
       <c r="DG27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH27">
         <v>3945.0289124999999</v>
       </c>
       <c r="DI27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DL27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="DN27" t="s">
         <v>26</v>
       </c>
       <c r="DO27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ27">
         <v>6705.9059999999999</v>
       </c>
       <c r="DR27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS27">
         <v>0</v>
       </c>
       <c r="DT27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU27">
         <v>2662.5</v>
       </c>
       <c r="DV27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW27">
         <v>17077.5</v>
       </c>
       <c r="DX27" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ27" t="s">
         <v>414</v>
-      </c>
-      <c r="DY27" t="s">
-        <v>353</v>
-      </c>
-      <c r="DZ27" t="s">
-        <v>415</v>
       </c>
       <c r="EA27">
         <v>6705.9059999999999</v>
       </c>
       <c r="EB27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC27">
         <v>0</v>
       </c>
       <c r="ED27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE27">
         <v>9936.1476261059997</v>
       </c>
       <c r="EF27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG27">
         <v>0</v>
       </c>
       <c r="EH27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI27">
         <v>25303.7488275</v>
       </c>
       <c r="EJ27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK27">
         <v>3945.0289124999999</v>
       </c>
       <c r="EL27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>LEN(F27)</f>
+        <v>48</v>
+      </c>
       <c r="U28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
@@ -12076,192 +12182,192 @@
         <v>31</v>
       </c>
       <c r="BP28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BR28" t="s">
         <v>26</v>
       </c>
       <c r="BS28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV28" t="s">
         <v>243</v>
       </c>
       <c r="CK28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CM28" t="s">
         <v>26</v>
       </c>
       <c r="CN28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP28">
         <v>0</v>
       </c>
       <c r="CQ28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR28">
         <v>0</v>
       </c>
       <c r="CS28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT28">
         <v>0</v>
       </c>
       <c r="CU28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV28">
         <v>0</v>
       </c>
       <c r="CW28" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY28" t="s">
         <v>414</v>
-      </c>
-      <c r="CX28" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY28" t="s">
-        <v>415</v>
       </c>
       <c r="CZ28">
         <v>0</v>
       </c>
       <c r="DA28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB28">
         <v>0</v>
       </c>
       <c r="DC28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD28">
         <v>0</v>
       </c>
       <c r="DE28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF28">
         <v>0</v>
       </c>
       <c r="DG28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH28">
         <v>0</v>
       </c>
       <c r="DI28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ28" t="s">
         <v>243</v>
       </c>
       <c r="DL28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="DN28" t="s">
         <v>26</v>
       </c>
       <c r="DO28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ28">
         <v>0</v>
       </c>
       <c r="DR28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS28">
         <v>0</v>
       </c>
       <c r="DT28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU28">
         <v>0</v>
       </c>
       <c r="DV28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW28">
         <v>0</v>
       </c>
       <c r="DX28" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ28" t="s">
         <v>414</v>
-      </c>
-      <c r="DY28" t="s">
-        <v>353</v>
-      </c>
-      <c r="DZ28" t="s">
-        <v>415</v>
       </c>
       <c r="EA28">
         <v>0</v>
       </c>
       <c r="EB28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC28">
         <v>0</v>
       </c>
       <c r="ED28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE28">
         <v>0</v>
       </c>
       <c r="EF28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG28">
         <v>0</v>
       </c>
       <c r="EH28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI28">
         <v>0</v>
       </c>
       <c r="EJ28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK28">
         <v>0</v>
       </c>
       <c r="EL28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
@@ -12270,192 +12376,192 @@
         <v>27</v>
       </c>
       <c r="BP29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BR29" t="s">
         <v>26</v>
       </c>
       <c r="BS29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV29" t="s">
         <v>243</v>
       </c>
       <c r="CK29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CM29" t="s">
         <v>26</v>
       </c>
       <c r="CN29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP29">
         <v>1948.175</v>
       </c>
       <c r="CQ29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR29">
         <v>0</v>
       </c>
       <c r="CS29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT29">
         <v>0</v>
       </c>
       <c r="CU29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV29">
         <v>0</v>
       </c>
       <c r="CW29" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY29" t="s">
         <v>414</v>
-      </c>
-      <c r="CX29" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY29" t="s">
-        <v>415</v>
       </c>
       <c r="CZ29">
         <v>1948.175</v>
       </c>
       <c r="DA29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB29">
         <v>0</v>
       </c>
       <c r="DC29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD29">
         <v>2886.6128456749998</v>
       </c>
       <c r="DE29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF29">
         <v>0</v>
       </c>
       <c r="DG29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH29">
         <v>0</v>
       </c>
       <c r="DI29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ29" t="s">
         <v>243</v>
       </c>
       <c r="DL29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DN29" t="s">
         <v>26</v>
       </c>
       <c r="DO29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ29">
         <v>1948.175</v>
       </c>
       <c r="DR29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS29">
         <v>0</v>
       </c>
       <c r="DT29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU29">
         <v>0</v>
       </c>
       <c r="DV29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW29">
         <v>0</v>
       </c>
       <c r="DX29" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ29" t="s">
         <v>414</v>
-      </c>
-      <c r="DY29" t="s">
-        <v>353</v>
-      </c>
-      <c r="DZ29" t="s">
-        <v>415</v>
       </c>
       <c r="EA29">
         <v>1948.175</v>
       </c>
       <c r="EB29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC29">
         <v>0</v>
       </c>
       <c r="ED29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE29">
         <v>2886.6128456749998</v>
       </c>
       <c r="EF29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG29">
         <v>0</v>
       </c>
       <c r="EH29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI29">
         <v>0</v>
       </c>
       <c r="EJ29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK29">
         <v>0</v>
       </c>
       <c r="EL29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
@@ -12464,192 +12570,192 @@
         <v>31</v>
       </c>
       <c r="BP30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BR30" t="s">
         <v>26</v>
       </c>
       <c r="BS30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV30" t="s">
         <v>243</v>
       </c>
       <c r="CK30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CM30" t="s">
         <v>26</v>
       </c>
       <c r="CN30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP30">
         <v>0</v>
       </c>
       <c r="CQ30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR30">
         <v>-1854000</v>
       </c>
       <c r="CS30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT30">
         <v>407597</v>
       </c>
       <c r="CU30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV30">
         <v>407597</v>
       </c>
       <c r="CW30" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY30" t="s">
         <v>414</v>
-      </c>
-      <c r="CX30" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY30" t="s">
-        <v>415</v>
       </c>
       <c r="CZ30">
         <v>-1854000</v>
       </c>
       <c r="DA30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB30">
         <v>0</v>
       </c>
       <c r="DC30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD30">
         <v>-1854000</v>
       </c>
       <c r="DE30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF30">
         <v>0</v>
       </c>
       <c r="DG30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH30">
         <v>407597</v>
       </c>
       <c r="DI30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="DL30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DN30" t="s">
         <v>26</v>
       </c>
       <c r="DO30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ30">
         <v>0</v>
       </c>
       <c r="DR30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS30">
         <v>0</v>
       </c>
       <c r="DT30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU30">
         <v>0</v>
       </c>
       <c r="DV30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW30">
         <v>0</v>
       </c>
       <c r="DX30" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY30" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ30" t="s">
         <v>414</v>
-      </c>
-      <c r="DY30" t="s">
-        <v>353</v>
-      </c>
-      <c r="DZ30" t="s">
-        <v>415</v>
       </c>
       <c r="EA30">
         <v>0</v>
       </c>
       <c r="EB30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC30">
         <v>0</v>
       </c>
       <c r="ED30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE30">
         <v>0</v>
       </c>
       <c r="EF30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG30">
         <v>0</v>
       </c>
       <c r="EH30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI30">
         <v>0</v>
       </c>
       <c r="EJ30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK30">
         <v>0</v>
       </c>
       <c r="EL30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
@@ -12658,165 +12764,165 @@
         <v>27</v>
       </c>
       <c r="BP31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BR31" t="s">
         <v>26</v>
       </c>
       <c r="BS31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CK31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CM31" t="s">
         <v>26</v>
       </c>
       <c r="CN31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP31">
         <v>0</v>
       </c>
       <c r="CQ31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR31">
         <v>0</v>
       </c>
       <c r="CS31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT31">
         <v>0</v>
       </c>
       <c r="CU31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV31">
         <v>0</v>
       </c>
       <c r="CW31" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY31" t="s">
         <v>414</v>
-      </c>
-      <c r="CX31" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY31" t="s">
-        <v>415</v>
       </c>
       <c r="CZ31">
         <v>0</v>
       </c>
       <c r="DA31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB31">
         <v>0</v>
       </c>
       <c r="DC31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD31">
         <v>0</v>
       </c>
       <c r="DE31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF31">
         <v>0</v>
       </c>
       <c r="DG31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH31">
         <v>0</v>
       </c>
       <c r="DI31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ31" t="s">
         <v>243</v>
       </c>
       <c r="DL31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DN31" t="s">
         <v>26</v>
       </c>
       <c r="DO31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ31">
         <v>0</v>
       </c>
       <c r="DR31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS31">
         <v>-65320</v>
       </c>
       <c r="DT31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU31">
         <v>16330</v>
       </c>
       <c r="DV31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW31">
         <v>16330</v>
       </c>
       <c r="DX31" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ31" t="s">
         <v>414</v>
-      </c>
-      <c r="DY31" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ31" t="s">
-        <v>415</v>
       </c>
       <c r="EA31">
         <v>-65320</v>
       </c>
       <c r="EB31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC31">
         <v>0</v>
       </c>
       <c r="ED31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
@@ -12825,135 +12931,135 @@
         <v>31</v>
       </c>
       <c r="BP32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BR32" t="s">
         <v>26</v>
       </c>
       <c r="BS32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV32" t="s">
         <v>243</v>
       </c>
       <c r="CK32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CM32" t="s">
         <v>26</v>
       </c>
       <c r="CN32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP32">
         <v>0</v>
       </c>
       <c r="CQ32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR32">
         <v>-741600</v>
       </c>
       <c r="CS32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT32">
         <v>1305280</v>
       </c>
       <c r="CU32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV32">
         <v>1305280</v>
       </c>
       <c r="CW32" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY32" t="s">
         <v>414</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>415</v>
       </c>
       <c r="CZ32">
         <v>-741600</v>
       </c>
       <c r="DA32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB32">
         <v>0</v>
       </c>
       <c r="DC32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD32">
         <v>-741600</v>
       </c>
       <c r="DE32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF32">
         <v>0</v>
       </c>
       <c r="DG32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH32">
         <v>1305280</v>
       </c>
       <c r="DI32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="DL32">
         <v>-96784.709319999994</v>
       </c>
       <c r="DM32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DN32">
         <v>0</v>
       </c>
       <c r="DO32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DP32">
         <v>24196.177329999999</v>
       </c>
       <c r="DQ32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="DR32">
         <v>24196.177329999999</v>
       </c>
       <c r="DS32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DT32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
@@ -12962,184 +13068,184 @@
         <v>27</v>
       </c>
       <c r="BP33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BR33" t="s">
         <v>26</v>
       </c>
       <c r="BS33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CK33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CM33" t="s">
         <v>26</v>
       </c>
       <c r="CN33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP33">
         <v>1948.175</v>
       </c>
       <c r="CQ33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR33">
         <v>0</v>
       </c>
       <c r="CS33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT33">
         <v>0</v>
       </c>
       <c r="CU33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV33">
         <v>0</v>
       </c>
       <c r="CW33" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>352</v>
+      </c>
+      <c r="CY33" t="s">
         <v>414</v>
-      </c>
-      <c r="CX33" t="s">
-        <v>353</v>
-      </c>
-      <c r="CY33" t="s">
-        <v>415</v>
       </c>
       <c r="CZ33">
         <v>1948.175</v>
       </c>
       <c r="DA33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB33">
         <v>0</v>
       </c>
       <c r="DC33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD33">
         <v>2886.6128456749998</v>
       </c>
       <c r="DE33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF33">
         <v>0</v>
       </c>
       <c r="DG33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH33">
         <v>0</v>
       </c>
       <c r="DI33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ33" t="s">
         <v>243</v>
       </c>
       <c r="DL33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DN33" t="s">
         <v>26</v>
       </c>
       <c r="DO33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ33">
         <v>0</v>
       </c>
       <c r="DR33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS33">
         <v>0</v>
       </c>
       <c r="DT33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU33">
         <v>0</v>
       </c>
       <c r="DV33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW33">
         <v>0</v>
       </c>
       <c r="DX33" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ33" t="s">
         <v>414</v>
-      </c>
-      <c r="DY33" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ33" t="s">
-        <v>415</v>
       </c>
       <c r="EA33">
         <v>0</v>
       </c>
       <c r="EB33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC33">
         <v>0</v>
       </c>
       <c r="ED33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE33">
         <v>0</v>
       </c>
       <c r="EF33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG33">
         <v>0</v>
       </c>
       <c r="EH33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI33">
         <v>0</v>
       </c>
       <c r="EJ33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK33">
         <v>0</v>
       </c>
       <c r="EL33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:143" x14ac:dyDescent="0.25">
@@ -13147,213 +13253,213 @@
         <v>1</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AE34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="BP34" t="s">
         <v>315</v>
       </c>
-      <c r="BP34" t="s">
-        <v>316</v>
-      </c>
       <c r="BQ34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BR34" t="s">
         <v>26</v>
       </c>
       <c r="BS34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV34" t="s">
         <v>243</v>
       </c>
       <c r="CK34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CM34" t="s">
         <v>26</v>
       </c>
       <c r="CN34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP34">
         <v>0</v>
       </c>
       <c r="CQ34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR34">
         <v>0</v>
       </c>
       <c r="CS34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT34">
         <v>0</v>
       </c>
       <c r="CU34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV34">
         <v>0</v>
       </c>
       <c r="CW34" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>352</v>
+      </c>
+      <c r="CY34" t="s">
         <v>414</v>
-      </c>
-      <c r="CX34" t="s">
-        <v>353</v>
-      </c>
-      <c r="CY34" t="s">
-        <v>415</v>
       </c>
       <c r="CZ34">
         <v>0</v>
       </c>
       <c r="DA34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB34">
         <v>0</v>
       </c>
       <c r="DC34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD34">
         <v>0</v>
       </c>
       <c r="DE34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF34">
         <v>0</v>
       </c>
       <c r="DG34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH34">
         <v>0</v>
       </c>
       <c r="DI34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ34" t="s">
         <v>243</v>
       </c>
       <c r="DL34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DN34" t="s">
         <v>26</v>
       </c>
       <c r="DO34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ34">
         <v>1948.175</v>
       </c>
       <c r="DR34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS34">
         <v>0</v>
       </c>
       <c r="DT34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU34">
         <v>0</v>
       </c>
       <c r="DV34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW34">
         <v>0</v>
       </c>
       <c r="DX34" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ34" t="s">
         <v>414</v>
-      </c>
-      <c r="DY34" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ34" t="s">
-        <v>415</v>
       </c>
       <c r="EA34">
         <v>1948.175</v>
       </c>
       <c r="EB34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC34">
         <v>0</v>
       </c>
       <c r="ED34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE34">
         <v>2886.6128456749998</v>
       </c>
       <c r="EF34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG34">
         <v>0</v>
       </c>
       <c r="EH34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI34">
         <v>0</v>
       </c>
       <c r="EJ34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK34">
         <v>0</v>
       </c>
       <c r="EL34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB35" t="s">
         <v>324</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>325</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>326</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>327</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>328</v>
       </c>
       <c r="AF35" t="s">
         <v>160</v>
@@ -13362,13 +13468,13 @@
         <v>6</v>
       </c>
       <c r="AH35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI35" t="s">
         <v>95</v>
       </c>
       <c r="AJ35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK35" t="s">
         <v>8</v>
@@ -13377,213 +13483,213 @@
         <v>201812</v>
       </c>
       <c r="AM35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN35">
         <v>2850</v>
       </c>
       <c r="AO35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BP35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR35" t="s">
         <v>26</v>
       </c>
       <c r="BS35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BT35" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV35" t="s">
         <v>379</v>
       </c>
-      <c r="BV35" t="s">
-        <v>380</v>
-      </c>
       <c r="CK35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CM35" t="s">
         <v>26</v>
       </c>
       <c r="CN35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CO35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP35">
         <v>0</v>
       </c>
       <c r="CQ35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR35">
         <v>-65320</v>
       </c>
       <c r="CS35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT35">
         <v>16330</v>
       </c>
       <c r="CU35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV35">
         <v>16330</v>
       </c>
       <c r="CW35" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY35" t="s">
         <v>414</v>
-      </c>
-      <c r="CX35" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY35" t="s">
-        <v>415</v>
       </c>
       <c r="CZ35">
         <v>-65320</v>
       </c>
       <c r="DA35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB35">
         <v>0</v>
       </c>
       <c r="DC35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD35">
         <v>-96784.709319999994</v>
       </c>
       <c r="DE35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF35">
         <v>0</v>
       </c>
       <c r="DG35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH35">
         <v>24196.177329999999</v>
       </c>
       <c r="DI35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="DL35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DN35" t="s">
         <v>26</v>
       </c>
       <c r="DO35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ35">
         <v>0</v>
       </c>
       <c r="DR35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS35">
         <v>-1854000</v>
       </c>
       <c r="DT35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU35">
         <v>407597</v>
       </c>
       <c r="DV35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW35">
         <v>407597</v>
       </c>
       <c r="DX35" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ35" t="s">
         <v>414</v>
-      </c>
-      <c r="DY35" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ35" t="s">
-        <v>415</v>
       </c>
       <c r="EA35">
         <v>-1854000</v>
       </c>
       <c r="EB35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC35">
         <v>0</v>
       </c>
       <c r="ED35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE35">
         <v>-1854000</v>
       </c>
       <c r="EF35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG35">
         <v>0</v>
       </c>
       <c r="EH35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI35">
         <v>407597</v>
       </c>
       <c r="EJ35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK35">
         <v>407597</v>
       </c>
       <c r="EL35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB36" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD36" t="s">
         <v>332</v>
       </c>
-      <c r="AC36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>333</v>
-      </c>
       <c r="AE36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s">
         <v>160</v>
@@ -13592,13 +13698,13 @@
         <v>6</v>
       </c>
       <c r="AH36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI36" t="s">
         <v>95</v>
       </c>
       <c r="AJ36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK36" t="s">
         <v>8</v>
@@ -13607,213 +13713,213 @@
         <v>201812</v>
       </c>
       <c r="AM36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN36">
         <v>2950</v>
       </c>
       <c r="AO36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BP36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BQ36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR36" t="s">
         <v>26</v>
       </c>
       <c r="BS36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BV36" t="s">
         <v>243</v>
       </c>
       <c r="CK36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CL36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CM36" t="s">
         <v>26</v>
       </c>
       <c r="CN36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP36">
         <v>0</v>
       </c>
       <c r="CQ36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR36">
         <v>0</v>
       </c>
       <c r="CS36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CT36">
         <v>0</v>
       </c>
       <c r="CU36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CV36">
         <v>0</v>
       </c>
       <c r="CW36" t="s">
+        <v>413</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY36" t="s">
         <v>414</v>
-      </c>
-      <c r="CX36" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY36" t="s">
-        <v>415</v>
       </c>
       <c r="CZ36">
         <v>0</v>
       </c>
       <c r="DA36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DB36">
         <v>0</v>
       </c>
       <c r="DC36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DD36">
         <v>0</v>
       </c>
       <c r="DE36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF36">
         <v>0</v>
       </c>
       <c r="DG36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DH36">
         <v>0</v>
       </c>
       <c r="DI36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DJ36" t="s">
         <v>243</v>
       </c>
       <c r="DL36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DN36" t="s">
         <v>26</v>
       </c>
       <c r="DO36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DP36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ36">
         <v>6705.9059999999999</v>
       </c>
       <c r="DR36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS36">
         <v>0</v>
       </c>
       <c r="DT36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU36">
         <v>2662.5</v>
       </c>
       <c r="DV36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW36">
         <v>2662.5</v>
       </c>
       <c r="DX36" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ36" t="s">
         <v>414</v>
-      </c>
-      <c r="DY36" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ36" t="s">
-        <v>415</v>
       </c>
       <c r="EA36">
         <v>6705.9059999999999</v>
       </c>
       <c r="EB36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC36">
         <v>0</v>
       </c>
       <c r="ED36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE36">
         <v>9936.1476261059997</v>
       </c>
       <c r="EF36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG36">
         <v>0</v>
       </c>
       <c r="EH36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI36">
         <v>3945.0289124999999</v>
       </c>
       <c r="EJ36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK36">
         <v>3945.0289124999999</v>
       </c>
       <c r="EL36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB37" t="s">
         <v>324</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>325</v>
       </c>
-      <c r="AC37" t="s">
-        <v>326</v>
-      </c>
       <c r="AD37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s">
         <v>160</v>
@@ -13822,13 +13928,13 @@
         <v>6</v>
       </c>
       <c r="AH37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI37" t="s">
         <v>95</v>
       </c>
       <c r="AJ37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK37" t="s">
         <v>8</v>
@@ -13837,100 +13943,100 @@
         <v>201812</v>
       </c>
       <c r="AM37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN37">
         <v>2850</v>
       </c>
       <c r="AO37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="DL37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DN37" t="s">
         <v>26</v>
       </c>
       <c r="DO37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DQ37">
         <v>0</v>
       </c>
       <c r="DR37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DS37">
         <v>0</v>
       </c>
       <c r="DT37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DU37">
         <v>0</v>
       </c>
       <c r="DV37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DW37">
         <v>0</v>
       </c>
       <c r="DX37" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ37" t="s">
         <v>414</v>
-      </c>
-      <c r="DY37" t="s">
-        <v>421</v>
-      </c>
-      <c r="DZ37" t="s">
-        <v>415</v>
       </c>
       <c r="EA37">
         <v>0</v>
       </c>
       <c r="EB37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EC37">
         <v>0</v>
       </c>
       <c r="ED37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="EE37">
         <v>0</v>
       </c>
       <c r="EF37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="EG37">
         <v>0</v>
       </c>
       <c r="EH37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EI37">
         <v>0</v>
       </c>
       <c r="EJ37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EK37">
         <v>0</v>
       </c>
       <c r="EL37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EM37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:143" x14ac:dyDescent="0.25">
@@ -13938,25 +14044,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AC38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AD38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF38" t="s">
         <v>160</v>
@@ -13965,13 +14071,13 @@
         <v>6</v>
       </c>
       <c r="AH38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI38" t="s">
         <v>95</v>
       </c>
       <c r="AJ38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK38" t="s">
         <v>8</v>
@@ -13980,63 +14086,63 @@
         <v>201812</v>
       </c>
       <c r="AM38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN38">
         <v>2950</v>
       </c>
       <c r="AO38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="DL38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DN38" t="s">
         <v>26</v>
       </c>
       <c r="DO38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DQ38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DR38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DS38">
         <v>0</v>
       </c>
       <c r="DT38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DU38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s">
         <v>324</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>325</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>326</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>327</v>
-      </c>
-      <c r="E39" t="s">
-        <v>328</v>
       </c>
       <c r="F39" t="s">
         <v>160</v>
@@ -14045,13 +14151,13 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I39" t="s">
         <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K39" t="s">
         <v>8</v>
@@ -14060,16 +14166,16 @@
         <v>201812</v>
       </c>
       <c r="M39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N39">
         <v>2850</v>
       </c>
       <c r="O39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BX39" s="3" t="str">
         <f>pbreq!L18</f>
@@ -14080,51 +14186,51 @@
         <v>list</v>
       </c>
       <c r="DL39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="DN39" t="s">
         <v>26</v>
       </c>
       <c r="DO39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DQ39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="DR39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DS39">
         <v>0</v>
       </c>
       <c r="DT39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DU39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
         <v>332</v>
       </c>
-      <c r="C40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D40" t="s">
-        <v>333</v>
-      </c>
       <c r="E40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
         <v>160</v>
@@ -14133,13 +14239,13 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I40" t="s">
         <v>95</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s">
         <v>8</v>
@@ -14148,16 +14254,16 @@
         <v>201812</v>
       </c>
       <c r="M40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N40">
         <v>2950</v>
       </c>
       <c r="O40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BX40" s="5" t="str">
         <f>pbreq!L19</f>
@@ -14208,34 +14314,34 @@
         <v>-65320.0}</v>
       </c>
       <c r="DL40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="DN40" t="s">
         <v>26</v>
       </c>
       <c r="DO40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DQ40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DR40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DS40">
         <v>0</v>
       </c>
       <c r="DT40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DU40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14288,34 +14394,34 @@
         <v>0.0}</v>
       </c>
       <c r="DL41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DM41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="DN41" t="s">
         <v>26</v>
       </c>
       <c r="DO41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DQ41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="DR41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DS41">
         <v>0</v>
       </c>
       <c r="DT41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DU41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14323,22 +14429,22 @@
         <v>1</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU42" s="3" t="s">
         <v>91</v>
       </c>
       <c r="AV42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW42" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AW42" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="AX42" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BX42" s="5" t="str">
         <f>pbreq!L21</f>
@@ -14391,19 +14497,19 @@
     </row>
     <row r="43" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR43" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS43" t="s">
         <v>324</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AT43" t="s">
         <v>325</v>
       </c>
-      <c r="AT43" t="s">
+      <c r="AU43" t="s">
         <v>326</v>
       </c>
-      <c r="AU43" t="s">
+      <c r="AV43" t="s">
         <v>327</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>328</v>
       </c>
       <c r="AW43" t="s">
         <v>160</v>
@@ -14412,13 +14518,13 @@
         <v>6</v>
       </c>
       <c r="AY43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AZ43" t="s">
         <v>95</v>
       </c>
       <c r="BA43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BB43" t="s">
         <v>8</v>
@@ -14427,13 +14533,13 @@
         <v>201812</v>
       </c>
       <c r="BD43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BE43">
         <v>2850</v>
       </c>
       <c r="BF43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BG43">
         <v>-3</v>
@@ -14445,13 +14551,13 @@
         <v>-0.8548</v>
       </c>
       <c r="BJ43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BK43">
         <v>2615</v>
       </c>
       <c r="BL43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BM43">
         <v>6705.9059999999999</v>
@@ -14593,19 +14699,19 @@
         <v>converted</v>
       </c>
       <c r="AR44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AS44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU44" t="s">
         <v>332</v>
       </c>
-      <c r="AT44" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>333</v>
-      </c>
       <c r="AV44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AW44" t="s">
         <v>160</v>
@@ -14614,13 +14720,13 @@
         <v>6</v>
       </c>
       <c r="AY44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AZ44" t="s">
         <v>95</v>
       </c>
       <c r="BA44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BB44" t="s">
         <v>8</v>
@@ -14629,13 +14735,13 @@
         <v>201812</v>
       </c>
       <c r="BD44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BE44">
         <v>2950</v>
       </c>
       <c r="BF44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BG44">
         <v>10</v>
@@ -14647,13 +14753,13 @@
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="BJ44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BK44">
         <v>2615</v>
       </c>
       <c r="BL44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BM44">
         <v>1948.175</v>
@@ -14827,19 +14933,19 @@
         <v>2615.0}</v>
       </c>
       <c r="AR45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AS45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AT45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AW45" t="s">
         <v>160</v>
@@ -14848,13 +14954,13 @@
         <v>6</v>
       </c>
       <c r="AY45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AZ45" t="s">
         <v>95</v>
       </c>
       <c r="BA45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BB45" t="s">
         <v>8</v>
@@ -14863,13 +14969,13 @@
         <v>201812</v>
       </c>
       <c r="BD45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BE45">
         <v>2950</v>
       </c>
       <c r="BF45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BG45">
         <v>10</v>
@@ -14881,13 +14987,13 @@
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="BJ45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BK45">
         <v>2615</v>
       </c>
       <c r="BL45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BM45">
         <v>1948.175</v>
@@ -15061,19 +15167,19 @@
         <v>2615.0}</v>
       </c>
       <c r="AR46" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS46" t="s">
         <v>324</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AT46" t="s">
         <v>325</v>
       </c>
-      <c r="AT46" t="s">
-        <v>326</v>
-      </c>
       <c r="AU46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AW46" t="s">
         <v>160</v>
@@ -15082,13 +15188,13 @@
         <v>6</v>
       </c>
       <c r="AY46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AZ46" t="s">
         <v>95</v>
       </c>
       <c r="BA46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BB46" t="s">
         <v>8</v>
@@ -15097,13 +15203,13 @@
         <v>201812</v>
       </c>
       <c r="BD46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BE46">
         <v>2850</v>
       </c>
       <c r="BF46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BG46">
         <v>-3</v>
@@ -15115,13 +15221,13 @@
         <v>-0.8548</v>
       </c>
       <c r="BJ46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BK46">
         <v>2615</v>
       </c>
       <c r="BL46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BM46">
         <v>6705.9059999999999</v>
@@ -15666,8 +15772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:W30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15677,167 +15783,167 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
         <v>385</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>386</v>
       </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
       <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
         <v>325</v>
       </c>
-      <c r="E2" t="s">
-        <v>326</v>
-      </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" t="s">
         <v>388</v>
-      </c>
-      <c r="J2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>386</v>
       </c>
-      <c r="C3" t="s">
-        <v>387</v>
-      </c>
       <c r="D3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" t="s">
         <v>325</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>326</v>
-      </c>
-      <c r="F3" t="s">
-        <v>327</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
         <v>385</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>386</v>
       </c>
-      <c r="C4" t="s">
-        <v>387</v>
-      </c>
       <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" t="s">
         <v>325</v>
       </c>
-      <c r="E4" t="s">
-        <v>326</v>
-      </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
         <v>385</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>386</v>
       </c>
-      <c r="C5" t="s">
-        <v>387</v>
-      </c>
       <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" t="s">
         <v>332</v>
-      </c>
-      <c r="E5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" t="s">
-        <v>333</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
         <v>385</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>386</v>
       </c>
-      <c r="C6" t="s">
-        <v>387</v>
-      </c>
       <c r="D6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" t="s">
         <v>332</v>
-      </c>
-      <c r="E6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" t="s">
-        <v>333</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -15845,103 +15951,103 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
         <v>385</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>386</v>
       </c>
-      <c r="C7" t="s">
-        <v>387</v>
-      </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>386</v>
       </c>
-      <c r="C9" t="s">
-        <v>387</v>
-      </c>
       <c r="D9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" t="s">
         <v>325</v>
       </c>
-      <c r="E9" t="s">
-        <v>326</v>
-      </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" t="s">
         <v>395</v>
-      </c>
-      <c r="J9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
         <v>385</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>386</v>
       </c>
-      <c r="C10" t="s">
-        <v>387</v>
-      </c>
       <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="s">
         <v>325</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>326</v>
-      </c>
-      <c r="F10" t="s">
-        <v>327</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J10" t="s">
         <v>243</v>
@@ -15949,31 +16055,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
         <v>385</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>386</v>
       </c>
-      <c r="C11" t="s">
-        <v>387</v>
-      </c>
       <c r="D11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" t="s">
         <v>325</v>
       </c>
-      <c r="E11" t="s">
-        <v>326</v>
-      </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J11" t="s">
         <v>243</v>
@@ -15981,63 +16087,63 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
         <v>385</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>386</v>
       </c>
-      <c r="C12" t="s">
-        <v>387</v>
-      </c>
       <c r="D12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" t="s">
         <v>332</v>
-      </c>
-      <c r="E12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" t="s">
-        <v>333</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
         <v>385</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>386</v>
       </c>
-      <c r="C13" t="s">
-        <v>387</v>
-      </c>
       <c r="D13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" t="s">
         <v>332</v>
-      </c>
-      <c r="E13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" t="s">
-        <v>333</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
         <v>243</v>
@@ -16045,63 +16151,63 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" t="s">
         <v>385</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>386</v>
       </c>
-      <c r="C14" t="s">
-        <v>387</v>
-      </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
         <v>385</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>386</v>
       </c>
-      <c r="C15" t="s">
-        <v>387</v>
-      </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J15" t="s">
         <v>243</v>
@@ -16109,31 +16215,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
         <v>385</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>386</v>
       </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J16" t="s">
         <v>243</v>
@@ -16141,13 +16247,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -16155,135 +16261,135 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" t="s">
         <v>385</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>386</v>
       </c>
-      <c r="C19" t="s">
-        <v>387</v>
-      </c>
       <c r="D19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" t="s">
         <v>325</v>
       </c>
-      <c r="E19" t="s">
-        <v>326</v>
-      </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" t="s">
         <v>388</v>
       </c>
-      <c r="J19" t="s">
-        <v>389</v>
-      </c>
       <c r="L19" t="s">
+        <v>384</v>
+      </c>
+      <c r="M19" t="s">
         <v>385</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>386</v>
       </c>
-      <c r="N19" t="s">
-        <v>387</v>
-      </c>
       <c r="O19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" t="s">
         <v>325</v>
       </c>
-      <c r="P19" t="s">
-        <v>326</v>
-      </c>
       <c r="Q19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U19">
         <v>16330</v>
       </c>
       <c r="V19" t="s">
+        <v>394</v>
+      </c>
+      <c r="W19" t="s">
         <v>395</v>
-      </c>
-      <c r="W19" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
         <v>385</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>386</v>
       </c>
-      <c r="C20" t="s">
-        <v>387</v>
-      </c>
       <c r="D20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" t="s">
         <v>325</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>327</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L20" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" t="s">
         <v>385</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>386</v>
       </c>
-      <c r="N20" t="s">
-        <v>387</v>
-      </c>
       <c r="O20" t="s">
+        <v>324</v>
+      </c>
+      <c r="P20" t="s">
         <v>325</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>326</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>327</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U20">
         <v>2662.5</v>
       </c>
       <c r="V20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W20" t="s">
         <v>243</v>
@@ -16291,67 +16397,67 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" t="s">
         <v>385</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>386</v>
       </c>
-      <c r="C21" t="s">
-        <v>387</v>
-      </c>
       <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" t="s">
         <v>325</v>
       </c>
-      <c r="E21" t="s">
-        <v>326</v>
-      </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L21" t="s">
+        <v>384</v>
+      </c>
+      <c r="M21" t="s">
         <v>385</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>386</v>
       </c>
-      <c r="N21" t="s">
-        <v>387</v>
-      </c>
       <c r="O21" t="s">
+        <v>324</v>
+      </c>
+      <c r="P21" t="s">
         <v>325</v>
       </c>
-      <c r="P21" t="s">
-        <v>326</v>
-      </c>
       <c r="Q21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R21" t="s">
         <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U21">
         <v>2662.5</v>
       </c>
       <c r="V21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W21" t="s">
         <v>243</v>
@@ -16359,135 +16465,135 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" t="s">
         <v>385</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>386</v>
       </c>
-      <c r="C22" t="s">
-        <v>387</v>
-      </c>
       <c r="D22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" t="s">
         <v>332</v>
-      </c>
-      <c r="E22" t="s">
-        <v>326</v>
-      </c>
-      <c r="F22" t="s">
-        <v>333</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M22" t="s">
         <v>385</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>386</v>
       </c>
-      <c r="N22" t="s">
-        <v>387</v>
-      </c>
       <c r="O22" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" t="s">
         <v>332</v>
-      </c>
-      <c r="P22" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>333</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U22">
         <v>407597</v>
       </c>
       <c r="V22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" t="s">
         <v>385</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>386</v>
       </c>
-      <c r="C23" t="s">
-        <v>387</v>
-      </c>
       <c r="D23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" t="s">
         <v>332</v>
-      </c>
-      <c r="E23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" t="s">
-        <v>333</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J23" t="s">
         <v>36</v>
       </c>
       <c r="L23" t="s">
+        <v>384</v>
+      </c>
+      <c r="M23" t="s">
         <v>385</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>386</v>
       </c>
-      <c r="N23" t="s">
-        <v>387</v>
-      </c>
       <c r="O23" t="s">
+        <v>331</v>
+      </c>
+      <c r="P23" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q23" t="s">
         <v>332</v>
-      </c>
-      <c r="P23" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>333</v>
       </c>
       <c r="R23" t="s">
         <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W23" t="s">
         <v>243</v>
@@ -16495,203 +16601,203 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" t="s">
         <v>385</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>386</v>
       </c>
-      <c r="C24" t="s">
-        <v>387</v>
-      </c>
       <c r="D24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M24" t="s">
         <v>385</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>386</v>
       </c>
-      <c r="N24" t="s">
-        <v>387</v>
-      </c>
       <c r="O24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U24">
         <v>1305280</v>
       </c>
       <c r="V24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" t="s">
         <v>325</v>
       </c>
-      <c r="E25" t="s">
-        <v>326</v>
-      </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I25" t="s">
+        <v>387</v>
+      </c>
+      <c r="J25" t="s">
         <v>388</v>
       </c>
-      <c r="J25" t="s">
-        <v>389</v>
-      </c>
       <c r="L25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O25" t="s">
+        <v>324</v>
+      </c>
+      <c r="P25" t="s">
         <v>325</v>
       </c>
-      <c r="P25" t="s">
-        <v>326</v>
-      </c>
       <c r="Q25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R25" t="s">
         <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U25">
         <v>16330</v>
       </c>
       <c r="V25" t="s">
+        <v>394</v>
+      </c>
+      <c r="W25" t="s">
         <v>395</v>
-      </c>
-      <c r="W25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D26" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" t="s">
         <v>325</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>326</v>
-      </c>
-      <c r="F26" t="s">
-        <v>327</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O26" t="s">
+        <v>324</v>
+      </c>
+      <c r="P26" t="s">
         <v>325</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>326</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>327</v>
       </c>
       <c r="R26" t="s">
         <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U26">
         <v>2662.5</v>
       </c>
       <c r="V26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W26" t="s">
         <v>243</v>
@@ -16699,203 +16805,203 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D27" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" t="s">
         <v>325</v>
       </c>
-      <c r="E27" t="s">
-        <v>326</v>
-      </c>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J27" t="s">
         <v>388</v>
       </c>
-      <c r="J27" t="s">
-        <v>389</v>
-      </c>
       <c r="L27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O27" t="s">
+        <v>324</v>
+      </c>
+      <c r="P27" t="s">
         <v>325</v>
       </c>
-      <c r="P27" t="s">
-        <v>326</v>
-      </c>
       <c r="Q27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U27">
         <v>17077.5</v>
       </c>
       <c r="V27" t="s">
+        <v>394</v>
+      </c>
+      <c r="W27" t="s">
         <v>395</v>
-      </c>
-      <c r="W27" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" t="s">
         <v>332</v>
-      </c>
-      <c r="E28" t="s">
-        <v>326</v>
-      </c>
-      <c r="F28" t="s">
-        <v>333</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O28" t="s">
+        <v>331</v>
+      </c>
+      <c r="P28" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q28" t="s">
         <v>332</v>
-      </c>
-      <c r="P28" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>333</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U28">
         <v>407597</v>
       </c>
       <c r="V28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" t="s">
         <v>332</v>
-      </c>
-      <c r="E29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F29" t="s">
-        <v>333</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J29" t="s">
         <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q29" t="s">
         <v>332</v>
-      </c>
-      <c r="P29" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>333</v>
       </c>
       <c r="R29" t="s">
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W29" t="s">
         <v>243</v>
@@ -16903,139 +17009,139 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U30">
         <v>1305280</v>
       </c>
       <c r="V30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" t="s">
         <v>385</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>386</v>
       </c>
-      <c r="C32" t="s">
-        <v>387</v>
-      </c>
       <c r="D32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" t="s">
         <v>325</v>
       </c>
-      <c r="E32" t="s">
-        <v>326</v>
-      </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I32" t="s">
+        <v>394</v>
+      </c>
+      <c r="J32" t="s">
         <v>395</v>
-      </c>
-      <c r="J32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B33" t="s">
         <v>385</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>386</v>
       </c>
-      <c r="C33" t="s">
-        <v>387</v>
-      </c>
       <c r="D33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E33" t="s">
         <v>325</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>326</v>
-      </c>
-      <c r="F33" t="s">
-        <v>327</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J33" t="s">
         <v>243</v>
@@ -17043,95 +17149,95 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" t="s">
         <v>385</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>386</v>
       </c>
-      <c r="C34" t="s">
-        <v>387</v>
-      </c>
       <c r="D34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" t="s">
         <v>325</v>
       </c>
-      <c r="E34" t="s">
-        <v>326</v>
-      </c>
       <c r="F34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I34" t="s">
+        <v>394</v>
+      </c>
+      <c r="J34" t="s">
         <v>395</v>
-      </c>
-      <c r="J34" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" t="s">
         <v>385</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>386</v>
       </c>
-      <c r="C35" t="s">
-        <v>387</v>
-      </c>
       <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" t="s">
         <v>332</v>
-      </c>
-      <c r="E35" t="s">
-        <v>326</v>
-      </c>
-      <c r="F35" t="s">
-        <v>333</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36" t="s">
         <v>385</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>386</v>
       </c>
-      <c r="C36" t="s">
-        <v>387</v>
-      </c>
       <c r="D36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" t="s">
         <v>332</v>
-      </c>
-      <c r="E36" t="s">
-        <v>326</v>
-      </c>
-      <c r="F36" t="s">
-        <v>333</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J36" t="s">
         <v>243</v>
@@ -17139,63 +17245,63 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" t="s">
         <v>385</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>386</v>
       </c>
-      <c r="C37" t="s">
-        <v>387</v>
-      </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" t="s">
         <v>385</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>386</v>
       </c>
-      <c r="C38" t="s">
-        <v>387</v>
-      </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
         <v>243</v>
@@ -17203,63 +17309,63 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" t="s">
         <v>325</v>
       </c>
-      <c r="E39" t="s">
-        <v>326</v>
-      </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I39" t="s">
+        <v>394</v>
+      </c>
+      <c r="J39" t="s">
         <v>395</v>
-      </c>
-      <c r="J39" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D40" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" t="s">
         <v>325</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>326</v>
-      </c>
-      <c r="F40" t="s">
-        <v>327</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
         <v>243</v>
@@ -17267,95 +17373,95 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
         <v>325</v>
       </c>
-      <c r="E41" t="s">
-        <v>326</v>
-      </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I41" t="s">
+        <v>394</v>
+      </c>
+      <c r="J41" t="s">
         <v>395</v>
-      </c>
-      <c r="J41" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" t="s">
         <v>332</v>
-      </c>
-      <c r="E42" t="s">
-        <v>326</v>
-      </c>
-      <c r="F42" t="s">
-        <v>333</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D43" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F43" t="s">
         <v>332</v>
-      </c>
-      <c r="E43" t="s">
-        <v>326</v>
-      </c>
-      <c r="F43" t="s">
-        <v>333</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J43" t="s">
         <v>243</v>
@@ -17363,63 +17469,63 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
         <v>243</v>
@@ -17427,31 +17533,31 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
         <v>243</v>

--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="461">
   <si>
     <t>instrument</t>
   </si>
@@ -1314,37 +1314,103 @@
     <t>final</t>
   </si>
   <si>
-    <t>'OMFRule'</t>
-  </si>
-  <si>
-    <t>'Rule'</t>
-  </si>
-  <si>
-    <t>'OMFFinal'</t>
-  </si>
-  <si>
-    <t>'Final'</t>
-  </si>
-  <si>
-    <t>'FCSRule'</t>
-  </si>
-  <si>
-    <t>'FCSFinal'</t>
-  </si>
-  <si>
     <t>'stresslconv'</t>
   </si>
   <si>
-    <t>'OMFA00000'}</t>
-  </si>
-  <si>
-    <t>'FCSU00000'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">WMP   WMP       OOFC201812              201812  </t>
   </si>
   <si>
     <t>4.1.2 new price scan range rate $ = revised instrument list + price list + rc scan range csv</t>
+  </si>
+  <si>
+    <t>'BPSMargin2'</t>
+  </si>
+  <si>
+    <t>'ADMMargin1'</t>
+  </si>
+  <si>
+    <t>'BPSSum'</t>
+  </si>
+  <si>
+    <t>'ADMSum'</t>
+  </si>
+  <si>
+    <t>'FCSMargin3'</t>
+  </si>
+  <si>
+    <t>'BPSMargin4'</t>
+  </si>
+  <si>
+    <t>'FCSMargin1'</t>
+  </si>
+  <si>
+    <t>'BPSMargin3'</t>
+  </si>
+  <si>
+    <t>'ADMMargin2'</t>
+  </si>
+  <si>
+    <t>'BPSMargin6'</t>
+  </si>
+  <si>
+    <t>163635.0}</t>
+  </si>
+  <si>
+    <t>9664560.241279999}</t>
+  </si>
+  <si>
+    <t>44405.88288}</t>
+  </si>
+  <si>
+    <t>1391225.0}</t>
+  </si>
+  <si>
+    <t>3318074.92928}</t>
+  </si>
+  <si>
+    <t>81682.0}</t>
+  </si>
+  <si>
+    <t>895707.9991039999}</t>
+  </si>
+  <si>
+    <t>1746885.0}</t>
+  </si>
+  <si>
+    <t>10513905.145087998}</t>
+  </si>
+  <si>
+    <t>350640.0}</t>
+  </si>
+  <si>
+    <t>118886.92198399999}</t>
+  </si>
+  <si>
+    <t>6283.0}</t>
+  </si>
+  <si>
+    <t>447614.76863999997}</t>
+  </si>
+  <si>
+    <t>4784706.415744}</t>
+  </si>
+  <si>
+    <t>'House'</t>
+  </si>
+  <si>
+    <t>3221077.2743679998}</t>
+  </si>
+  <si>
+    <t>25513.1456}</t>
+  </si>
+  <si>
+    <t>2567939.0}</t>
+  </si>
+  <si>
+    <t>10578965.834624}</t>
+  </si>
+  <si>
+    <t>2793820.9840639997}</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1414,12 +1480,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1427,6 +1502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -3511,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
@@ -4981,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AQ35" s="3" t="s">
         <v>116</v>
@@ -8009,7 +8085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
@@ -10790,10 +10866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EM52"/>
+  <dimension ref="A1:EK57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO47" sqref="AO47"/>
+    <sheetView tabSelected="1" topLeftCell="DL23" workbookViewId="0">
+      <selection activeCell="DX41" sqref="DX41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10809,9 +10885,34 @@
     <col min="27" max="27" width="7.140625" customWidth="1"/>
     <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="8" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="12" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>292</v>
       </c>
@@ -10819,7 +10920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -10848,7 +10949,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -10882,7 +10983,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -10917,7 +11018,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -10952,7 +11053,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -10987,7 +11088,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>310</v>
       </c>
@@ -11015,16 +11116,16 @@
       <c r="AI7" t="s">
         <v>351</v>
       </c>
-      <c r="BX7" s="3" t="str">
+      <c r="BU7" s="3" t="str">
         <f>cons!A56</f>
         <v>house</v>
       </c>
-      <c r="BY7" s="3" t="str">
+      <c r="BV7" s="3" t="str">
         <f>cons!B56</f>
         <v>list</v>
       </c>
     </row>
-    <row r="8" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -11049,32 +11150,32 @@
       <c r="R8" t="s">
         <v>344</v>
       </c>
-      <c r="BX8" s="5" t="str">
+      <c r="BU8" s="5" t="str">
         <f>cons!A57</f>
         <v>{'bp'</v>
       </c>
-      <c r="BY8" s="5" t="str">
+      <c r="BV8" s="5" t="str">
         <f>cons!B57</f>
         <v>'ADM'</v>
       </c>
-      <c r="BZ8" s="5" t="str">
+      <c r="BW8" s="5" t="str">
         <f>cons!C57</f>
         <v>'bpid'</v>
       </c>
-      <c r="CA8" s="5" t="str">
+      <c r="BX8" s="5" t="str">
         <f>cons!D57</f>
         <v>'ADMU00000'</v>
       </c>
-      <c r="CB8" s="5" t="str">
+      <c r="BY8" s="5" t="str">
         <f>cons!E57</f>
         <v>'acc'</v>
       </c>
-      <c r="CC8" s="5" t="str">
+      <c r="BZ8" s="5" t="str">
         <f>cons!F57</f>
         <v>'Margin1'}</v>
       </c>
     </row>
-    <row r="9" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -11099,32 +11200,32 @@
       <c r="R9" t="s">
         <v>346</v>
       </c>
-      <c r="BX9" s="5" t="str">
+      <c r="BU9" s="5" t="str">
         <f>cons!A58</f>
         <v>{'bp'</v>
       </c>
-      <c r="BY9" s="5" t="str">
+      <c r="BV9" s="5" t="str">
         <f>cons!B58</f>
         <v>'BPS'</v>
       </c>
-      <c r="BZ9" s="5" t="str">
+      <c r="BW9" s="5" t="str">
         <f>cons!C58</f>
         <v>'bpid'</v>
       </c>
-      <c r="CA9" s="5" t="str">
+      <c r="BX9" s="5" t="str">
         <f>cons!D58</f>
         <v>'BPSS00000'</v>
       </c>
-      <c r="CB9" s="5" t="str">
+      <c r="BY9" s="5" t="str">
         <f>cons!E58</f>
         <v>'acc'</v>
       </c>
-      <c r="CC9" s="5" t="str">
+      <c r="BZ9" s="5" t="str">
         <f>cons!F58</f>
         <v>'Margin1'}</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -11149,32 +11250,32 @@
       <c r="R10" t="s">
         <v>348</v>
       </c>
-      <c r="BX10" s="5" t="str">
+      <c r="BU10" s="5" t="str">
         <f>cons!A59</f>
         <v>{'bp'</v>
       </c>
-      <c r="BY10" s="5" t="str">
+      <c r="BV10" s="5" t="str">
         <f>cons!B59</f>
         <v>'FCS'</v>
       </c>
-      <c r="BZ10" s="5" t="str">
+      <c r="BW10" s="5" t="str">
         <f>cons!C59</f>
         <v>'bpid'</v>
       </c>
-      <c r="CA10" s="5" t="str">
+      <c r="BX10" s="5" t="str">
         <f>cons!D59</f>
         <v>'FCSU00000'</v>
       </c>
-      <c r="CB10" s="5" t="str">
+      <c r="BY10" s="5" t="str">
         <f>cons!E59</f>
         <v>'acc'</v>
       </c>
-      <c r="CC10" s="5" t="str">
+      <c r="BZ10" s="5" t="str">
         <f>cons!F59</f>
         <v>'Margin1'}</v>
       </c>
     </row>
-    <row r="11" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -11199,32 +11300,32 @@
       <c r="R11" t="s">
         <v>350</v>
       </c>
-      <c r="BX11" s="5" t="str">
+      <c r="BU11" s="5" t="str">
         <f>cons!A60</f>
         <v>{'bp'</v>
       </c>
-      <c r="BY11" s="5" t="str">
+      <c r="BV11" s="5" t="str">
         <f>cons!B60</f>
         <v>'OMF'</v>
       </c>
-      <c r="BZ11" s="5" t="str">
+      <c r="BW11" s="5" t="str">
         <f>cons!C60</f>
         <v>'bpid'</v>
       </c>
-      <c r="CA11" s="5" t="str">
+      <c r="BX11" s="5" t="str">
         <f>cons!D60</f>
         <v>'OMFA00000'</v>
       </c>
-      <c r="CB11" s="5" t="str">
+      <c r="BY11" s="5" t="str">
         <f>cons!E60</f>
         <v>'acc'</v>
       </c>
-      <c r="CC11" s="5" t="str">
+      <c r="BZ11" s="5" t="str">
         <f>cons!F60</f>
         <v>'Margin1'}</v>
       </c>
     </row>
-    <row r="12" spans="1:81" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -11246,32 +11347,32 @@
       <c r="G12" t="s">
         <v>311</v>
       </c>
-      <c r="BX12" s="5" t="str">
+      <c r="BU12" s="5" t="str">
         <f>cons!A61</f>
         <v>{'bp'</v>
       </c>
-      <c r="BY12" s="5" t="str">
+      <c r="BV12" s="5" t="str">
         <f>cons!B61</f>
         <v>'SFL'</v>
       </c>
-      <c r="BZ12" s="5" t="str">
+      <c r="BW12" s="5" t="str">
         <f>cons!C61</f>
         <v>'bpid'</v>
       </c>
-      <c r="CA12" s="5" t="str">
+      <c r="BX12" s="5" t="str">
         <f>cons!D61</f>
         <v>'SFLU00000'</v>
       </c>
-      <c r="CB12" s="5" t="str">
+      <c r="BY12" s="5" t="str">
         <f>cons!E61</f>
         <v>'acc'</v>
       </c>
-      <c r="CC12" s="5" t="str">
+      <c r="BZ12" s="5" t="str">
         <f>cons!F61</f>
         <v>'Margin1'}</v>
       </c>
     </row>
-    <row r="13" spans="1:81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>310</v>
       </c>
@@ -11300,7 +11401,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -11314,7 +11415,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -11328,7 +11429,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -11342,7 +11443,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -11360,7 +11461,7 @@
         <v>currency</v>
       </c>
     </row>
-    <row r="18" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:141" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -11398,7 +11499,7 @@
         <v>1.481701}</v>
       </c>
     </row>
-    <row r="19" spans="1:143" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:141" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>315</v>
       </c>
@@ -11412,7 +11513,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>315</v>
       </c>
@@ -11420,7 +11521,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -11443,7 +11544,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>315</v>
       </c>
@@ -11469,7 +11570,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -11495,7 +11596,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
         <v>315</v>
       </c>
@@ -11579,7 +11680,7 @@
       </c>
       <c r="DS24" s="3"/>
     </row>
-    <row r="25" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
         <v>315</v>
       </c>
@@ -11688,92 +11789,47 @@
       <c r="DJ25" t="s">
         <v>419</v>
       </c>
-      <c r="DL25" t="s">
+      <c r="DM25" t="s">
         <v>315</v>
       </c>
-      <c r="DM25" t="s">
-        <v>340</v>
-      </c>
-      <c r="DN25" t="s">
+      <c r="DO25" t="s">
         <v>26</v>
       </c>
-      <c r="DO25" t="s">
-        <v>367</v>
-      </c>
-      <c r="DP25" t="s">
+      <c r="DQ25" t="s">
         <v>378</v>
       </c>
-      <c r="DQ25">
-        <v>0</v>
-      </c>
-      <c r="DR25" t="s">
+      <c r="DS25" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU25" t="s">
+        <v>412</v>
+      </c>
+      <c r="DW25" t="s">
         <v>394</v>
       </c>
-      <c r="DS25">
-        <v>0</v>
-      </c>
-      <c r="DT25" t="s">
-        <v>412</v>
-      </c>
-      <c r="DU25">
-        <v>0</v>
-      </c>
-      <c r="DV25" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW25">
-        <v>0</v>
-      </c>
-      <c r="DX25" t="s">
+      <c r="DY25" t="s">
         <v>413</v>
       </c>
-      <c r="DY25" t="s">
-        <v>420</v>
-      </c>
-      <c r="DZ25" t="s">
+      <c r="EA25" t="s">
         <v>414</v>
       </c>
-      <c r="EA25">
-        <v>0</v>
-      </c>
-      <c r="EB25" t="s">
+      <c r="EC25" t="s">
         <v>399</v>
       </c>
-      <c r="EC25">
-        <v>0</v>
-      </c>
-      <c r="ED25" t="s">
+      <c r="EE25" t="s">
         <v>415</v>
       </c>
-      <c r="EE25">
-        <v>0</v>
-      </c>
-      <c r="EF25" t="s">
+      <c r="EG25" t="s">
         <v>416</v>
       </c>
-      <c r="EG25">
-        <v>0</v>
-      </c>
-      <c r="EH25" t="s">
+      <c r="EI25" t="s">
         <v>417</v>
       </c>
-      <c r="EI25">
-        <v>0</v>
-      </c>
-      <c r="EJ25" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK25">
-        <v>0</v>
-      </c>
-      <c r="EL25" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="EK25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U26" t="s">
         <v>315</v>
       </c>
@@ -11886,7 +11942,7 @@
         <v>315</v>
       </c>
       <c r="DM26" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="DN26" t="s">
         <v>26</v>
@@ -11901,34 +11957,34 @@
         <v>0</v>
       </c>
       <c r="DR26" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS26">
-        <v>-741600</v>
+        <v>0</v>
       </c>
       <c r="DT26" t="s">
         <v>412</v>
       </c>
       <c r="DU26">
-        <v>1305280</v>
+        <v>0</v>
       </c>
       <c r="DV26" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW26">
-        <v>1305280</v>
+        <v>0</v>
       </c>
       <c r="DX26" t="s">
         <v>413</v>
       </c>
       <c r="DY26" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="DZ26" t="s">
         <v>414</v>
       </c>
       <c r="EA26">
-        <v>-741600</v>
+        <v>0</v>
       </c>
       <c r="EB26" t="s">
         <v>399</v>
@@ -11940,7 +11996,7 @@
         <v>415</v>
       </c>
       <c r="EE26">
-        <v>-741600</v>
+        <v>0</v>
       </c>
       <c r="EF26" t="s">
         <v>416</v>
@@ -11952,24 +12008,18 @@
         <v>417</v>
       </c>
       <c r="EI26">
-        <v>1305280</v>
+        <v>0</v>
       </c>
       <c r="EJ26" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK26">
-        <v>1305280</v>
-      </c>
-      <c r="EL26" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="U27" t="s">
         <v>315</v>
@@ -12083,7 +12133,7 @@
         <v>315</v>
       </c>
       <c r="DM27" t="s">
-        <v>337</v>
+        <v>432</v>
       </c>
       <c r="DN27" t="s">
         <v>26</v>
@@ -12095,10 +12145,10 @@
         <v>378</v>
       </c>
       <c r="DQ27">
-        <v>6705.9059999999999</v>
+        <v>0</v>
       </c>
       <c r="DR27" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS27">
         <v>0</v>
@@ -12107,25 +12157,25 @@
         <v>412</v>
       </c>
       <c r="DU27">
-        <v>2662.5</v>
+        <v>0</v>
       </c>
       <c r="DV27" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW27">
-        <v>17077.5</v>
+        <v>0</v>
       </c>
       <c r="DX27" t="s">
         <v>413</v>
       </c>
       <c r="DY27" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="DZ27" t="s">
         <v>414</v>
       </c>
       <c r="EA27">
-        <v>6705.9059999999999</v>
+        <v>0</v>
       </c>
       <c r="EB27" t="s">
         <v>399</v>
@@ -12137,7 +12187,7 @@
         <v>415</v>
       </c>
       <c r="EE27">
-        <v>9936.1476261059997</v>
+        <v>0</v>
       </c>
       <c r="EF27" t="s">
         <v>416</v>
@@ -12149,22 +12199,16 @@
         <v>417</v>
       </c>
       <c r="EI27">
-        <v>25303.7488275</v>
+        <v>0</v>
       </c>
       <c r="EJ27" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK27">
-        <v>3945.0289124999999</v>
-      </c>
-      <c r="EL27" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:141" x14ac:dyDescent="0.25">
       <c r="F28">
         <f>LEN(F27)</f>
         <v>48</v>
@@ -12281,7 +12325,7 @@
         <v>315</v>
       </c>
       <c r="DM28" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="DN28" t="s">
         <v>26</v>
@@ -12296,73 +12340,67 @@
         <v>0</v>
       </c>
       <c r="DR28" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS28">
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="DT28" t="s">
         <v>412</v>
       </c>
       <c r="DU28">
-        <v>0</v>
+        <v>81682</v>
       </c>
       <c r="DV28" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW28">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="DX28" t="s">
         <v>413</v>
       </c>
       <c r="DY28" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="DZ28" t="s">
         <v>414</v>
       </c>
       <c r="EA28">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="EB28" t="s">
         <v>399</v>
       </c>
       <c r="EC28">
-        <v>0</v>
+        <v>44242</v>
       </c>
       <c r="ED28" t="s">
         <v>415</v>
       </c>
       <c r="EE28">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="EF28" t="s">
         <v>416</v>
       </c>
       <c r="EG28">
-        <v>0</v>
+        <v>44242</v>
       </c>
       <c r="EH28" t="s">
         <v>417</v>
       </c>
       <c r="EI28">
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="EJ28" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK28">
-        <v>0</v>
-      </c>
-      <c r="EL28" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM28" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>315</v>
       </c>
@@ -12475,7 +12513,7 @@
         <v>315</v>
       </c>
       <c r="DM29" t="s">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="DN29" t="s">
         <v>26</v>
@@ -12487,76 +12525,70 @@
         <v>378</v>
       </c>
       <c r="DQ29">
-        <v>1948.175</v>
+        <v>0</v>
       </c>
       <c r="DR29" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS29">
-        <v>0</v>
+        <v>708723</v>
       </c>
       <c r="DT29" t="s">
         <v>412</v>
       </c>
       <c r="DU29">
-        <v>0</v>
+        <v>2295445</v>
       </c>
       <c r="DV29" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW29">
-        <v>0</v>
+        <v>-10445300</v>
       </c>
       <c r="DX29" t="s">
         <v>413</v>
       </c>
       <c r="DY29" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="DZ29" t="s">
         <v>414</v>
       </c>
       <c r="EA29">
-        <v>1948.175</v>
+        <v>-10445300</v>
       </c>
       <c r="EB29" t="s">
         <v>399</v>
       </c>
       <c r="EC29">
-        <v>0</v>
+        <v>1586722</v>
       </c>
       <c r="ED29" t="s">
         <v>415</v>
       </c>
       <c r="EE29">
-        <v>2886.6128456749998</v>
+        <v>-15098722.9312</v>
       </c>
       <c r="EF29" t="s">
         <v>416</v>
       </c>
       <c r="EG29">
-        <v>0</v>
+        <v>2293612.99788799</v>
       </c>
       <c r="EH29" t="s">
         <v>417</v>
       </c>
       <c r="EI29">
-        <v>0</v>
+        <v>1024461.93139199</v>
       </c>
       <c r="EJ29" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK29">
-        <v>0</v>
-      </c>
-      <c r="EL29" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM29" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
         <v>315</v>
       </c>
@@ -12669,7 +12701,7 @@
         <v>315</v>
       </c>
       <c r="DM30" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="DN30" t="s">
         <v>26</v>
@@ -12684,22 +12716,22 @@
         <v>0</v>
       </c>
       <c r="DR30" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS30">
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="DT30" t="s">
         <v>412</v>
       </c>
       <c r="DU30">
-        <v>0</v>
+        <v>81682</v>
       </c>
       <c r="DV30" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW30">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="DX30" t="s">
         <v>413</v>
@@ -12711,46 +12743,40 @@
         <v>414</v>
       </c>
       <c r="EA30">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="EB30" t="s">
         <v>399</v>
       </c>
       <c r="EC30">
-        <v>0</v>
+        <v>44242</v>
       </c>
       <c r="ED30" t="s">
         <v>415</v>
       </c>
       <c r="EE30">
-        <v>0</v>
+        <v>945360</v>
       </c>
       <c r="EF30" t="s">
         <v>416</v>
       </c>
       <c r="EG30">
-        <v>0</v>
+        <v>44242</v>
       </c>
       <c r="EH30" t="s">
         <v>417</v>
       </c>
       <c r="EI30">
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="EJ30" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK30">
-        <v>0</v>
-      </c>
-      <c r="EL30" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>315</v>
       </c>
@@ -12862,62 +12888,83 @@
       <c r="DL31" t="s">
         <v>315</v>
       </c>
-      <c r="DM31" t="s">
-        <v>338</v>
-      </c>
-      <c r="DN31" t="s">
+      <c r="DM31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="DN31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="DO31" t="s">
+      <c r="DO31" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="DP31" t="s">
+      <c r="DP31" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="DQ31">
+      <c r="DQ31" s="7">
         <v>0</v>
       </c>
-      <c r="DR31" t="s">
+      <c r="DR31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS31" s="7">
+        <v>708723</v>
+      </c>
+      <c r="DT31" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU31" s="7">
+        <v>2295445</v>
+      </c>
+      <c r="DV31" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="DS31">
-        <v>-65320</v>
-      </c>
-      <c r="DT31" t="s">
-        <v>412</v>
-      </c>
-      <c r="DU31">
-        <v>16330</v>
-      </c>
-      <c r="DV31" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW31">
-        <v>16330</v>
-      </c>
-      <c r="DX31" t="s">
+      <c r="DW31" s="7">
+        <v>-10445300</v>
+      </c>
+      <c r="DX31" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="DY31" t="s">
-        <v>420</v>
-      </c>
-      <c r="DZ31" t="s">
+      <c r="DY31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ31" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="EA31">
-        <v>-65320</v>
-      </c>
-      <c r="EB31" t="s">
+      <c r="EA31" s="7">
+        <v>-10445300</v>
+      </c>
+      <c r="EB31" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="EC31">
-        <v>0</v>
-      </c>
-      <c r="ED31" t="s">
+      <c r="EC31" s="7">
+        <v>1586722</v>
+      </c>
+      <c r="ED31" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="32" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="EE31" s="7">
+        <v>-15098722.9312</v>
+      </c>
+      <c r="EF31" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG31" s="7">
+        <v>2293612.99788799</v>
+      </c>
+      <c r="EH31" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI31" s="7">
+        <v>1024461.93139199</v>
+      </c>
+      <c r="EJ31" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK31" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>315</v>
       </c>
@@ -13026,35 +13073,86 @@
       <c r="DJ32" t="s">
         <v>392</v>
       </c>
-      <c r="DL32">
-        <v>-96784.709319999994</v>
+      <c r="DL32" t="s">
+        <v>315</v>
       </c>
       <c r="DM32" t="s">
+        <v>431</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ32">
+        <v>0</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS32">
+        <v>0</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU32">
+        <v>0</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW32">
+        <v>0</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA32">
+        <v>0</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC32">
+        <v>0</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE32">
+        <v>0</v>
+      </c>
+      <c r="EF32" t="s">
         <v>416</v>
       </c>
-      <c r="DN32">
+      <c r="EG32">
         <v>0</v>
       </c>
-      <c r="DO32" t="s">
+      <c r="EH32" t="s">
         <v>417</v>
       </c>
-      <c r="DP32">
-        <v>24196.177329999999</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>434</v>
-      </c>
-      <c r="DR32">
-        <v>24196.177329999999</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>403</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="EI32">
+        <v>0</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:141" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>315</v>
       </c>
@@ -13167,37 +13265,37 @@
         <v>315</v>
       </c>
       <c r="DM33" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="DN33" t="s">
         <v>26</v>
       </c>
       <c r="DO33" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="DP33" t="s">
         <v>378</v>
       </c>
       <c r="DQ33">
-        <v>0</v>
+        <v>646074.30000000005</v>
       </c>
       <c r="DR33" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS33">
-        <v>0</v>
+        <v>974710</v>
       </c>
       <c r="DT33" t="s">
         <v>412</v>
       </c>
       <c r="DU33">
-        <v>0</v>
+        <v>3310061</v>
       </c>
       <c r="DV33" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW33">
-        <v>0</v>
+        <v>14862740</v>
       </c>
       <c r="DX33" t="s">
         <v>413</v>
@@ -13209,46 +13307,40 @@
         <v>414</v>
       </c>
       <c r="EA33">
-        <v>0</v>
+        <v>15508814.300000001</v>
       </c>
       <c r="EB33" t="s">
         <v>399</v>
       </c>
       <c r="EC33">
-        <v>0</v>
+        <v>2335351</v>
       </c>
       <c r="ED33" t="s">
         <v>415</v>
       </c>
       <c r="EE33">
-        <v>0</v>
+        <v>22418053.105907101</v>
       </c>
       <c r="EF33" t="s">
         <v>416</v>
       </c>
       <c r="EG33">
-        <v>0</v>
+        <v>3375759.2119039898</v>
       </c>
       <c r="EH33" t="s">
         <v>417</v>
       </c>
       <c r="EI33">
-        <v>0</v>
+        <v>1408947.2038399901</v>
       </c>
       <c r="EJ33" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK33">
-        <v>0</v>
-      </c>
-      <c r="EL33" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:141" x14ac:dyDescent="0.25">
       <c r="AA34" s="3" t="s">
         <v>1</v>
       </c>
@@ -13364,37 +13456,37 @@
         <v>315</v>
       </c>
       <c r="DM34" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="DN34" t="s">
         <v>26</v>
       </c>
       <c r="DO34" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="DP34" t="s">
         <v>378</v>
       </c>
       <c r="DQ34">
-        <v>1948.175</v>
+        <v>0</v>
       </c>
       <c r="DR34" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS34">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="DT34" t="s">
         <v>412</v>
       </c>
       <c r="DU34">
-        <v>0</v>
+        <v>6283</v>
       </c>
       <c r="DV34" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW34">
-        <v>0</v>
+        <v>72720</v>
       </c>
       <c r="DX34" t="s">
         <v>413</v>
@@ -13406,46 +13498,40 @@
         <v>414</v>
       </c>
       <c r="EA34">
-        <v>1948.175</v>
+        <v>72720</v>
       </c>
       <c r="EB34" t="s">
         <v>399</v>
       </c>
       <c r="EC34">
-        <v>0</v>
+        <v>3403</v>
       </c>
       <c r="ED34" t="s">
         <v>415</v>
       </c>
       <c r="EE34">
-        <v>2886.6128456749998</v>
+        <v>72720</v>
       </c>
       <c r="EF34" t="s">
         <v>416</v>
       </c>
       <c r="EG34">
-        <v>0</v>
+        <v>3403</v>
       </c>
       <c r="EH34" t="s">
         <v>417</v>
       </c>
       <c r="EI34">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="EJ34" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK34">
-        <v>0</v>
-      </c>
-      <c r="EL34" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM34" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:141" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>323</v>
       </c>
@@ -13594,13 +13680,13 @@
         <v>315</v>
       </c>
       <c r="DM35" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="DN35" t="s">
         <v>26</v>
       </c>
       <c r="DO35" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="DP35" t="s">
         <v>378</v>
@@ -13609,22 +13695,22 @@
         <v>0</v>
       </c>
       <c r="DR35" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS35">
-        <v>-1854000</v>
+        <v>22320</v>
       </c>
       <c r="DT35" t="s">
         <v>412</v>
       </c>
       <c r="DU35">
-        <v>407597</v>
+        <v>82246</v>
       </c>
       <c r="DV35" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW35">
-        <v>407597</v>
+        <v>-368700</v>
       </c>
       <c r="DX35" t="s">
         <v>413</v>
@@ -13636,46 +13722,40 @@
         <v>414</v>
       </c>
       <c r="EA35">
-        <v>-1854000</v>
+        <v>-368700</v>
       </c>
       <c r="EB35" t="s">
         <v>399</v>
       </c>
       <c r="EC35">
-        <v>0</v>
+        <v>59926</v>
       </c>
       <c r="ED35" t="s">
         <v>415</v>
       </c>
       <c r="EE35">
-        <v>-1854000</v>
+        <v>-532957.32479999994</v>
       </c>
       <c r="EF35" t="s">
         <v>416</v>
       </c>
       <c r="EG35">
-        <v>0</v>
+        <v>86623.272703999901</v>
       </c>
       <c r="EH35" t="s">
         <v>417</v>
       </c>
       <c r="EI35">
-        <v>407597</v>
+        <v>32263.6492799999</v>
       </c>
       <c r="EJ35" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK35">
-        <v>407597</v>
-      </c>
-      <c r="EL35" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:141" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>323</v>
       </c>
@@ -13824,37 +13904,37 @@
         <v>315</v>
       </c>
       <c r="DM36" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="DN36" t="s">
         <v>26</v>
       </c>
       <c r="DO36" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="DP36" t="s">
         <v>378</v>
       </c>
       <c r="DQ36">
-        <v>6705.9059999999999</v>
+        <v>0</v>
       </c>
       <c r="DR36" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS36">
-        <v>0</v>
+        <v>786000</v>
       </c>
       <c r="DT36" t="s">
         <v>412</v>
       </c>
       <c r="DU36">
-        <v>2662.5</v>
+        <v>1746885</v>
       </c>
       <c r="DV36" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW36">
-        <v>2662.5</v>
+        <v>-14671800</v>
       </c>
       <c r="DX36" t="s">
         <v>413</v>
@@ -13866,46 +13946,40 @@
         <v>414</v>
       </c>
       <c r="EA36">
-        <v>6705.9059999999999</v>
+        <v>-14671800</v>
       </c>
       <c r="EB36" t="s">
         <v>399</v>
       </c>
       <c r="EC36">
-        <v>0</v>
+        <v>960885</v>
       </c>
       <c r="ED36" t="s">
         <v>415</v>
       </c>
       <c r="EE36">
-        <v>9936.1476261059997</v>
+        <v>-14671800</v>
       </c>
       <c r="EF36" t="s">
         <v>416</v>
       </c>
       <c r="EG36">
-        <v>0</v>
+        <v>960885</v>
       </c>
       <c r="EH36" t="s">
         <v>417</v>
       </c>
       <c r="EI36">
-        <v>3945.0289124999999</v>
+        <v>786000</v>
       </c>
       <c r="EJ36" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK36">
-        <v>3945.0289124999999</v>
-      </c>
-      <c r="EL36" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM36" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:141" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>323</v>
       </c>
@@ -13958,37 +14032,37 @@
         <v>315</v>
       </c>
       <c r="DM37" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="DN37" t="s">
         <v>26</v>
       </c>
       <c r="DO37" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="DP37" t="s">
         <v>378</v>
       </c>
       <c r="DQ37">
-        <v>0</v>
+        <v>15.809999999999899</v>
       </c>
       <c r="DR37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DS37">
-        <v>0</v>
+        <v>175116</v>
       </c>
       <c r="DT37" t="s">
         <v>412</v>
       </c>
       <c r="DU37">
-        <v>0</v>
+        <v>619651</v>
       </c>
       <c r="DV37" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="DW37">
-        <v>0</v>
+        <v>-2634875</v>
       </c>
       <c r="DX37" t="s">
         <v>413</v>
@@ -14000,46 +14074,40 @@
         <v>414</v>
       </c>
       <c r="EA37">
-        <v>0</v>
+        <v>-2634859.19</v>
       </c>
       <c r="EB37" t="s">
         <v>399</v>
       </c>
       <c r="EC37">
-        <v>0</v>
+        <v>444535</v>
       </c>
       <c r="ED37" t="s">
         <v>415</v>
       </c>
       <c r="EE37">
-        <v>0</v>
+        <v>-3808699.4985817499</v>
       </c>
       <c r="EF37" t="s">
         <v>416</v>
       </c>
       <c r="EG37">
-        <v>0</v>
+        <v>642577.12063999998</v>
       </c>
       <c r="EH37" t="s">
         <v>417</v>
       </c>
       <c r="EI37">
-        <v>0</v>
+        <v>253130.87846399899</v>
       </c>
       <c r="EJ37" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK37">
-        <v>0</v>
-      </c>
-      <c r="EL37" t="s">
-        <v>403</v>
-      </c>
-      <c r="EM37" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="38" spans="1:143" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="EK37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -14101,7 +14169,7 @@
         <v>315</v>
       </c>
       <c r="DM38" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="DN38" t="s">
         <v>26</v>
@@ -14110,25 +14178,73 @@
         <v>380</v>
       </c>
       <c r="DP38" t="s">
-        <v>413</v>
-      </c>
-      <c r="DQ38" t="s">
-        <v>429</v>
+        <v>378</v>
+      </c>
+      <c r="DQ38">
+        <v>0</v>
       </c>
       <c r="DR38" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="DS38">
         <v>0</v>
       </c>
       <c r="DT38" t="s">
-        <v>403</v>
-      </c>
-      <c r="DU38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:143" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="DU38">
+        <v>0</v>
+      </c>
+      <c r="DV38" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW38">
+        <v>0</v>
+      </c>
+      <c r="DX38" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY38" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ38" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA38">
+        <v>0</v>
+      </c>
+      <c r="EB38" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC38">
+        <v>0</v>
+      </c>
+      <c r="ED38" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE38">
+        <v>0</v>
+      </c>
+      <c r="EF38" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG38">
+        <v>0</v>
+      </c>
+      <c r="EH38" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI38">
+        <v>0</v>
+      </c>
+      <c r="EJ38" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>323</v>
       </c>
@@ -14189,34 +14305,82 @@
         <v>315</v>
       </c>
       <c r="DM39" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="DN39" t="s">
         <v>26</v>
       </c>
       <c r="DO39" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="DP39" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ39">
+        <v>0</v>
+      </c>
+      <c r="DR39" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS39">
+        <v>95700</v>
+      </c>
+      <c r="DT39" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU39">
+        <v>309660</v>
+      </c>
+      <c r="DV39" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW39">
+        <v>-1548300</v>
+      </c>
+      <c r="DX39" t="s">
         <v>413</v>
       </c>
-      <c r="DQ39" t="s">
-        <v>431</v>
-      </c>
-      <c r="DR39" t="s">
+      <c r="DY39" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ39" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA39">
+        <v>-1548300</v>
+      </c>
+      <c r="EB39" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC39">
+        <v>213960</v>
+      </c>
+      <c r="ED39" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE39">
+        <v>-2238073.8432</v>
+      </c>
+      <c r="EF39" t="s">
         <v>416</v>
       </c>
-      <c r="DS39">
-        <v>0</v>
-      </c>
-      <c r="DT39" t="s">
-        <v>403</v>
-      </c>
-      <c r="DU39" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EG39">
+        <v>309280.03583999898</v>
+      </c>
+      <c r="EH39" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI39">
+        <v>138334.7328</v>
+      </c>
+      <c r="EJ39" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:141" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -14317,7 +14481,7 @@
         <v>315</v>
       </c>
       <c r="DM40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="DN40" t="s">
         <v>26</v>
@@ -14326,25 +14490,73 @@
         <v>380</v>
       </c>
       <c r="DP40" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ40">
+        <v>0</v>
+      </c>
+      <c r="DR40" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS40">
+        <v>625920</v>
+      </c>
+      <c r="DT40" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU40">
+        <v>1391225</v>
+      </c>
+      <c r="DV40" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW40">
+        <v>-14599080</v>
+      </c>
+      <c r="DX40" t="s">
         <v>413</v>
       </c>
-      <c r="DQ40" t="s">
-        <v>429</v>
-      </c>
-      <c r="DR40" t="s">
+      <c r="DY40" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ40" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA40">
+        <v>-14599080</v>
+      </c>
+      <c r="EB40" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC40">
+        <v>765305</v>
+      </c>
+      <c r="ED40" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE40">
+        <v>-14599080</v>
+      </c>
+      <c r="EF40" t="s">
         <v>416</v>
       </c>
-      <c r="DS40">
-        <v>0</v>
-      </c>
-      <c r="DT40" t="s">
-        <v>403</v>
-      </c>
-      <c r="DU40" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EG40">
+        <v>765305</v>
+      </c>
+      <c r="EH40" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI40">
+        <v>625920</v>
+      </c>
+      <c r="EJ40" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX41" s="5" t="str">
         <f>pbreq!L20</f>
         <v>{'identifier'</v>
@@ -14393,38 +14605,86 @@
         <f>pbreq!W20</f>
         <v>0.0}</v>
       </c>
-      <c r="DL41" t="s">
+      <c r="DL41" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="DM41" t="s">
+      <c r="DM41" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="DN41" t="s">
+      <c r="DN41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="DO41" t="s">
-        <v>380</v>
-      </c>
-      <c r="DP41" t="s">
+      <c r="DO41" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ41" s="7">
+        <v>646090.11</v>
+      </c>
+      <c r="DR41" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS41" s="7">
+        <v>582645</v>
+      </c>
+      <c r="DT41" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU41" s="7">
+        <v>1932766</v>
+      </c>
+      <c r="DV41" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW41" s="7">
+        <v>10310865</v>
+      </c>
+      <c r="DX41" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="DQ41" t="s">
-        <v>431</v>
-      </c>
-      <c r="DR41" t="s">
+      <c r="DY41" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ41" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA41" s="7">
+        <v>10956955.109999999</v>
+      </c>
+      <c r="EB41" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC41" s="7">
+        <v>1350121</v>
+      </c>
+      <c r="ED41" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE41" s="7">
+        <v>15838322.4393254</v>
+      </c>
+      <c r="EF41" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="DS41">
-        <v>0</v>
-      </c>
-      <c r="DT41" t="s">
-        <v>403</v>
-      </c>
-      <c r="DU41" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EG41" s="7">
+        <v>1951605.305984</v>
+      </c>
+      <c r="EH41" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI41" s="7">
+        <v>842215.67807999998</v>
+      </c>
+      <c r="EJ41" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK41" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR42" s="3" t="s">
         <v>1</v>
       </c>
@@ -14494,8 +14754,86 @@
         <f>pbreq!W21</f>
         <v>0.0}</v>
       </c>
-    </row>
-    <row r="43" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL42" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>437</v>
+      </c>
+      <c r="DN42" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO42" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP42" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ42">
+        <v>0</v>
+      </c>
+      <c r="DR42" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS42">
+        <v>0</v>
+      </c>
+      <c r="DT42" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU42">
+        <v>0</v>
+      </c>
+      <c r="DV42" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW42">
+        <v>0</v>
+      </c>
+      <c r="DX42" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY42" t="s">
+        <v>455</v>
+      </c>
+      <c r="DZ42" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA42">
+        <v>0</v>
+      </c>
+      <c r="EB42" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC42">
+        <v>0</v>
+      </c>
+      <c r="ED42" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE42">
+        <v>0</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG42">
+        <v>0</v>
+      </c>
+      <c r="EH42" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI42">
+        <v>0</v>
+      </c>
+      <c r="EJ42" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR43" t="s">
         <v>323</v>
       </c>
@@ -14616,8 +14954,86 @@
         <f>pbreq!W22</f>
         <v>-1854000.0}</v>
       </c>
-    </row>
-    <row r="44" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL43" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM43" t="s">
+        <v>437</v>
+      </c>
+      <c r="DN43" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO43" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP43" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ43">
+        <v>0</v>
+      </c>
+      <c r="DR43" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS43">
+        <v>707385</v>
+      </c>
+      <c r="DT43" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU43">
+        <v>2228342</v>
+      </c>
+      <c r="DV43" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW43">
+        <v>10676610</v>
+      </c>
+      <c r="DX43" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY43" t="s">
+        <v>455</v>
+      </c>
+      <c r="DZ43" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA43">
+        <v>10676610</v>
+      </c>
+      <c r="EB43" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC43">
+        <v>1520957</v>
+      </c>
+      <c r="ED43" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE43">
+        <v>15433082.4614399</v>
+      </c>
+      <c r="EF43" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG43">
+        <v>2198549.4273279998</v>
+      </c>
+      <c r="EH43" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI43">
+        <v>1022527.84703999</v>
+      </c>
+      <c r="EJ43" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O44" s="5" t="str">
         <f>'pa2'!N82</f>
         <v>option</v>
@@ -14818,8 +15234,86 @@
         <f>pbreq!W23</f>
         <v>0.0}</v>
       </c>
-    </row>
-    <row r="45" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL44" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM44" t="s">
+        <v>338</v>
+      </c>
+      <c r="DN44" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO44" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP44" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ44">
+        <v>0</v>
+      </c>
+      <c r="DR44" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS44">
+        <v>0</v>
+      </c>
+      <c r="DT44" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU44">
+        <v>0</v>
+      </c>
+      <c r="DV44" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW44">
+        <v>0</v>
+      </c>
+      <c r="DX44" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY44" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ44" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA44">
+        <v>0</v>
+      </c>
+      <c r="EB44" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC44">
+        <v>0</v>
+      </c>
+      <c r="ED44" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE44">
+        <v>0</v>
+      </c>
+      <c r="EF44" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG44">
+        <v>0</v>
+      </c>
+      <c r="EH44" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI44">
+        <v>0</v>
+      </c>
+      <c r="EJ44" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O45" t="str">
         <f>'pa2'!N83</f>
         <v>{'comm'</v>
@@ -15052,8 +15546,86 @@
         <f>pbreq!W24</f>
         <v>-741600.0}</v>
       </c>
-    </row>
-    <row r="46" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL45" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM45" t="s">
+        <v>338</v>
+      </c>
+      <c r="DN45" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO45" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP45" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ45">
+        <v>4208498.16</v>
+      </c>
+      <c r="DR45" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS45">
+        <v>1990689</v>
+      </c>
+      <c r="DT45" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU45">
+        <v>6685945</v>
+      </c>
+      <c r="DV45" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW45">
+        <v>16038390</v>
+      </c>
+      <c r="DX45" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY45" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ45" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA45">
+        <v>20246888.16</v>
+      </c>
+      <c r="EB45" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC45">
+        <v>4695256</v>
+      </c>
+      <c r="ED45" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE45">
+        <v>29266957.822832599</v>
+      </c>
+      <c r="EF45" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG45">
+        <v>6787011.3290239898</v>
+      </c>
+      <c r="EH45" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI45">
+        <v>2877548.9122559899</v>
+      </c>
+      <c r="EJ45" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O46" t="str">
         <f>'pa2'!N84</f>
         <v>{'comm'</v>
@@ -15286,8 +15858,86 @@
         <f>pbreq!W25</f>
         <v>-65320.0}</v>
       </c>
-    </row>
-    <row r="47" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL46" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM46" t="s">
+        <v>435</v>
+      </c>
+      <c r="DN46" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO46" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP46" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ46">
+        <v>0</v>
+      </c>
+      <c r="DR46" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS46">
+        <v>0</v>
+      </c>
+      <c r="DT46" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU46">
+        <v>0</v>
+      </c>
+      <c r="DV46" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW46">
+        <v>0</v>
+      </c>
+      <c r="DX46" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY46" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ46" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA46">
+        <v>0</v>
+      </c>
+      <c r="EB46" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC46">
+        <v>0</v>
+      </c>
+      <c r="ED46" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE46">
+        <v>0</v>
+      </c>
+      <c r="EF46" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG46">
+        <v>0</v>
+      </c>
+      <c r="EH46" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI46">
+        <v>0</v>
+      </c>
+      <c r="EJ46" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O47" t="str">
         <f>'pa2'!N85</f>
         <v>{'comm'</v>
@@ -15448,8 +16098,86 @@
         <f>pbreq!W26</f>
         <v>0.0}</v>
       </c>
-    </row>
-    <row r="48" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL47" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM47" t="s">
+        <v>435</v>
+      </c>
+      <c r="DN47" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO47" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP47" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ47">
+        <v>0</v>
+      </c>
+      <c r="DR47" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS47">
+        <v>10800</v>
+      </c>
+      <c r="DT47" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU47">
+        <v>30720</v>
+      </c>
+      <c r="DV47" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW47">
+        <v>-153600</v>
+      </c>
+      <c r="DX47" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY47" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ47" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA47">
+        <v>-153600</v>
+      </c>
+      <c r="EB47" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC47">
+        <v>19920</v>
+      </c>
+      <c r="ED47" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE47">
+        <v>-222029.41439999899</v>
+      </c>
+      <c r="EF47" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG47">
+        <v>28794.439679999999</v>
+      </c>
+      <c r="EH47" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI47">
+        <v>15611.4432</v>
+      </c>
+      <c r="EJ47" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O48" t="str">
         <f>'pa2'!N86</f>
         <v>{'comm'</v>
@@ -15610,8 +16338,86 @@
         <f>pbreq!W27</f>
         <v>-65320.0}</v>
       </c>
-    </row>
-    <row r="49" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL48" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM48" t="s">
+        <v>339</v>
+      </c>
+      <c r="DN48" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO48" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP48" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ48">
+        <v>1737826.2</v>
+      </c>
+      <c r="DR48" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS48">
+        <v>1252600</v>
+      </c>
+      <c r="DT48" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU48">
+        <v>2567939</v>
+      </c>
+      <c r="DV48" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW48">
+        <v>17089920</v>
+      </c>
+      <c r="DX48" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY48" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ48" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA48">
+        <v>18827746.199999999</v>
+      </c>
+      <c r="EB48" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC48">
+        <v>1315339</v>
+      </c>
+      <c r="ED48" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE48">
+        <v>18827746.199999999</v>
+      </c>
+      <c r="EF48" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG48">
+        <v>1315339</v>
+      </c>
+      <c r="EH48" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI48">
+        <v>1252600</v>
+      </c>
+      <c r="EJ48" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX49" s="5" t="str">
         <f>pbreq!L28</f>
         <v>{'identifier'</v>
@@ -15660,8 +16466,86 @@
         <f>pbreq!W28</f>
         <v>-1854000.0}</v>
       </c>
-    </row>
-    <row r="50" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL49" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM49" t="s">
+        <v>339</v>
+      </c>
+      <c r="DN49" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO49" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP49" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ49">
+        <v>0</v>
+      </c>
+      <c r="DR49" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS49">
+        <v>4875</v>
+      </c>
+      <c r="DT49" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU49">
+        <v>17650</v>
+      </c>
+      <c r="DV49" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW49">
+        <v>70625</v>
+      </c>
+      <c r="DX49" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY49" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ49" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA49">
+        <v>70625</v>
+      </c>
+      <c r="EB49" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC49">
+        <v>12775</v>
+      </c>
+      <c r="ED49" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE49">
+        <v>102088.719999999</v>
+      </c>
+      <c r="EF49" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG49">
+        <v>18466.313599999899</v>
+      </c>
+      <c r="EH49" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI49">
+        <v>7046.8319999999903</v>
+      </c>
+      <c r="EJ49" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX50" s="5" t="str">
         <f>pbreq!L29</f>
         <v>{'identifier'</v>
@@ -15710,8 +16594,86 @@
         <f>pbreq!W29</f>
         <v>0.0}</v>
       </c>
-    </row>
-    <row r="51" spans="76:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DL50" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM50" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN50" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO50" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP50" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ50">
+        <v>1737826.2</v>
+      </c>
+      <c r="DR50" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS50">
+        <v>1252600</v>
+      </c>
+      <c r="DT50" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU50">
+        <v>2567939</v>
+      </c>
+      <c r="DV50" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW50">
+        <v>17089920</v>
+      </c>
+      <c r="DX50" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY50" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ50" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA50">
+        <v>18827746.199999999</v>
+      </c>
+      <c r="EB50" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC50">
+        <v>1315339</v>
+      </c>
+      <c r="ED50" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE50">
+        <v>18827746.199999999</v>
+      </c>
+      <c r="EF50" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG50">
+        <v>1315339</v>
+      </c>
+      <c r="EH50" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI50">
+        <v>1252600</v>
+      </c>
+      <c r="EJ50" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK50" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX51" s="5" t="str">
         <f>pbreq!L30</f>
         <v>{'identifier'</v>
@@ -15760,9 +16722,570 @@
         <f>pbreq!W30</f>
         <v>-741600.0}</v>
       </c>
-    </row>
-    <row r="52" spans="76:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="DL51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM51" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO51" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP51" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ51" s="7">
+        <v>4208498.16</v>
+      </c>
+      <c r="DR51" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS51" s="7">
+        <v>2176953</v>
+      </c>
+      <c r="DT51" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU51" s="7">
+        <v>7318531</v>
+      </c>
+      <c r="DV51" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW51" s="7">
+        <v>26632025</v>
+      </c>
+      <c r="DX51" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY51" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA51" s="7">
+        <v>30840523.16</v>
+      </c>
+      <c r="EB51" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC51" s="7">
+        <v>5141578</v>
+      </c>
+      <c r="ED51" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE51" s="7">
+        <v>44580099.589872599</v>
+      </c>
+      <c r="EF51" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG51" s="7">
+        <v>7432171.5653119897</v>
+      </c>
+      <c r="EH51" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI51" s="7">
+        <v>3146794.2693119999</v>
+      </c>
+      <c r="EJ51" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK51" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="76:141" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="DL52" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM52" t="s">
+        <v>336</v>
+      </c>
+      <c r="DN52" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO52" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP52" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ52">
+        <v>-1737826.2</v>
+      </c>
+      <c r="DR52" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS52">
+        <v>63000</v>
+      </c>
+      <c r="DT52" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU52">
+        <v>350640</v>
+      </c>
+      <c r="DV52" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW52">
+        <v>-2534400</v>
+      </c>
+      <c r="DX52" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY52" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ52" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA52">
+        <v>-4272226.2</v>
+      </c>
+      <c r="EB52" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC52">
+        <v>287640</v>
+      </c>
+      <c r="ED52" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE52">
+        <v>-4272226.2</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG52">
+        <v>287640</v>
+      </c>
+      <c r="EH52" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI52">
+        <v>63000</v>
+      </c>
+      <c r="EJ52" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="DL53" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM53" t="s">
+        <v>336</v>
+      </c>
+      <c r="DN53" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO53" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP53" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ53">
+        <v>-4854588.2699999996</v>
+      </c>
+      <c r="DR53" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS53">
+        <v>2209645</v>
+      </c>
+      <c r="DT53" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU53">
+        <v>7273522</v>
+      </c>
+      <c r="DV53" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW53">
+        <v>-26497590</v>
+      </c>
+      <c r="DX53" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY53" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ53" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA53">
+        <v>-31352178.27</v>
+      </c>
+      <c r="EB53" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC53">
+        <v>5063877</v>
+      </c>
+      <c r="ED53" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE53">
+        <v>-45319699.097998001</v>
+      </c>
+      <c r="EF53" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG53">
+        <v>7319854.4590079999</v>
+      </c>
+      <c r="EH53" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI53">
+        <v>3194050.6860799999</v>
+      </c>
+      <c r="EJ53" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="DL54" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM54" t="s">
+        <v>340</v>
+      </c>
+      <c r="DN54" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO54" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP54" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ54">
+        <v>0</v>
+      </c>
+      <c r="DR54" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS54">
+        <v>6823725</v>
+      </c>
+      <c r="DT54" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU54">
+        <v>163635</v>
+      </c>
+      <c r="DV54" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW54">
+        <v>-901800</v>
+      </c>
+      <c r="DX54" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY54" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ54" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA54">
+        <v>-901800</v>
+      </c>
+      <c r="EB54" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC54">
+        <v>0</v>
+      </c>
+      <c r="ED54" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE54">
+        <v>-901800</v>
+      </c>
+      <c r="EF54" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG54">
+        <v>0</v>
+      </c>
+      <c r="EH54" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI54">
+        <v>6823725</v>
+      </c>
+      <c r="EJ54" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="DL55" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM55" t="s">
+        <v>340</v>
+      </c>
+      <c r="DN55" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO55" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP55" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ55">
+        <v>0</v>
+      </c>
+      <c r="DR55" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS55">
+        <v>0</v>
+      </c>
+      <c r="DT55" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU55">
+        <v>0</v>
+      </c>
+      <c r="DV55" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW55">
+        <v>0</v>
+      </c>
+      <c r="DX55" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY55" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ55" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA55">
+        <v>0</v>
+      </c>
+      <c r="EB55" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC55">
+        <v>0</v>
+      </c>
+      <c r="ED55" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE55">
+        <v>0</v>
+      </c>
+      <c r="EF55" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG55">
+        <v>0</v>
+      </c>
+      <c r="EH55" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI55">
+        <v>0</v>
+      </c>
+      <c r="EJ55" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="DL56" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM56" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN56" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO56" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP56" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ56">
+        <v>-1737826.2</v>
+      </c>
+      <c r="DR56" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS56">
+        <v>63000</v>
+      </c>
+      <c r="DT56" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU56">
+        <v>350640</v>
+      </c>
+      <c r="DV56" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW56">
+        <v>-2534400</v>
+      </c>
+      <c r="DX56" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY56" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ56" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA56">
+        <v>-4272226.2</v>
+      </c>
+      <c r="EB56" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC56">
+        <v>287640</v>
+      </c>
+      <c r="ED56" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE56">
+        <v>-4272226.2</v>
+      </c>
+      <c r="EF56" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG56">
+        <v>287640</v>
+      </c>
+      <c r="EH56" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI56">
+        <v>63000</v>
+      </c>
+      <c r="EJ56" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="DL57" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM57" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN57" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO57" t="s">
+        <v>367</v>
+      </c>
+      <c r="DP57" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ57">
+        <v>-4854588.2699999996</v>
+      </c>
+      <c r="DR57" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS57">
+        <v>2209645</v>
+      </c>
+      <c r="DT57" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU57">
+        <v>7273522</v>
+      </c>
+      <c r="DV57" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW57">
+        <v>-26497590</v>
+      </c>
+      <c r="DX57" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY57" t="s">
+        <v>352</v>
+      </c>
+      <c r="DZ57" t="s">
+        <v>414</v>
+      </c>
+      <c r="EA57">
+        <v>-31352178.27</v>
+      </c>
+      <c r="EB57" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC57">
+        <v>5063877</v>
+      </c>
+      <c r="ED57" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE57">
+        <v>-45319699.097998001</v>
+      </c>
+      <c r="EF57" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG57">
+        <v>7319854.4590079999</v>
+      </c>
+      <c r="EH57" t="s">
+        <v>417</v>
+      </c>
+      <c r="EI57">
+        <v>3194050.6860799999</v>
+      </c>
+      <c r="EJ57" t="s">
+        <v>428</v>
+      </c>
+      <c r="EK57" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="DL26:EK57">
+    <sortCondition ref="DM26:DM57"/>
+    <sortCondition ref="DO26:DO57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15773,7 +17296,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L19" sqref="L19:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/list and data.xlsx
+++ b/list and data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douglas.cao\Documents\Python\RiskCapital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DDD\Downloads\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22266443-79DC-482A-A69A-5FE2A2C37175}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pa2" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="position" sheetId="4" r:id="rId4"/>
     <sheet name="pbreq" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="456">
   <si>
     <t>instrument</t>
   </si>
@@ -1353,70 +1354,55 @@
     <t>'BPSMargin6'</t>
   </si>
   <si>
-    <t>163635.0}</t>
-  </si>
-  <si>
-    <t>9664560.241279999}</t>
-  </si>
-  <si>
-    <t>44405.88288}</t>
-  </si>
-  <si>
-    <t>1391225.0}</t>
-  </si>
-  <si>
-    <t>3318074.92928}</t>
-  </si>
-  <si>
-    <t>81682.0}</t>
-  </si>
-  <si>
-    <t>895707.9991039999}</t>
-  </si>
-  <si>
-    <t>1746885.0}</t>
-  </si>
-  <si>
-    <t>10513905.145087998}</t>
-  </si>
-  <si>
-    <t>350640.0}</t>
-  </si>
-  <si>
-    <t>118886.92198399999}</t>
-  </si>
-  <si>
-    <t>6283.0}</t>
-  </si>
-  <si>
-    <t>447614.76863999997}</t>
-  </si>
-  <si>
-    <t>4784706.415744}</t>
-  </si>
-  <si>
     <t>'House'</t>
   </si>
   <si>
-    <t>3221077.2743679998}</t>
-  </si>
-  <si>
-    <t>25513.1456}</t>
-  </si>
-  <si>
-    <t>2567939.0}</t>
-  </si>
-  <si>
-    <t>10578965.834624}</t>
-  </si>
-  <si>
-    <t>2793820.9840639997}</t>
+    <t>'OMFA00000'}</t>
+  </si>
+  <si>
+    <t>'BPSS00000'}</t>
+  </si>
+  <si>
+    <t>'ADMU00000'}</t>
+  </si>
+  <si>
+    <t>'FCSU00000'}</t>
+  </si>
+  <si>
+    <t>'OMFRule'</t>
+  </si>
+  <si>
+    <t>'Rule'</t>
+  </si>
+  <si>
+    <t>'OMFFinal'</t>
+  </si>
+  <si>
+    <t>'Final'</t>
+  </si>
+  <si>
+    <t>'FCSRule'</t>
+  </si>
+  <si>
+    <t>'FCSFinal'</t>
+  </si>
+  <si>
+    <t>'BPSRule'</t>
+  </si>
+  <si>
+    <t>'BPSFinal'</t>
+  </si>
+  <si>
+    <t>'ADMRule'</t>
+  </si>
+  <si>
+    <t>'ADMFinal'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1494,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1503,6 +1489,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -1538,7 +1525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1585,7 +1578,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1632,7 +1631,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1679,7 +1684,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1726,7 +1737,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1773,7 +1790,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1820,7 +1843,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1867,7 +1896,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1914,7 +1949,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1961,7 +2002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2008,7 +2055,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2055,7 +2108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2102,7 +2161,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2149,7 +2214,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2196,7 +2267,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2243,7 +2320,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2290,7 +2373,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2337,7 +2426,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2384,7 +2479,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2431,7 +2532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2478,7 +2585,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2530,7 +2643,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2577,7 +2696,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2629,7 +2754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2676,7 +2807,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2723,7 +2860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2770,7 +2913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2817,7 +2966,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2864,7 +3019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2911,7 +3072,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2958,7 +3125,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3005,7 +3178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3052,7 +3231,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3099,7 +3284,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3146,7 +3337,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3193,7 +3390,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3240,7 +3443,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3287,7 +3496,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3584,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8082,11 +8297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10775,7 +10990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10865,11 +11080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:EM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL23" workbookViewId="0">
-      <selection activeCell="DX41" sqref="DX41"/>
+    <sheetView tabSelected="1" topLeftCell="DJ23" workbookViewId="0">
+      <selection activeCell="EJ46" sqref="EJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11443,7 +11658,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -11461,7 +11676,7 @@
         <v>currency</v>
       </c>
     </row>
-    <row r="18" spans="1:141" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -11499,7 +11714,7 @@
         <v>1.481701}</v>
       </c>
     </row>
-    <row r="19" spans="1:141" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:143" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>315</v>
       </c>
@@ -11513,7 +11728,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>315</v>
       </c>
@@ -11521,7 +11736,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -11544,7 +11759,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>315</v>
       </c>
@@ -11570,7 +11785,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -11596,7 +11811,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
         <v>315</v>
       </c>
@@ -11680,7 +11895,7 @@
       </c>
       <c r="DS24" s="3"/>
     </row>
-    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
         <v>315</v>
       </c>
@@ -11829,7 +12044,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U26" t="s">
         <v>315</v>
       </c>
@@ -11978,7 +12193,7 @@
         <v>413</v>
       </c>
       <c r="DY26" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="DZ26" t="s">
         <v>414</v>
@@ -12013,11 +12228,17 @@
       <c r="EJ26" t="s">
         <v>428</v>
       </c>
-      <c r="EK26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK26">
+        <v>0</v>
+      </c>
+      <c r="EL26" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:143" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>429</v>
       </c>
@@ -12169,7 +12390,7 @@
         <v>413</v>
       </c>
       <c r="DY27" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="DZ27" t="s">
         <v>414</v>
@@ -12204,11 +12425,17 @@
       <c r="EJ27" t="s">
         <v>428</v>
       </c>
-      <c r="EK27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:143" x14ac:dyDescent="0.25">
       <c r="F28">
         <f>LEN(F27)</f>
         <v>48</v>
@@ -12324,83 +12551,89 @@
       <c r="DL28" t="s">
         <v>315</v>
       </c>
-      <c r="DM28" t="s">
+      <c r="DM28" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="DN28" t="s">
+      <c r="DN28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DO28" t="s">
+      <c r="DO28" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="DP28" t="s">
+      <c r="DP28" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="DQ28">
+      <c r="DQ28" s="8">
         <v>0</v>
       </c>
-      <c r="DR28" t="s">
+      <c r="DR28" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="DS28">
+      <c r="DS28" s="8">
         <v>37440</v>
       </c>
-      <c r="DT28" t="s">
+      <c r="DT28" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="DU28">
+      <c r="DU28" s="8">
         <v>81682</v>
       </c>
-      <c r="DV28" t="s">
+      <c r="DV28" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="DW28">
+      <c r="DW28" s="8">
         <v>945360</v>
       </c>
-      <c r="DX28" t="s">
+      <c r="DX28" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="DY28" t="s">
+      <c r="DY28" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="DZ28" t="s">
+      <c r="DZ28" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="EA28">
+      <c r="EA28" s="8">
         <v>945360</v>
       </c>
-      <c r="EB28" t="s">
+      <c r="EB28" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="EC28">
+      <c r="EC28" s="8">
         <v>44242</v>
       </c>
-      <c r="ED28" t="s">
+      <c r="ED28" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="EE28">
+      <c r="EE28" s="8">
         <v>945360</v>
       </c>
-      <c r="EF28" t="s">
+      <c r="EF28" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="EG28">
+      <c r="EG28" s="8">
         <v>44242</v>
       </c>
-      <c r="EH28" t="s">
+      <c r="EH28" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="EI28">
+      <c r="EI28" s="8">
         <v>37440</v>
       </c>
-      <c r="EJ28" t="s">
+      <c r="EJ28" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="EK28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK28" s="8">
+        <v>81682</v>
+      </c>
+      <c r="EL28" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>315</v>
       </c>
@@ -12584,11 +12817,17 @@
       <c r="EJ29" t="s">
         <v>428</v>
       </c>
-      <c r="EK29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK29">
+        <v>3318074.9292799998</v>
+      </c>
+      <c r="EL29" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U30" t="s">
         <v>315</v>
       </c>
@@ -12772,11 +13011,17 @@
       <c r="EJ30" t="s">
         <v>428</v>
       </c>
-      <c r="EK30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK30">
+        <v>81682</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U31" t="s">
         <v>315</v>
       </c>
@@ -12960,11 +13205,17 @@
       <c r="EJ31" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="EK31" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK31" s="7">
+        <v>3318074.9292799998</v>
+      </c>
+      <c r="EL31" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>315</v>
       </c>
@@ -13148,11 +13399,17 @@
       <c r="EJ32" t="s">
         <v>428</v>
       </c>
-      <c r="EK32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK32">
+        <v>0</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>315</v>
       </c>
@@ -13289,7 +13546,7 @@
         <v>412</v>
       </c>
       <c r="DU33">
-        <v>3310061</v>
+        <v>3322205</v>
       </c>
       <c r="DV33" t="s">
         <v>394</v>
@@ -13313,7 +13570,7 @@
         <v>399</v>
       </c>
       <c r="EC33">
-        <v>2335351</v>
+        <v>2347495</v>
       </c>
       <c r="ED33" t="s">
         <v>415</v>
@@ -13325,7 +13582,7 @@
         <v>416</v>
       </c>
       <c r="EG33">
-        <v>3375759.2119039898</v>
+        <v>3393313.4124799999</v>
       </c>
       <c r="EH33" t="s">
         <v>417</v>
@@ -13336,11 +13593,17 @@
       <c r="EJ33" t="s">
         <v>428</v>
       </c>
-      <c r="EK33" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK33">
+        <v>4802260.61632</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA34" s="3" t="s">
         <v>1</v>
       </c>
@@ -13527,11 +13790,17 @@
       <c r="EJ34" t="s">
         <v>428</v>
       </c>
-      <c r="EK34" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK34">
+        <v>6283</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>323</v>
       </c>
@@ -13676,86 +13945,92 @@
       <c r="DJ35" t="s">
         <v>422</v>
       </c>
-      <c r="DL35" t="s">
+      <c r="DL35" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="DM35" t="s">
+      <c r="DM35" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="DN35" t="s">
+      <c r="DN35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DO35" t="s">
+      <c r="DO35" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="DP35" t="s">
+      <c r="DP35" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="DQ35">
+      <c r="DQ35" s="8">
         <v>0</v>
       </c>
-      <c r="DR35" t="s">
+      <c r="DR35" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="DS35">
+      <c r="DS35" s="8">
         <v>22320</v>
       </c>
-      <c r="DT35" t="s">
+      <c r="DT35" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="DU35">
+      <c r="DU35" s="8">
         <v>82246</v>
       </c>
-      <c r="DV35" t="s">
+      <c r="DV35" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="DW35">
+      <c r="DW35" s="8">
         <v>-368700</v>
       </c>
-      <c r="DX35" t="s">
+      <c r="DX35" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="DY35" t="s">
+      <c r="DY35" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="DZ35" t="s">
+      <c r="DZ35" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="EA35">
+      <c r="EA35" s="8">
         <v>-368700</v>
       </c>
-      <c r="EB35" t="s">
+      <c r="EB35" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="EC35">
+      <c r="EC35" s="8">
         <v>59926</v>
       </c>
-      <c r="ED35" t="s">
+      <c r="ED35" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="EE35">
+      <c r="EE35" s="8">
         <v>-532957.32479999994</v>
       </c>
-      <c r="EF35" t="s">
+      <c r="EF35" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="EG35">
+      <c r="EG35" s="8">
         <v>86623.272703999901</v>
       </c>
-      <c r="EH35" t="s">
+      <c r="EH35" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="EI35">
+      <c r="EI35" s="8">
         <v>32263.6492799999</v>
       </c>
-      <c r="EJ35" t="s">
+      <c r="EJ35" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="EK35" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK35" s="8">
+        <v>118886.921983999</v>
+      </c>
+      <c r="EL35" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>323</v>
       </c>
@@ -13975,11 +14250,17 @@
       <c r="EJ36" t="s">
         <v>428</v>
       </c>
-      <c r="EK36" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK36">
+        <v>1746885</v>
+      </c>
+      <c r="EL36" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:143" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>323</v>
       </c>
@@ -14028,86 +14309,92 @@
       <c r="AP37" t="s">
         <v>302</v>
       </c>
-      <c r="DL37" t="s">
+      <c r="DL37" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="DM37" t="s">
+      <c r="DM37" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="DN37" t="s">
+      <c r="DN37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DO37" t="s">
+      <c r="DO37" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="DP37" t="s">
+      <c r="DP37" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="DQ37">
+      <c r="DQ37" s="8">
         <v>15.809999999999899</v>
       </c>
-      <c r="DR37" t="s">
+      <c r="DR37" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="DS37">
+      <c r="DS37" s="8">
         <v>175116</v>
       </c>
-      <c r="DT37" t="s">
+      <c r="DT37" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="DU37">
+      <c r="DU37" s="8">
         <v>619651</v>
       </c>
-      <c r="DV37" t="s">
+      <c r="DV37" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="DW37">
+      <c r="DW37" s="8">
         <v>-2634875</v>
       </c>
-      <c r="DX37" t="s">
+      <c r="DX37" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="DY37" t="s">
+      <c r="DY37" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="DZ37" t="s">
+      <c r="DZ37" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="EA37">
+      <c r="EA37" s="8">
         <v>-2634859.19</v>
       </c>
-      <c r="EB37" t="s">
+      <c r="EB37" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="EC37">
+      <c r="EC37" s="8">
         <v>444535</v>
       </c>
-      <c r="ED37" t="s">
+      <c r="ED37" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="EE37">
+      <c r="EE37" s="8">
         <v>-3808699.4985817499</v>
       </c>
-      <c r="EF37" t="s">
+      <c r="EF37" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="EG37">
+      <c r="EG37" s="8">
         <v>642577.12063999998</v>
       </c>
-      <c r="EH37" t="s">
+      <c r="EH37" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="EI37">
+      <c r="EI37" s="8">
         <v>253130.87846399899</v>
       </c>
-      <c r="EJ37" t="s">
+      <c r="EJ37" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="EK37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK37" s="8">
+        <v>895707.999103999</v>
+      </c>
+      <c r="EL37" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -14240,11 +14527,17 @@
       <c r="EJ38" t="s">
         <v>428</v>
       </c>
-      <c r="EK38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EK38">
+        <v>0</v>
+      </c>
+      <c r="EL38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>323</v>
       </c>
@@ -14301,86 +14594,92 @@
         <f>pbreq!M18</f>
         <v>list</v>
       </c>
-      <c r="DL39" t="s">
+      <c r="DL39" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="DM39" t="s">
+      <c r="DM39" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="DN39" t="s">
+      <c r="DN39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DO39" t="s">
+      <c r="DO39" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="DP39" t="s">
+      <c r="DP39" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="DQ39">
+      <c r="DQ39" s="8">
         <v>0</v>
       </c>
-      <c r="DR39" t="s">
+      <c r="DR39" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="DS39">
+      <c r="DS39" s="8">
         <v>95700</v>
       </c>
-      <c r="DT39" t="s">
+      <c r="DT39" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="DU39">
+      <c r="DU39" s="8">
         <v>309660</v>
       </c>
-      <c r="DV39" t="s">
+      <c r="DV39" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="DW39">
+      <c r="DW39" s="8">
         <v>-1548300</v>
       </c>
-      <c r="DX39" t="s">
+      <c r="DX39" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="DY39" t="s">
+      <c r="DY39" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="DZ39" t="s">
+      <c r="DZ39" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="EA39">
+      <c r="EA39" s="8">
         <v>-1548300</v>
       </c>
-      <c r="EB39" t="s">
+      <c r="EB39" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="EC39">
+      <c r="EC39" s="8">
         <v>213960</v>
       </c>
-      <c r="ED39" t="s">
+      <c r="ED39" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="EE39">
+      <c r="EE39" s="8">
         <v>-2238073.8432</v>
       </c>
-      <c r="EF39" t="s">
+      <c r="EF39" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="EG39">
+      <c r="EG39" s="8">
         <v>309280.03583999898</v>
       </c>
-      <c r="EH39" t="s">
+      <c r="EH39" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="EI39">
+      <c r="EI39" s="8">
         <v>138334.7328</v>
       </c>
-      <c r="EJ39" t="s">
+      <c r="EJ39" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="EK39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:141" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK39" s="8">
+        <v>447614.76863999898</v>
+      </c>
+      <c r="EL39" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -14477,86 +14776,92 @@
         <f>pbreq!W19</f>
         <v>-65320.0}</v>
       </c>
-      <c r="DL40" t="s">
+      <c r="DL40" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="DM40" t="s">
+      <c r="DM40" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="DN40" t="s">
+      <c r="DN40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="DO40" t="s">
+      <c r="DO40" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="DP40" t="s">
+      <c r="DP40" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="DQ40">
+      <c r="DQ40" s="7">
         <v>0</v>
       </c>
-      <c r="DR40" t="s">
+      <c r="DR40" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="DS40">
+      <c r="DS40" s="7">
         <v>625920</v>
       </c>
-      <c r="DT40" t="s">
+      <c r="DT40" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="DU40">
+      <c r="DU40" s="7">
         <v>1391225</v>
       </c>
-      <c r="DV40" t="s">
+      <c r="DV40" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="DW40">
+      <c r="DW40" s="7">
         <v>-14599080</v>
       </c>
-      <c r="DX40" t="s">
+      <c r="DX40" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="DY40" t="s">
+      <c r="DY40" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="DZ40" t="s">
+      <c r="DZ40" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="EA40">
+      <c r="EA40" s="7">
         <v>-14599080</v>
       </c>
-      <c r="EB40" t="s">
+      <c r="EB40" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="EC40">
+      <c r="EC40" s="7">
         <v>765305</v>
       </c>
-      <c r="ED40" t="s">
+      <c r="ED40" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="EE40">
+      <c r="EE40" s="7">
         <v>-14599080</v>
       </c>
-      <c r="EF40" t="s">
+      <c r="EF40" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="EG40">
+      <c r="EG40" s="7">
         <v>765305</v>
       </c>
-      <c r="EH40" t="s">
+      <c r="EH40" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="EI40">
+      <c r="EI40" s="7">
         <v>625920</v>
       </c>
-      <c r="EJ40" t="s">
+      <c r="EJ40" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="EK40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK40" s="7">
+        <v>1391225</v>
+      </c>
+      <c r="EL40" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM40" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX41" s="5" t="str">
         <f>pbreq!L20</f>
         <v>{'identifier'</v>
@@ -14605,86 +14910,92 @@
         <f>pbreq!W20</f>
         <v>0.0}</v>
       </c>
-      <c r="DL41" s="7" t="s">
+      <c r="DL41" t="s">
         <v>315</v>
       </c>
-      <c r="DM41" s="7" t="s">
+      <c r="DM41" t="s">
         <v>433</v>
       </c>
-      <c r="DN41" s="7" t="s">
+      <c r="DN41" t="s">
         <v>26</v>
       </c>
-      <c r="DO41" s="7" t="s">
+      <c r="DO41" t="s">
         <v>367</v>
       </c>
-      <c r="DP41" s="7" t="s">
+      <c r="DP41" t="s">
         <v>378</v>
       </c>
-      <c r="DQ41" s="7">
+      <c r="DQ41">
         <v>646090.11</v>
       </c>
-      <c r="DR41" s="7" t="s">
+      <c r="DR41" t="s">
         <v>385</v>
       </c>
-      <c r="DS41" s="7">
-        <v>582645</v>
-      </c>
-      <c r="DT41" s="7" t="s">
+      <c r="DS41">
+        <v>582685</v>
+      </c>
+      <c r="DT41" t="s">
         <v>412</v>
       </c>
-      <c r="DU41" s="7">
-        <v>1932766</v>
-      </c>
-      <c r="DV41" s="7" t="s">
+      <c r="DU41">
+        <v>1945515</v>
+      </c>
+      <c r="DV41" t="s">
         <v>394</v>
       </c>
-      <c r="DW41" s="7">
+      <c r="DW41">
         <v>10310865</v>
       </c>
-      <c r="DX41" s="7" t="s">
+      <c r="DX41" t="s">
         <v>413</v>
       </c>
-      <c r="DY41" s="7" t="s">
+      <c r="DY41" t="s">
         <v>352</v>
       </c>
-      <c r="DZ41" s="7" t="s">
+      <c r="DZ41" t="s">
         <v>414</v>
       </c>
-      <c r="EA41" s="7">
+      <c r="EA41">
         <v>10956955.109999999</v>
       </c>
-      <c r="EB41" s="7" t="s">
+      <c r="EB41" t="s">
         <v>399</v>
       </c>
-      <c r="EC41" s="7">
-        <v>1350121</v>
-      </c>
-      <c r="ED41" s="7" t="s">
+      <c r="EC41">
+        <v>1362830</v>
+      </c>
+      <c r="ED41" t="s">
         <v>415</v>
       </c>
-      <c r="EE41" s="7">
+      <c r="EE41">
         <v>15838322.4393254</v>
       </c>
-      <c r="EF41" s="7" t="s">
+      <c r="EF41" t="s">
         <v>416</v>
       </c>
-      <c r="EG41" s="7">
-        <v>1951605.305984</v>
-      </c>
-      <c r="EH41" s="7" t="s">
+      <c r="EG41">
+        <v>1969976.2163199999</v>
+      </c>
+      <c r="EH41" t="s">
         <v>417</v>
       </c>
-      <c r="EI41" s="7">
-        <v>842215.67807999998</v>
-      </c>
-      <c r="EJ41" s="7" t="s">
+      <c r="EI41">
+        <v>842273.49823999999</v>
+      </c>
+      <c r="EJ41" t="s">
         <v>428</v>
       </c>
-      <c r="EK41" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="42" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK41">
+        <v>2812249.71455999</v>
+      </c>
+      <c r="EL41" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR42" s="3" t="s">
         <v>1</v>
       </c>
@@ -14794,7 +15105,7 @@
         <v>413</v>
       </c>
       <c r="DY42" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="DZ42" t="s">
         <v>414</v>
@@ -14829,11 +15140,17 @@
       <c r="EJ42" t="s">
         <v>428</v>
       </c>
-      <c r="EK42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK42">
+        <v>0</v>
+      </c>
+      <c r="EL42" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR43" t="s">
         <v>323</v>
       </c>
@@ -14994,7 +15311,7 @@
         <v>413</v>
       </c>
       <c r="DY43" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="DZ43" t="s">
         <v>414</v>
@@ -15029,11 +15346,17 @@
       <c r="EJ43" t="s">
         <v>428</v>
       </c>
-      <c r="EK43" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK43">
+        <v>3221077.27436799</v>
+      </c>
+      <c r="EL43" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM43" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O44" s="5" t="str">
         <f>'pa2'!N82</f>
         <v>option</v>
@@ -15309,11 +15632,17 @@
       <c r="EJ44" t="s">
         <v>428</v>
       </c>
-      <c r="EK44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK44">
+        <v>0</v>
+      </c>
+      <c r="EL44" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O45" t="str">
         <f>'pa2'!N83</f>
         <v>{'comm'</v>
@@ -15546,86 +15875,92 @@
         <f>pbreq!W24</f>
         <v>-741600.0}</v>
       </c>
-      <c r="DL45" t="s">
+      <c r="DL45" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="DM45" t="s">
+      <c r="DM45" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="DN45" t="s">
+      <c r="DN45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DO45" t="s">
+      <c r="DO45" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="DP45" t="s">
+      <c r="DP45" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="DQ45">
+      <c r="DQ45" s="8">
         <v>4208498.16</v>
       </c>
-      <c r="DR45" t="s">
+      <c r="DR45" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="DS45">
+      <c r="DS45" s="8">
         <v>1990689</v>
       </c>
-      <c r="DT45" t="s">
+      <c r="DT45" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="DU45">
+      <c r="DU45" s="8">
         <v>6685945</v>
       </c>
-      <c r="DV45" t="s">
+      <c r="DV45" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="DW45">
+      <c r="DW45" s="8">
         <v>16038390</v>
       </c>
-      <c r="DX45" t="s">
+      <c r="DX45" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="DY45" t="s">
+      <c r="DY45" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="DZ45" t="s">
+      <c r="DZ45" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="EA45">
+      <c r="EA45" s="8">
         <v>20246888.16</v>
       </c>
-      <c r="EB45" t="s">
+      <c r="EB45" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="EC45">
+      <c r="EC45" s="8">
         <v>4695256</v>
       </c>
-      <c r="ED45" t="s">
+      <c r="ED45" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="EE45">
+      <c r="EE45" s="8">
         <v>29266957.822832599</v>
       </c>
-      <c r="EF45" t="s">
+      <c r="EF45" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="EG45">
+      <c r="EG45" s="8">
         <v>6787011.3290239898</v>
       </c>
-      <c r="EH45" t="s">
+      <c r="EH45" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="EI45">
+      <c r="EI45" s="8">
         <v>2877548.9122559899</v>
       </c>
-      <c r="EJ45" t="s">
+      <c r="EJ45" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="EK45" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK45" s="8">
+        <v>9664560.2412799895</v>
+      </c>
+      <c r="EL45" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM45" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O46" t="str">
         <f>'pa2'!N84</f>
         <v>{'comm'</v>
@@ -15933,11 +16268,17 @@
       <c r="EJ46" t="s">
         <v>428</v>
       </c>
-      <c r="EK46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK46">
+        <v>0</v>
+      </c>
+      <c r="EL46" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O47" t="str">
         <f>'pa2'!N85</f>
         <v>{'comm'</v>
@@ -16173,11 +16514,17 @@
       <c r="EJ47" t="s">
         <v>428</v>
       </c>
-      <c r="EK47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK47">
+        <v>44405.882879999997</v>
+      </c>
+      <c r="EL47" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O48" t="str">
         <f>'pa2'!N86</f>
         <v>{'comm'</v>
@@ -16413,11 +16760,17 @@
       <c r="EJ48" t="s">
         <v>428</v>
       </c>
-      <c r="EK48" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK48">
+        <v>2567939</v>
+      </c>
+      <c r="EL48" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="76:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX49" s="5" t="str">
         <f>pbreq!L28</f>
         <v>{'identifier'</v>
@@ -16541,11 +16894,17 @@
       <c r="EJ49" t="s">
         <v>428</v>
       </c>
-      <c r="EK49" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK49">
+        <v>25513.1456</v>
+      </c>
+      <c r="EL49" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="76:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX50" s="5" t="str">
         <f>pbreq!L29</f>
         <v>{'identifier'</v>
@@ -16594,86 +16953,92 @@
         <f>pbreq!W29</f>
         <v>0.0}</v>
       </c>
-      <c r="DL50" t="s">
+      <c r="DL50" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="DM50" t="s">
+      <c r="DM50" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="DN50" t="s">
+      <c r="DN50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="DO50" t="s">
+      <c r="DO50" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="DP50" t="s">
+      <c r="DP50" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="DQ50">
+      <c r="DQ50" s="7">
         <v>1737826.2</v>
       </c>
-      <c r="DR50" t="s">
+      <c r="DR50" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="DS50">
+      <c r="DS50" s="7">
         <v>1252600</v>
       </c>
-      <c r="DT50" t="s">
+      <c r="DT50" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="DU50">
+      <c r="DU50" s="7">
         <v>2567939</v>
       </c>
-      <c r="DV50" t="s">
+      <c r="DV50" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="DW50">
+      <c r="DW50" s="7">
         <v>17089920</v>
       </c>
-      <c r="DX50" t="s">
+      <c r="DX50" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="DY50" t="s">
+      <c r="DY50" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="DZ50" t="s">
+      <c r="DZ50" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="EA50">
+      <c r="EA50" s="7">
         <v>18827746.199999999</v>
       </c>
-      <c r="EB50" t="s">
+      <c r="EB50" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="EC50">
+      <c r="EC50" s="7">
         <v>1315339</v>
       </c>
-      <c r="ED50" t="s">
+      <c r="ED50" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="EE50">
+      <c r="EE50" s="7">
         <v>18827746.199999999</v>
       </c>
-      <c r="EF50" t="s">
+      <c r="EF50" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="EG50">
+      <c r="EG50" s="7">
         <v>1315339</v>
       </c>
-      <c r="EH50" t="s">
+      <c r="EH50" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="EI50">
+      <c r="EI50" s="7">
         <v>1252600</v>
       </c>
-      <c r="EJ50" t="s">
+      <c r="EJ50" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="EK50" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="76:141" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EK50" s="7">
+        <v>2567939</v>
+      </c>
+      <c r="EL50" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="76:143" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BX51" s="5" t="str">
         <f>pbreq!L30</f>
         <v>{'identifier'</v>
@@ -16722,86 +17087,92 @@
         <f>pbreq!W30</f>
         <v>-741600.0}</v>
       </c>
-      <c r="DL51" s="7" t="s">
+      <c r="DL51" t="s">
         <v>315</v>
       </c>
-      <c r="DM51" s="7" t="s">
+      <c r="DM51" t="s">
         <v>337</v>
       </c>
-      <c r="DN51" s="7" t="s">
+      <c r="DN51" t="s">
         <v>26</v>
       </c>
-      <c r="DO51" s="7" t="s">
+      <c r="DO51" t="s">
         <v>367</v>
       </c>
-      <c r="DP51" s="7" t="s">
+      <c r="DP51" t="s">
         <v>378</v>
       </c>
-      <c r="DQ51" s="7">
-        <v>4208498.16</v>
-      </c>
-      <c r="DR51" s="7" t="s">
+      <c r="DQ51">
+        <v>4208498.1599999899</v>
+      </c>
+      <c r="DR51" t="s">
         <v>385</v>
       </c>
-      <c r="DS51" s="7">
+      <c r="DS51">
         <v>2176953</v>
       </c>
-      <c r="DT51" s="7" t="s">
+      <c r="DT51" t="s">
         <v>412</v>
       </c>
-      <c r="DU51" s="7">
+      <c r="DU51">
         <v>7318531</v>
       </c>
-      <c r="DV51" s="7" t="s">
+      <c r="DV51" t="s">
         <v>394</v>
       </c>
-      <c r="DW51" s="7">
+      <c r="DW51">
         <v>26632025</v>
       </c>
-      <c r="DX51" s="7" t="s">
+      <c r="DX51" t="s">
         <v>413</v>
       </c>
-      <c r="DY51" s="7" t="s">
+      <c r="DY51" t="s">
         <v>352</v>
       </c>
-      <c r="DZ51" s="7" t="s">
+      <c r="DZ51" t="s">
         <v>414</v>
       </c>
-      <c r="EA51" s="7">
+      <c r="EA51">
         <v>30840523.16</v>
       </c>
-      <c r="EB51" s="7" t="s">
+      <c r="EB51" t="s">
         <v>399</v>
       </c>
-      <c r="EC51" s="7">
+      <c r="EC51">
         <v>5141578</v>
       </c>
-      <c r="ED51" s="7" t="s">
+      <c r="ED51" t="s">
         <v>415</v>
       </c>
-      <c r="EE51" s="7">
+      <c r="EE51">
         <v>44580099.589872599</v>
       </c>
-      <c r="EF51" s="7" t="s">
+      <c r="EF51" t="s">
         <v>416</v>
       </c>
-      <c r="EG51" s="7">
+      <c r="EG51">
         <v>7432171.5653119897</v>
       </c>
-      <c r="EH51" s="7" t="s">
+      <c r="EH51" t="s">
         <v>417</v>
       </c>
-      <c r="EI51" s="7">
+      <c r="EI51">
         <v>3146794.2693119999</v>
       </c>
-      <c r="EJ51" s="7" t="s">
+      <c r="EJ51" t="s">
         <v>428</v>
       </c>
-      <c r="EK51" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" spans="76:141" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="EK51">
+        <v>10578965.834624</v>
+      </c>
+      <c r="EL51" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="76:143" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="DL52" t="s">
         <v>315</v>
       </c>
@@ -16877,11 +17248,17 @@
       <c r="EJ52" t="s">
         <v>428</v>
       </c>
-      <c r="EK52" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="EK52">
+        <v>350640</v>
+      </c>
+      <c r="EL52" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="76:143" x14ac:dyDescent="0.25">
       <c r="DL53" t="s">
         <v>315</v>
       </c>
@@ -16910,7 +17287,7 @@
         <v>412</v>
       </c>
       <c r="DU53">
-        <v>7273522</v>
+        <v>7397819</v>
       </c>
       <c r="DV53" t="s">
         <v>394</v>
@@ -16934,7 +17311,7 @@
         <v>399</v>
       </c>
       <c r="EC53">
-        <v>5063877</v>
+        <v>5188174</v>
       </c>
       <c r="ED53" t="s">
         <v>415</v>
@@ -16946,7 +17323,7 @@
         <v>416</v>
       </c>
       <c r="EG53">
-        <v>7319854.4590079999</v>
+        <v>7499526.2696959898</v>
       </c>
       <c r="EH53" t="s">
         <v>417</v>
@@ -16957,11 +17334,17 @@
       <c r="EJ53" t="s">
         <v>428</v>
       </c>
-      <c r="EK53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="EK53">
+        <v>10693576.9557759</v>
+      </c>
+      <c r="EL53" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="76:143" x14ac:dyDescent="0.25">
       <c r="DL54" t="s">
         <v>315</v>
       </c>
@@ -17037,11 +17420,17 @@
       <c r="EJ54" t="s">
         <v>428</v>
       </c>
-      <c r="EK54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="EK54">
+        <v>163635</v>
+      </c>
+      <c r="EL54" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="76:143" x14ac:dyDescent="0.25">
       <c r="DL55" t="s">
         <v>315</v>
       </c>
@@ -17117,11 +17506,17 @@
       <c r="EJ55" t="s">
         <v>428</v>
       </c>
-      <c r="EK55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="EK55">
+        <v>0</v>
+      </c>
+      <c r="EL55" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="76:143" x14ac:dyDescent="0.25">
       <c r="DL56" t="s">
         <v>315</v>
       </c>
@@ -17197,11 +17592,17 @@
       <c r="EJ56" t="s">
         <v>428</v>
       </c>
-      <c r="EK56" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="76:141" x14ac:dyDescent="0.25">
+      <c r="EK56">
+        <v>350640</v>
+      </c>
+      <c r="EL56" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="76:143" x14ac:dyDescent="0.25">
       <c r="DL57" t="s">
         <v>315</v>
       </c>
@@ -17218,7 +17619,7 @@
         <v>378</v>
       </c>
       <c r="DQ57">
-        <v>-4854588.2699999996</v>
+        <v>-4854588.2699999902</v>
       </c>
       <c r="DR57" t="s">
         <v>385</v>
@@ -17230,7 +17631,7 @@
         <v>412</v>
       </c>
       <c r="DU57">
-        <v>7273522</v>
+        <v>7397819</v>
       </c>
       <c r="DV57" t="s">
         <v>394</v>
@@ -17254,7 +17655,7 @@
         <v>399</v>
       </c>
       <c r="EC57">
-        <v>5063877</v>
+        <v>5188174</v>
       </c>
       <c r="ED57" t="s">
         <v>415</v>
@@ -17266,7 +17667,7 @@
         <v>416</v>
       </c>
       <c r="EG57">
-        <v>7319854.4590079999</v>
+        <v>7499526.2696959898</v>
       </c>
       <c r="EH57" t="s">
         <v>417</v>
@@ -17277,12 +17678,292 @@
       <c r="EJ57" t="s">
         <v>428</v>
       </c>
-      <c r="EK57" t="s">
+      <c r="EK57">
+        <v>10693576.9557759</v>
+      </c>
+      <c r="EL57" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL58" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM58" t="s">
+        <v>446</v>
+      </c>
+      <c r="DN58" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO58" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX58" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY58" t="s">
+        <v>447</v>
+      </c>
+      <c r="EF58" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG58">
+        <v>7787166.2696959898</v>
+      </c>
+      <c r="EL58" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL59" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM59" t="s">
+        <v>448</v>
+      </c>
+      <c r="DN59" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO59" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX59" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY59" t="s">
         <v>449</v>
       </c>
+      <c r="EF59" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG59">
+        <v>7787166.2696959898</v>
+      </c>
+      <c r="EL59" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL60" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM60" t="s">
+        <v>450</v>
+      </c>
+      <c r="DN60" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO60" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX60" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY60" t="s">
+        <v>447</v>
+      </c>
+      <c r="EF60" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG60">
+        <v>10319366.069952</v>
+      </c>
+      <c r="EL60" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL61" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM61" t="s">
+        <v>451</v>
+      </c>
+      <c r="DN61" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO61" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX61" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY61" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF61" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG61">
+        <v>10319366.069952</v>
+      </c>
+      <c r="EL61" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM61" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL62" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM62" t="s">
+        <v>452</v>
+      </c>
+      <c r="DN62" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO62" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX62" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY62" t="s">
+        <v>447</v>
+      </c>
+      <c r="EF62" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG62">
+        <v>3396716.4124799999</v>
+      </c>
+      <c r="EL62" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL63" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM63" t="s">
+        <v>453</v>
+      </c>
+      <c r="DN63" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO63" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX63" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY63" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF63" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG63">
+        <v>3396716.4124799999</v>
+      </c>
+      <c r="EL63" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="76:143" x14ac:dyDescent="0.25">
+      <c r="DL64" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM64" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="DN64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO64" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP64" s="8"/>
+      <c r="DQ64" s="8"/>
+      <c r="DR64" s="8"/>
+      <c r="DS64" s="8"/>
+      <c r="DT64" s="8"/>
+      <c r="DU64" s="8"/>
+      <c r="DV64" s="8"/>
+      <c r="DW64" s="8"/>
+      <c r="DX64" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY64" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="DZ64" s="8"/>
+      <c r="EA64" s="8"/>
+      <c r="EB64" s="8"/>
+      <c r="EC64" s="8"/>
+      <c r="ED64" s="8"/>
+      <c r="EE64" s="8"/>
+      <c r="EF64" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG64" s="8">
+        <v>2293612.99788799</v>
+      </c>
+      <c r="EH64" s="8"/>
+      <c r="EI64" s="8"/>
+      <c r="EJ64" s="8"/>
+      <c r="EK64" s="8"/>
+      <c r="EL64" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="116:143" x14ac:dyDescent="0.25">
+      <c r="DL65" t="s">
+        <v>315</v>
+      </c>
+      <c r="DM65" t="s">
+        <v>455</v>
+      </c>
+      <c r="DN65" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO65" t="s">
+        <v>380</v>
+      </c>
+      <c r="DX65" t="s">
+        <v>413</v>
+      </c>
+      <c r="DY65" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF65" t="s">
+        <v>416</v>
+      </c>
+      <c r="EG65">
+        <v>2337854.99788799</v>
+      </c>
+      <c r="EL65" t="s">
+        <v>403</v>
+      </c>
+      <c r="EM65" t="s">
+        <v>444</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="DL26:EK57">
+  <sortState ref="DL26:EM57">
     <sortCondition ref="DM26:DM57"/>
     <sortCondition ref="DO26:DO57"/>
   </sortState>
@@ -17292,7 +17973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
